--- a/dist/产品库存及周转统计.xlsx
+++ b/dist/产品库存及周转统计.xlsx
@@ -1831,12 +1831,11 @@
     <col min="7" max="7" width="9.46153846153846" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.46153846153846" style="2" customWidth="1"/>
     <col min="9" max="9" width="9.46153846153846" style="3" customWidth="1"/>
-    <col min="10" max="11" width="10" style="1" customWidth="1"/>
-    <col min="12" max="14" width="10" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="4" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="9" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="18" width="24.3461538461538" style="5" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="9" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="14" width="10" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="4" customWidth="1"/>
+    <col min="16" max="16" width="9" style="1" customWidth="1"/>
+    <col min="17" max="18" width="24.3461538461538" style="5" customWidth="1"/>
+    <col min="19" max="19" width="9" style="1" customWidth="1"/>
     <col min="20" max="20" width="10.2596153846154" style="1" customWidth="1"/>
     <col min="21" max="21" width="10.2596153846154" style="6" customWidth="1"/>
     <col min="22" max="22" width="9" style="6" customWidth="1"/>

--- a/dist/产品库存及周转统计.xlsx
+++ b/dist/产品库存及周转统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="15240"/>
+    <workbookView windowWidth="28000" windowHeight="15860"/>
   </bookViews>
   <sheets>
     <sheet name="产品库存" sheetId="1" r:id="rId1"/>
@@ -1814,11 +1814,11 @@
   <dimension ref="A1:AH72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB6" sqref="AB6"/>
+      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>

--- a/dist/产品库存及周转统计.xlsx
+++ b/dist/产品库存及周转统计.xlsx
@@ -10,14 +10,14 @@
     <sheet name="产品库存" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">产品库存!$A$1:$AH$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">产品库存!$A$1:$AH$45</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="210">
   <si>
     <t>名称</t>
   </si>
@@ -613,6 +613,54 @@
   </si>
   <si>
     <t>X004B7RHEL</t>
+  </si>
+  <si>
+    <t>床边三袋（白色）2p</t>
+  </si>
+  <si>
+    <t>B0F44CBC9X</t>
+  </si>
+  <si>
+    <t>BedSideCaddy-White-2pcs</t>
+  </si>
+  <si>
+    <t>X004N2F77X</t>
+  </si>
+  <si>
+    <t>床边三袋（粉红）2p</t>
+  </si>
+  <si>
+    <t>B0F44C2666</t>
+  </si>
+  <si>
+    <t>BedSideCaddy-Pink-2pcs</t>
+  </si>
+  <si>
+    <t>X004N1VIO5</t>
+  </si>
+  <si>
+    <t>床边三袋（灰）1p</t>
+  </si>
+  <si>
+    <t>B0F44F7QLY</t>
+  </si>
+  <si>
+    <t>BedSideCaddy-Gray-1pcs</t>
+  </si>
+  <si>
+    <t>X004N1VGWJ</t>
+  </si>
+  <si>
+    <t>【小】灰色(1p)</t>
+  </si>
+  <si>
+    <t>B0F44FCTPC</t>
+  </si>
+  <si>
+    <t>WallHangingBagSmallGray_1p</t>
+  </si>
+  <si>
+    <t>X004N2F68N</t>
   </si>
 </sst>
 </file>
@@ -1340,7 +1388,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1412,6 +1460,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1814,11 +1865,11 @@
   <dimension ref="A1:AH72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1864,16 +1915,16 @@
       <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="33" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="8" t="s">
@@ -1889,34 +1940,34 @@
       <c r="N1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="O1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="Q1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="R1" s="35" t="s">
         <v>15</v>
       </c>
       <c r="T1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="35" t="s">
+      <c r="U1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="35" t="s">
+      <c r="V1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="35" t="s">
+      <c r="W1" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="35" t="s">
+      <c r="X1" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="35" t="s">
+      <c r="Y1" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="35" t="s">
+      <c r="Z1" s="36" t="s">
         <v>22</v>
       </c>
       <c r="AD1" s="7" t="s">
@@ -1948,29 +1999,29 @@
       <c r="D2" s="9">
         <v>0</v>
       </c>
-      <c r="E2" s="26">
-        <f t="shared" ref="E2:E41" si="0">C2+D2</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="27">
+      <c r="E2" s="27">
+        <f t="shared" ref="E2:E45" si="0">C2+D2</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="28">
         <v>16.4</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="29">
         <v>13.8</v>
       </c>
-      <c r="H2" s="25">
+      <c r="H2" s="26">
         <v>20.5</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="26">
         <f t="shared" ref="I2:I19" si="1">MAX(F2,G2)*1.375</f>
         <v>22.55</v>
       </c>
-      <c r="J2" s="25">
-        <f t="shared" ref="J2:J41" si="2">(C2)/I2</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="25">
-        <f t="shared" ref="K2:K41" si="3">(E2)/I2</f>
+      <c r="J2" s="26">
+        <f t="shared" ref="J2:J45" si="2">(C2)/I2</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="26">
+        <f t="shared" ref="K2:K45" si="3">(E2)/I2</f>
         <v>0</v>
       </c>
       <c r="L2" s="17"/>
@@ -1980,30 +2031,30 @@
       <c r="N2" s="17">
         <v>6</v>
       </c>
-      <c r="O2" s="33">
+      <c r="O2" s="34">
         <f t="shared" ref="O2:O43" si="4">M2+N2</f>
         <v>25.43</v>
       </c>
-      <c r="Q2" s="34">
-        <f t="shared" ref="Q2:Q43" si="5">M2*C2</f>
-        <v>0</v>
-      </c>
-      <c r="R2" s="34">
-        <f t="shared" ref="R2:R43" si="6">M2*D2</f>
+      <c r="Q2" s="35">
+        <f t="shared" ref="Q2:Q45" si="5">M2*C2</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="35">
+        <f t="shared" ref="R2:R45" si="6">M2*D2</f>
         <v>0</v>
       </c>
       <c r="T2" s="7">
         <v>36</v>
       </c>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="37">
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="38">
         <f>CEILING(MAX(0,135-MAX(K2,60))*I2/T2,1)*T2</f>
         <v>1692</v>
       </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="37">
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="38">
         <f>MIN(CEILING(MAX(0,115-MAX(J2,30))*I2/T2,1)*T2,D2)</f>
         <v>0</v>
       </c>
@@ -2036,28 +2087,28 @@
       <c r="D3" s="9">
         <v>0</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="28">
         <v>5.7</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="29">
         <v>5.3</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="26">
         <v>8</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="26">
         <f t="shared" si="1"/>
         <v>7.8375</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K3" s="25">
+      <c r="K3" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2068,30 +2119,30 @@
       <c r="N3" s="17">
         <v>10</v>
       </c>
-      <c r="O3" s="33">
+      <c r="O3" s="34">
         <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q3" s="34">
+      <c r="Q3" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R3" s="34">
+      <c r="R3" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T3" s="7">
         <v>32</v>
       </c>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="37">
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="38">
         <f>CEILING(MAX(0,135-MAX(K3,60))*I3/T3,1)*T3</f>
         <v>608</v>
       </c>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="37">
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="38">
         <f>MIN(CEILING(MAX(0,115-MAX(J3,30))*I3/T3,1)*T3,D3)</f>
         <v>0</v>
       </c>
@@ -2124,28 +2175,28 @@
       <c r="D4" s="9">
         <v>0</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="28">
         <v>5.4</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="29">
         <v>6.1</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="26">
         <v>8</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="26">
         <f t="shared" si="1"/>
         <v>8.3875</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2156,30 +2207,30 @@
       <c r="N4" s="17">
         <v>6.98</v>
       </c>
-      <c r="O4" s="33">
+      <c r="O4" s="34">
         <f t="shared" si="4"/>
         <v>29.72</v>
       </c>
-      <c r="Q4" s="34">
+      <c r="Q4" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R4" s="34">
+      <c r="R4" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T4" s="7">
         <v>42</v>
       </c>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="37">
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="38">
         <f>CEILING(MAX(0,135-MAX(K4,60))*I4/T4,1)*T4</f>
         <v>630</v>
       </c>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="37">
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="38">
         <f>MIN(CEILING(MAX(0,115-MAX(J4,30))*I4/T4,1)*T4,D4)</f>
         <v>0</v>
       </c>
@@ -2212,28 +2263,28 @@
       <c r="D5" s="9">
         <v>0</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="28">
         <v>10</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="29">
         <v>11.5</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="26">
         <v>17</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="26">
         <f t="shared" si="1"/>
         <v>15.8125</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2244,30 +2295,30 @@
       <c r="N5" s="17">
         <v>10</v>
       </c>
-      <c r="O5" s="33">
+      <c r="O5" s="34">
         <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q5" s="34">
+      <c r="Q5" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R5" s="34">
+      <c r="R5" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T5" s="7">
         <v>32</v>
       </c>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="37">
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="38">
         <f>CEILING(MAX(0,135-MAX(K5,60))*I5/T5,1)*T5</f>
         <v>1216</v>
       </c>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="37">
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="38">
         <f>MIN(CEILING(MAX(0,115-MAX(J5,30))*I5/T5,1)*T5,D5)</f>
         <v>0</v>
       </c>
@@ -2300,28 +2351,28 @@
       <c r="D6" s="9">
         <v>0</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="28">
         <v>9.2</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="29">
         <v>9.4</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="26">
         <v>13.5</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="26">
         <f t="shared" si="1"/>
         <v>12.925</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2332,30 +2383,30 @@
       <c r="N6" s="17">
         <v>10</v>
       </c>
-      <c r="O6" s="33">
+      <c r="O6" s="34">
         <f t="shared" si="4"/>
         <v>36.57</v>
       </c>
-      <c r="Q6" s="34">
+      <c r="Q6" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R6" s="34">
+      <c r="R6" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T6" s="7">
         <v>32</v>
       </c>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="37">
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="38">
         <f>CEILING(MAX(0,135-MAX(K6,60))*I6/T6,1)*T6</f>
         <v>992</v>
       </c>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="37">
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="38">
         <f>MIN(CEILING(MAX(0,115-MAX(J6,30))*I6/T6,1)*T6,D6)</f>
         <v>0</v>
       </c>
@@ -2388,28 +2439,28 @@
       <c r="D7" s="9">
         <v>0</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="28">
         <v>1</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="29">
         <v>1.3</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="26">
         <v>2.5</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="26">
         <f t="shared" si="1"/>
         <v>1.7875</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2420,33 +2471,33 @@
       <c r="N7" s="17">
         <v>13.38</v>
       </c>
-      <c r="O7" s="33">
+      <c r="O7" s="34">
         <f t="shared" si="4"/>
         <v>49.49</v>
       </c>
-      <c r="Q7" s="34">
+      <c r="Q7" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R7" s="34">
+      <c r="R7" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T7" s="7">
         <v>12</v>
       </c>
-      <c r="U7" s="36"/>
-      <c r="V7" s="37">
+      <c r="U7" s="37"/>
+      <c r="V7" s="38">
         <f>CEILING(MAX(0,120-MAX(K7,60))*I7/T7,1)*T7</f>
         <v>108</v>
       </c>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="37">
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="38">
         <f>MIN(CEILING(MAX(0,100-MAX(J7,30))*I7/T7,1)*T7,D7)</f>
         <v>0</v>
       </c>
-      <c r="Z7" s="36"/>
+      <c r="Z7" s="37"/>
       <c r="AD7" s="7" t="s">
         <v>50</v>
       </c>
@@ -2476,29 +2527,29 @@
       <c r="D8" s="9">
         <v>0</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="28">
         <v>1.7</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="29">
         <v>1.6</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="26">
         <f t="shared" ref="H8:H14" si="7">MAX(E8,F8)*1.375</f>
         <v>2.3375</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="26">
         <f t="shared" si="1"/>
         <v>2.3375</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K8" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2509,33 +2560,33 @@
       <c r="N8" s="17">
         <v>10.47</v>
       </c>
-      <c r="O8" s="33">
+      <c r="O8" s="34">
         <f t="shared" si="4"/>
         <v>44.18</v>
       </c>
-      <c r="Q8" s="34">
+      <c r="Q8" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R8" s="34">
+      <c r="R8" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T8" s="7">
         <v>15</v>
       </c>
-      <c r="U8" s="36"/>
-      <c r="V8" s="37">
+      <c r="U8" s="37"/>
+      <c r="V8" s="38">
         <f t="shared" ref="V8:V15" si="8">CEILING(MAX(0,120-MAX(K8,60))*I8/T8,1)*T8</f>
         <v>150</v>
       </c>
-      <c r="W8" s="36"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="37">
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="38">
         <f t="shared" ref="Y8:Y15" si="9">MIN(CEILING(MAX(0,100-MAX(J8,30))*I8/T8,1)*T8,D8)</f>
         <v>0</v>
       </c>
-      <c r="Z8" s="36"/>
+      <c r="Z8" s="37"/>
       <c r="AD8" s="7" t="s">
         <v>54</v>
       </c>
@@ -2565,28 +2616,28 @@
       <c r="D9" s="9">
         <v>0</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="28">
         <v>1.7</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="29">
         <v>1.3</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="26">
         <v>5</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="26">
         <f t="shared" si="1"/>
         <v>2.3375</v>
       </c>
-      <c r="J9" s="25">
+      <c r="J9" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="25">
+      <c r="K9" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2597,33 +2648,33 @@
       <c r="N9" s="17">
         <v>9</v>
       </c>
-      <c r="O9" s="33">
+      <c r="O9" s="34">
         <f t="shared" si="4"/>
         <v>37.52</v>
       </c>
-      <c r="Q9" s="34">
+      <c r="Q9" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R9" s="34">
+      <c r="R9" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T9" s="7">
         <v>28</v>
       </c>
-      <c r="U9" s="36"/>
-      <c r="V9" s="37">
+      <c r="U9" s="37"/>
+      <c r="V9" s="38">
         <f t="shared" si="8"/>
         <v>168</v>
       </c>
-      <c r="W9" s="36"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="37">
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="38">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z9" s="36"/>
+      <c r="Z9" s="37"/>
       <c r="AD9" s="7" t="s">
         <v>58</v>
       </c>
@@ -2653,28 +2704,28 @@
       <c r="D10" s="9">
         <v>0</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="28">
         <v>0.2</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="29">
         <v>0.8</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="26">
         <v>5</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="26">
         <f t="shared" si="1"/>
         <v>1.1</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="25">
+      <c r="K10" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2685,33 +2736,33 @@
       <c r="N10" s="17">
         <v>10</v>
       </c>
-      <c r="O10" s="33">
+      <c r="O10" s="34">
         <f t="shared" si="4"/>
         <v>36.57</v>
       </c>
-      <c r="Q10" s="34">
+      <c r="Q10" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R10" s="34">
+      <c r="R10" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T10" s="7">
         <v>32</v>
       </c>
-      <c r="U10" s="36"/>
-      <c r="V10" s="37">
+      <c r="U10" s="37"/>
+      <c r="V10" s="38">
         <f t="shared" si="8"/>
         <v>96</v>
       </c>
-      <c r="W10" s="36"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="37">
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="38">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z10" s="36"/>
+      <c r="Z10" s="37"/>
       <c r="AD10" s="7" t="s">
         <v>62</v>
       </c>
@@ -2741,28 +2792,28 @@
       <c r="D11" s="9">
         <v>0</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="28">
         <v>3.7</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="29">
         <v>4.2</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="26">
         <v>5.5</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="26">
         <f t="shared" si="1"/>
         <v>5.775</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="25">
+      <c r="K11" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2773,33 +2824,33 @@
       <c r="N11" s="17">
         <v>13.38</v>
       </c>
-      <c r="O11" s="33">
+      <c r="O11" s="34">
         <f t="shared" si="4"/>
         <v>49.49</v>
       </c>
-      <c r="Q11" s="34">
+      <c r="Q11" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R11" s="34">
+      <c r="R11" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T11" s="7">
         <v>24</v>
       </c>
-      <c r="U11" s="36"/>
-      <c r="V11" s="37">
+      <c r="U11" s="37"/>
+      <c r="V11" s="38">
         <f t="shared" si="8"/>
         <v>360</v>
       </c>
-      <c r="W11" s="36"/>
-      <c r="X11" s="36"/>
-      <c r="Y11" s="37">
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="38">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z11" s="36"/>
+      <c r="Z11" s="37"/>
       <c r="AD11" s="7" t="s">
         <v>66</v>
       </c>
@@ -2829,29 +2880,29 @@
       <c r="D12" s="9">
         <v>0</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="28">
         <v>0.1</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="29">
         <v>0.2</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="26">
         <f t="shared" si="7"/>
         <v>0.1375</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12" s="26">
         <f t="shared" si="1"/>
         <v>0.275</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K12" s="25">
+      <c r="K12" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2862,33 +2913,33 @@
       <c r="N12" s="17">
         <v>13.38</v>
       </c>
-      <c r="O12" s="33">
+      <c r="O12" s="34">
         <f t="shared" si="4"/>
         <v>53.18</v>
       </c>
-      <c r="Q12" s="34">
+      <c r="Q12" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R12" s="34">
+      <c r="R12" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T12" s="7">
         <v>12</v>
       </c>
-      <c r="U12" s="36"/>
-      <c r="V12" s="37">
+      <c r="U12" s="37"/>
+      <c r="V12" s="38">
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="W12" s="36"/>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="37">
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="38">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="36"/>
+      <c r="Z12" s="37"/>
       <c r="AD12" s="7" t="s">
         <v>70</v>
       </c>
@@ -2918,29 +2969,29 @@
       <c r="D13" s="9">
         <v>0</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="28">
         <v>0.8</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="29">
         <v>1.1</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="26">
         <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
-      <c r="I13" s="25">
+      <c r="I13" s="26">
         <f t="shared" si="1"/>
         <v>1.5125</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J13" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K13" s="25">
+      <c r="K13" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2951,33 +3002,33 @@
       <c r="N13" s="17">
         <v>10.47</v>
       </c>
-      <c r="O13" s="33">
+      <c r="O13" s="34">
         <f t="shared" si="4"/>
         <v>44.18</v>
       </c>
-      <c r="Q13" s="34">
+      <c r="Q13" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R13" s="34">
+      <c r="R13" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T13" s="7">
         <v>15</v>
       </c>
-      <c r="U13" s="36"/>
-      <c r="V13" s="37">
+      <c r="U13" s="37"/>
+      <c r="V13" s="38">
         <f t="shared" si="8"/>
         <v>105</v>
       </c>
-      <c r="W13" s="36"/>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="37">
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="38">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="36"/>
+      <c r="Z13" s="37"/>
       <c r="AD13" s="7" t="s">
         <v>74</v>
       </c>
@@ -3007,29 +3058,29 @@
       <c r="D14" s="9">
         <v>0</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="28">
         <v>2.5</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="29">
         <v>2</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="26">
         <f t="shared" si="7"/>
         <v>3.4375</v>
       </c>
-      <c r="I14" s="25">
+      <c r="I14" s="26">
         <f t="shared" si="1"/>
         <v>3.4375</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J14" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K14" s="25">
+      <c r="K14" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3040,33 +3091,33 @@
       <c r="N14" s="17">
         <v>13.38</v>
       </c>
-      <c r="O14" s="33">
+      <c r="O14" s="34">
         <f t="shared" si="4"/>
         <v>53.18</v>
       </c>
-      <c r="Q14" s="34">
+      <c r="Q14" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R14" s="34">
+      <c r="R14" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T14" s="7">
         <v>12</v>
       </c>
-      <c r="U14" s="36"/>
-      <c r="V14" s="37">
+      <c r="U14" s="37"/>
+      <c r="V14" s="38">
         <f t="shared" si="8"/>
         <v>216</v>
       </c>
-      <c r="W14" s="36"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="37">
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="38">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="36"/>
+      <c r="Z14" s="37"/>
       <c r="AD14" s="7" t="s">
         <v>78</v>
       </c>
@@ -3096,7 +3147,7 @@
       <c r="D15" s="9">
         <v>0</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3106,18 +3157,18 @@
       <c r="G15" s="7">
         <v>0.1</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="26">
         <v>3</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I15" s="26">
         <f t="shared" si="1"/>
         <v>0.55</v>
       </c>
-      <c r="J15" s="25">
+      <c r="J15" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K15" s="25">
+      <c r="K15" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3128,33 +3179,33 @@
       <c r="N15" s="17">
         <v>10</v>
       </c>
-      <c r="O15" s="33">
+      <c r="O15" s="34">
         <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q15" s="34">
+      <c r="Q15" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R15" s="34">
+      <c r="R15" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T15" s="7">
         <v>16</v>
       </c>
-      <c r="U15" s="36"/>
-      <c r="V15" s="37">
+      <c r="U15" s="37"/>
+      <c r="V15" s="38">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
-      <c r="W15" s="36"/>
-      <c r="X15" s="36"/>
-      <c r="Y15" s="37">
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="38">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z15" s="36"/>
+      <c r="Z15" s="37"/>
       <c r="AD15" s="7" t="s">
         <v>82</v>
       </c>
@@ -3184,28 +3235,28 @@
       <c r="D16" s="9">
         <v>0</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="28">
         <v>1.4</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="29">
         <v>1.4</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16" s="26">
         <v>1.9</v>
       </c>
-      <c r="I16" s="25">
+      <c r="I16" s="26">
         <f t="shared" si="1"/>
         <v>1.925</v>
       </c>
-      <c r="J16" s="25">
+      <c r="J16" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K16" s="25">
+      <c r="K16" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3216,33 +3267,33 @@
       <c r="N16" s="17">
         <v>10</v>
       </c>
-      <c r="O16" s="33">
+      <c r="O16" s="34">
         <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q16" s="34">
+      <c r="Q16" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R16" s="34">
+      <c r="R16" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T16" s="7">
         <v>16</v>
       </c>
-      <c r="U16" s="37">
+      <c r="U16" s="38">
         <f>CEILING(MAX(0,90-MAX(K16,60))*I16/T16,1)*T16</f>
         <v>64</v>
       </c>
-      <c r="V16" s="36"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="37">
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="38">
         <f>MIN(CEILING(MAX(0,70-MAX(J16,30))*I16/T16,1)*T16,D16)</f>
         <v>0</v>
       </c>
-      <c r="Y16" s="36"/>
-      <c r="Z16" s="36"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="37"/>
       <c r="AD16" s="7" t="s">
         <v>86</v>
       </c>
@@ -3272,28 +3323,28 @@
       <c r="D17" s="9">
         <v>0</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="28">
         <v>1</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="29">
         <v>0.4</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H17" s="26">
         <v>6</v>
       </c>
-      <c r="I17" s="25">
+      <c r="I17" s="26">
         <f t="shared" si="1"/>
         <v>1.375</v>
       </c>
-      <c r="J17" s="25">
+      <c r="J17" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K17" s="25">
+      <c r="K17" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3304,33 +3355,33 @@
       <c r="N17" s="17">
         <v>6</v>
       </c>
-      <c r="O17" s="33">
+      <c r="O17" s="34">
         <f t="shared" si="4"/>
         <v>25.43</v>
       </c>
-      <c r="Q17" s="34">
+      <c r="Q17" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R17" s="34">
+      <c r="R17" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T17" s="7">
         <v>20</v>
       </c>
-      <c r="U17" s="37">
+      <c r="U17" s="38">
         <f>CEILING(MAX(0,90-MAX(K17,60))*I17/T17,1)*T17</f>
         <v>60</v>
       </c>
-      <c r="V17" s="36"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="37">
-        <f t="shared" ref="X17:X41" si="10">MIN(CEILING(MAX(0,70-MAX(J17,30))*I17/T17,1)*T17,D17)</f>
-        <v>0</v>
-      </c>
-      <c r="Y17" s="36"/>
-      <c r="Z17" s="36"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="38">
+        <f t="shared" ref="X17:X43" si="10">MIN(CEILING(MAX(0,70-MAX(J17,30))*I17/T17,1)*T17,D17)</f>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="37"/>
       <c r="AD17" s="7" t="s">
         <v>90</v>
       </c>
@@ -3360,29 +3411,29 @@
       <c r="D18" s="9">
         <v>0</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="28">
         <v>1</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="29">
         <v>0.3</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H18" s="26">
         <f t="shared" ref="H18:H21" si="11">MAX(E18,F18)*1.375</f>
         <v>1.375</v>
       </c>
-      <c r="I18" s="25">
+      <c r="I18" s="26">
         <f t="shared" si="1"/>
         <v>1.375</v>
       </c>
-      <c r="J18" s="25">
+      <c r="J18" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K18" s="25">
+      <c r="K18" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3393,33 +3444,33 @@
       <c r="N18" s="17">
         <v>13.38</v>
       </c>
-      <c r="O18" s="33">
+      <c r="O18" s="34">
         <f t="shared" si="4"/>
         <v>49.49</v>
       </c>
-      <c r="Q18" s="34">
+      <c r="Q18" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R18" s="34">
+      <c r="R18" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T18" s="7">
         <v>12</v>
       </c>
-      <c r="U18" s="37">
-        <f t="shared" ref="U18:U41" si="12">CEILING(MAX(0,90-MAX(K18,60))*I18/T18,1)*T18</f>
+      <c r="U18" s="38">
+        <f t="shared" ref="U18:U43" si="12">CEILING(MAX(0,90-MAX(K18,60))*I18/T18,1)*T18</f>
         <v>48</v>
       </c>
-      <c r="V18" s="36"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="37">
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y18" s="36"/>
-      <c r="Z18" s="36"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="37"/>
       <c r="AD18" s="7" t="s">
         <v>94</v>
       </c>
@@ -3449,28 +3500,28 @@
       <c r="D19" s="9">
         <v>0</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="27">
+      <c r="F19" s="28">
         <v>0.5</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="29">
         <v>0.9</v>
       </c>
-      <c r="H19" s="25">
+      <c r="H19" s="26">
         <v>1.4</v>
       </c>
-      <c r="I19" s="25">
+      <c r="I19" s="26">
         <f t="shared" ref="I19:I41" si="13">MAX(F19,G19)*1.375</f>
         <v>1.2375</v>
       </c>
-      <c r="J19" s="25">
+      <c r="J19" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K19" s="25">
+      <c r="K19" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3481,33 +3532,33 @@
       <c r="N19" s="17">
         <v>10</v>
       </c>
-      <c r="O19" s="33">
+      <c r="O19" s="34">
         <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q19" s="34">
+      <c r="Q19" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R19" s="34">
+      <c r="R19" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T19" s="7">
         <v>16</v>
       </c>
-      <c r="U19" s="37">
+      <c r="U19" s="38">
         <f t="shared" si="12"/>
         <v>48</v>
       </c>
-      <c r="V19" s="36"/>
-      <c r="W19" s="36"/>
-      <c r="X19" s="37">
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y19" s="36"/>
-      <c r="Z19" s="36"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="37"/>
       <c r="AD19" s="7" t="s">
         <v>98</v>
       </c>
@@ -3537,29 +3588,29 @@
       <c r="D20" s="9">
         <v>0</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="27">
-        <v>0</v>
-      </c>
-      <c r="G20" s="28">
+      <c r="F20" s="28">
+        <v>0</v>
+      </c>
+      <c r="G20" s="29">
         <v>0.4</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H20" s="26">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I20" s="25">
+      <c r="I20" s="26">
         <f t="shared" si="13"/>
         <v>0.55</v>
       </c>
-      <c r="J20" s="25">
+      <c r="J20" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K20" s="25">
+      <c r="K20" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3570,33 +3621,33 @@
       <c r="N20" s="17">
         <v>13.38</v>
       </c>
-      <c r="O20" s="33">
+      <c r="O20" s="34">
         <f t="shared" si="4"/>
         <v>49.49</v>
       </c>
-      <c r="Q20" s="34">
+      <c r="Q20" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R20" s="34">
+      <c r="R20" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T20" s="7">
         <v>12</v>
       </c>
-      <c r="U20" s="37">
+      <c r="U20" s="38">
         <f t="shared" si="12"/>
         <v>24</v>
       </c>
-      <c r="V20" s="36"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="37">
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y20" s="36"/>
-      <c r="Z20" s="36"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="37"/>
       <c r="AD20" s="7" t="s">
         <v>102</v>
       </c>
@@ -3626,29 +3677,29 @@
       <c r="D21" s="9">
         <v>0</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="28">
         <v>1.7</v>
       </c>
-      <c r="G21" s="28">
+      <c r="G21" s="29">
         <v>1.8</v>
       </c>
-      <c r="H21" s="25">
+      <c r="H21" s="26">
         <f t="shared" si="11"/>
         <v>2.3375</v>
       </c>
-      <c r="I21" s="25">
+      <c r="I21" s="26">
         <f t="shared" si="13"/>
         <v>2.475</v>
       </c>
-      <c r="J21" s="25">
+      <c r="J21" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K21" s="25">
+      <c r="K21" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3659,33 +3710,33 @@
       <c r="N21" s="17">
         <v>6.98</v>
       </c>
-      <c r="O21" s="33">
+      <c r="O21" s="34">
         <f t="shared" si="4"/>
         <v>29.72</v>
       </c>
-      <c r="Q21" s="34">
+      <c r="Q21" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R21" s="34">
+      <c r="R21" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T21" s="7">
         <v>21</v>
       </c>
-      <c r="U21" s="37">
+      <c r="U21" s="38">
         <f t="shared" si="12"/>
         <v>84</v>
       </c>
-      <c r="V21" s="36"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="37">
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="36"/>
-      <c r="Z21" s="36"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="37"/>
       <c r="AD21" s="7" t="s">
         <v>106</v>
       </c>
@@ -3715,28 +3766,28 @@
       <c r="D22" s="9">
         <v>0</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="27">
+      <c r="F22" s="28">
         <v>0.5</v>
       </c>
-      <c r="G22" s="28">
+      <c r="G22" s="29">
         <v>0.5</v>
       </c>
-      <c r="H22" s="25">
+      <c r="H22" s="26">
         <v>2</v>
       </c>
-      <c r="I22" s="25">
+      <c r="I22" s="26">
         <f t="shared" si="13"/>
         <v>0.6875</v>
       </c>
-      <c r="J22" s="25">
+      <c r="J22" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K22" s="25">
+      <c r="K22" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3747,33 +3798,33 @@
       <c r="N22" s="17">
         <v>9</v>
       </c>
-      <c r="O22" s="33">
+      <c r="O22" s="34">
         <f t="shared" si="4"/>
         <v>37.52</v>
       </c>
-      <c r="Q22" s="34">
+      <c r="Q22" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R22" s="34">
+      <c r="R22" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T22" s="7">
         <v>14</v>
       </c>
-      <c r="U22" s="37">
+      <c r="U22" s="38">
         <f t="shared" si="12"/>
         <v>28</v>
       </c>
-      <c r="V22" s="36"/>
-      <c r="W22" s="36"/>
-      <c r="X22" s="37">
+      <c r="V22" s="37"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="36"/>
-      <c r="Z22" s="36"/>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="37"/>
       <c r="AD22" s="7" t="s">
         <v>110</v>
       </c>
@@ -3803,29 +3854,29 @@
       <c r="D23" s="9">
         <v>0</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F23" s="27">
+      <c r="F23" s="28">
         <v>0.5</v>
       </c>
-      <c r="G23" s="28">
+      <c r="G23" s="29">
         <v>0.7</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23" s="26">
         <f t="shared" ref="H23:H32" si="14">MAX(E23,F23)*1.375</f>
         <v>0.6875</v>
       </c>
-      <c r="I23" s="25">
+      <c r="I23" s="26">
         <f t="shared" si="13"/>
         <v>0.9625</v>
       </c>
-      <c r="J23" s="25">
+      <c r="J23" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K23" s="25">
+      <c r="K23" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3836,33 +3887,33 @@
       <c r="N23" s="17">
         <v>10</v>
       </c>
-      <c r="O23" s="33">
+      <c r="O23" s="34">
         <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q23" s="34">
+      <c r="Q23" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R23" s="34">
+      <c r="R23" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T23" s="7">
         <v>16</v>
       </c>
-      <c r="U23" s="37">
+      <c r="U23" s="38">
         <f t="shared" si="12"/>
         <v>32</v>
       </c>
-      <c r="V23" s="36"/>
-      <c r="W23" s="36"/>
-      <c r="X23" s="37">
+      <c r="V23" s="37"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y23" s="36"/>
-      <c r="Z23" s="36"/>
+      <c r="Y23" s="37"/>
+      <c r="Z23" s="37"/>
       <c r="AD23" s="7" t="s">
         <v>114</v>
       </c>
@@ -3892,29 +3943,29 @@
       <c r="D24" s="9">
         <v>0</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E24" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="29">
         <v>0.7</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="29">
         <v>1</v>
       </c>
-      <c r="H24" s="25">
+      <c r="H24" s="26">
         <f t="shared" si="14"/>
         <v>0.9625</v>
       </c>
-      <c r="I24" s="25">
+      <c r="I24" s="26">
         <f t="shared" si="13"/>
         <v>1.375</v>
       </c>
-      <c r="J24" s="25">
+      <c r="J24" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K24" s="25">
+      <c r="K24" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3925,33 +3976,33 @@
       <c r="N24" s="17">
         <v>10</v>
       </c>
-      <c r="O24" s="33">
+      <c r="O24" s="34">
         <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q24" s="34">
+      <c r="Q24" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R24" s="34">
+      <c r="R24" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T24" s="7">
         <v>16</v>
       </c>
-      <c r="U24" s="37">
+      <c r="U24" s="38">
         <f t="shared" si="12"/>
         <v>48</v>
       </c>
-      <c r="V24" s="36"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="37">
+      <c r="V24" s="37"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y24" s="36"/>
-      <c r="Z24" s="36"/>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="37"/>
       <c r="AD24" s="7" t="s">
         <v>118</v>
       </c>
@@ -3981,28 +4032,28 @@
       <c r="D25" s="9">
         <v>0</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E25" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F25" s="28">
+      <c r="F25" s="29">
         <v>1.2</v>
       </c>
-      <c r="G25" s="28">
+      <c r="G25" s="29">
         <v>1.4</v>
       </c>
-      <c r="H25" s="25">
+      <c r="H25" s="26">
         <v>2.5</v>
       </c>
-      <c r="I25" s="25">
+      <c r="I25" s="26">
         <f t="shared" si="13"/>
         <v>1.925</v>
       </c>
-      <c r="J25" s="25">
+      <c r="J25" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K25" s="25">
+      <c r="K25" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4013,33 +4064,33 @@
       <c r="N25" s="17">
         <v>6</v>
       </c>
-      <c r="O25" s="33">
+      <c r="O25" s="34">
         <f t="shared" si="4"/>
         <v>25.43</v>
       </c>
-      <c r="Q25" s="34">
+      <c r="Q25" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R25" s="34">
+      <c r="R25" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T25" s="7">
         <v>20</v>
       </c>
-      <c r="U25" s="37">
+      <c r="U25" s="38">
         <f t="shared" si="12"/>
         <v>60</v>
       </c>
-      <c r="V25" s="36"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="37">
+      <c r="V25" s="37"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y25" s="36"/>
-      <c r="Z25" s="36"/>
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="37"/>
       <c r="AD25" s="7" t="s">
         <v>122</v>
       </c>
@@ -4069,28 +4120,28 @@
       <c r="D26" s="9">
         <v>0</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="29">
         <v>0.7</v>
       </c>
-      <c r="G26" s="28">
+      <c r="G26" s="29">
         <v>0.7</v>
       </c>
-      <c r="H26" s="25">
+      <c r="H26" s="26">
         <v>4</v>
       </c>
-      <c r="I26" s="25">
+      <c r="I26" s="26">
         <f t="shared" si="13"/>
         <v>0.9625</v>
       </c>
-      <c r="J26" s="25">
+      <c r="J26" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K26" s="25">
+      <c r="K26" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4101,33 +4152,33 @@
       <c r="N26" s="17">
         <v>6.98</v>
       </c>
-      <c r="O26" s="33">
+      <c r="O26" s="34">
         <f t="shared" si="4"/>
         <v>29.72</v>
       </c>
-      <c r="Q26" s="34">
+      <c r="Q26" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R26" s="34">
+      <c r="R26" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T26" s="7">
         <v>21</v>
       </c>
-      <c r="U26" s="37">
+      <c r="U26" s="38">
         <f t="shared" si="12"/>
         <v>42</v>
       </c>
-      <c r="V26" s="36"/>
-      <c r="W26" s="36"/>
-      <c r="X26" s="37">
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y26" s="36"/>
-      <c r="Z26" s="36"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="37"/>
       <c r="AD26" s="7" t="s">
         <v>126</v>
       </c>
@@ -4157,29 +4208,29 @@
       <c r="D27" s="9">
         <v>0</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E27" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F27" s="28">
+      <c r="F27" s="29">
         <v>1.5</v>
       </c>
-      <c r="G27" s="28">
+      <c r="G27" s="29">
         <v>1.2</v>
       </c>
-      <c r="H27" s="25">
+      <c r="H27" s="26">
         <f t="shared" si="14"/>
         <v>2.0625</v>
       </c>
-      <c r="I27" s="25">
+      <c r="I27" s="26">
         <f t="shared" si="13"/>
         <v>2.0625</v>
       </c>
-      <c r="J27" s="25">
+      <c r="J27" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K27" s="25">
+      <c r="K27" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4190,33 +4241,33 @@
       <c r="N27" s="17">
         <v>10</v>
       </c>
-      <c r="O27" s="33">
+      <c r="O27" s="34">
         <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q27" s="34">
+      <c r="Q27" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R27" s="34">
+      <c r="R27" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T27" s="7">
         <v>16</v>
       </c>
-      <c r="U27" s="37">
+      <c r="U27" s="38">
         <f t="shared" si="12"/>
         <v>64</v>
       </c>
-      <c r="V27" s="36"/>
-      <c r="W27" s="36"/>
-      <c r="X27" s="37">
+      <c r="V27" s="37"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y27" s="36"/>
-      <c r="Z27" s="36"/>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="37"/>
       <c r="AD27" s="7" t="s">
         <v>130</v>
       </c>
@@ -4246,29 +4297,29 @@
       <c r="D28" s="9">
         <v>0</v>
       </c>
-      <c r="E28" s="26">
+      <c r="E28" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F28" s="27">
+      <c r="F28" s="28">
         <v>1.1</v>
       </c>
-      <c r="G28" s="28">
+      <c r="G28" s="29">
         <v>0.5</v>
       </c>
-      <c r="H28" s="25">
+      <c r="H28" s="26">
         <f t="shared" si="14"/>
         <v>1.5125</v>
       </c>
-      <c r="I28" s="25">
+      <c r="I28" s="26">
         <f t="shared" si="13"/>
         <v>1.5125</v>
       </c>
-      <c r="J28" s="25">
+      <c r="J28" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K28" s="25">
+      <c r="K28" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4279,33 +4330,33 @@
       <c r="N28" s="17">
         <v>13.38</v>
       </c>
-      <c r="O28" s="33">
+      <c r="O28" s="34">
         <f t="shared" si="4"/>
         <v>49.49</v>
       </c>
-      <c r="Q28" s="34">
+      <c r="Q28" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R28" s="34">
+      <c r="R28" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T28" s="7">
         <v>12</v>
       </c>
-      <c r="U28" s="37">
+      <c r="U28" s="38">
         <f t="shared" si="12"/>
         <v>48</v>
       </c>
-      <c r="V28" s="36"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="37">
+      <c r="V28" s="37"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y28" s="36"/>
-      <c r="Z28" s="36"/>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="37"/>
       <c r="AD28" s="7" t="s">
         <v>134</v>
       </c>
@@ -4335,29 +4386,29 @@
       <c r="D29" s="9">
         <v>0</v>
       </c>
-      <c r="E29" s="26">
+      <c r="E29" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F29" s="27">
+      <c r="F29" s="28">
         <v>0.8</v>
       </c>
-      <c r="G29" s="28">
+      <c r="G29" s="29">
         <v>1</v>
       </c>
-      <c r="H29" s="25">
+      <c r="H29" s="26">
         <f t="shared" si="14"/>
         <v>1.1</v>
       </c>
-      <c r="I29" s="25">
+      <c r="I29" s="26">
         <f t="shared" si="13"/>
         <v>1.375</v>
       </c>
-      <c r="J29" s="25">
+      <c r="J29" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K29" s="25">
+      <c r="K29" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4368,33 +4419,33 @@
       <c r="N29" s="17">
         <v>10</v>
       </c>
-      <c r="O29" s="33">
+      <c r="O29" s="34">
         <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q29" s="34">
+      <c r="Q29" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R29" s="34">
+      <c r="R29" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T29" s="7">
         <v>16</v>
       </c>
-      <c r="U29" s="37">
+      <c r="U29" s="38">
         <f t="shared" si="12"/>
         <v>48</v>
       </c>
-      <c r="V29" s="36"/>
-      <c r="W29" s="36"/>
-      <c r="X29" s="37">
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y29" s="36"/>
-      <c r="Z29" s="36"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="37"/>
       <c r="AD29" s="7" t="s">
         <v>138</v>
       </c>
@@ -4424,66 +4475,66 @@
       <c r="D30" s="9">
         <v>0</v>
       </c>
-      <c r="E30" s="26">
+      <c r="E30" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F30" s="27">
+      <c r="F30" s="28">
         <v>0.1</v>
       </c>
-      <c r="G30" s="28">
+      <c r="G30" s="29">
         <v>0.2</v>
       </c>
-      <c r="H30" s="25">
+      <c r="H30" s="26">
         <f t="shared" si="14"/>
         <v>0.1375</v>
       </c>
-      <c r="I30" s="25">
+      <c r="I30" s="26">
         <f t="shared" si="13"/>
         <v>0.275</v>
       </c>
-      <c r="J30" s="25">
+      <c r="J30" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K30" s="25">
+      <c r="K30" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L30" s="17"/>
       <c r="M30" s="17">
-        <v>26.57</v>
+        <v>39.8</v>
       </c>
       <c r="N30" s="17">
-        <v>10</v>
-      </c>
-      <c r="O30" s="33">
+        <v>13.38</v>
+      </c>
+      <c r="O30" s="34">
         <f t="shared" si="4"/>
-        <v>36.57</v>
-      </c>
-      <c r="Q30" s="34">
+        <v>53.18</v>
+      </c>
+      <c r="Q30" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R30" s="34">
+      <c r="R30" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T30" s="7">
         <v>12</v>
       </c>
-      <c r="U30" s="37">
+      <c r="U30" s="38">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
-      <c r="V30" s="36"/>
-      <c r="W30" s="36"/>
-      <c r="X30" s="37">
+      <c r="V30" s="37"/>
+      <c r="W30" s="37"/>
+      <c r="X30" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y30" s="36"/>
-      <c r="Z30" s="36"/>
+      <c r="Y30" s="37"/>
+      <c r="Z30" s="37"/>
       <c r="AD30" s="7" t="s">
         <v>142</v>
       </c>
@@ -4513,66 +4564,66 @@
       <c r="D31" s="9">
         <v>0</v>
       </c>
-      <c r="E31" s="29">
+      <c r="E31" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F31" s="30">
+      <c r="F31" s="31">
         <v>0.1</v>
       </c>
-      <c r="G31" s="31">
-        <v>0</v>
-      </c>
-      <c r="H31" s="25">
+      <c r="G31" s="32">
+        <v>0</v>
+      </c>
+      <c r="H31" s="26">
         <f t="shared" si="14"/>
         <v>0.1375</v>
       </c>
-      <c r="I31" s="25">
+      <c r="I31" s="26">
         <f t="shared" si="13"/>
         <v>0.1375</v>
       </c>
-      <c r="J31" s="25">
+      <c r="J31" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K31" s="25">
+      <c r="K31" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L31" s="17"/>
       <c r="M31" s="17">
-        <v>39.8</v>
+        <v>26.57</v>
       </c>
       <c r="N31" s="17">
-        <v>13.38</v>
-      </c>
-      <c r="O31" s="33">
+        <v>10</v>
+      </c>
+      <c r="O31" s="34">
         <f t="shared" si="4"/>
-        <v>53.18</v>
-      </c>
-      <c r="Q31" s="34">
+        <v>36.57</v>
+      </c>
+      <c r="Q31" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R31" s="34">
+      <c r="R31" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T31" s="7">
         <v>16</v>
       </c>
-      <c r="U31" s="37">
+      <c r="U31" s="38">
         <f t="shared" si="12"/>
         <v>16</v>
       </c>
-      <c r="V31" s="36"/>
-      <c r="W31" s="36"/>
-      <c r="X31" s="37">
+      <c r="V31" s="37"/>
+      <c r="W31" s="37"/>
+      <c r="X31" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y31" s="36"/>
-      <c r="Z31" s="36"/>
+      <c r="Y31" s="37"/>
+      <c r="Z31" s="37"/>
       <c r="AD31" s="7" t="s">
         <v>146</v>
       </c>
@@ -4602,29 +4653,29 @@
       <c r="D32" s="9">
         <v>0</v>
       </c>
-      <c r="E32" s="29">
+      <c r="E32" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F32" s="27">
+      <c r="F32" s="28">
         <v>0.1</v>
       </c>
-      <c r="G32" s="28">
+      <c r="G32" s="29">
         <v>0.1</v>
       </c>
-      <c r="H32" s="25">
+      <c r="H32" s="26">
         <f t="shared" si="14"/>
         <v>0.1375</v>
       </c>
-      <c r="I32" s="25">
+      <c r="I32" s="26">
         <f t="shared" si="13"/>
         <v>0.1375</v>
       </c>
-      <c r="J32" s="25">
+      <c r="J32" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K32" s="25">
+      <c r="K32" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4635,33 +4686,33 @@
       <c r="N32" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="O32" s="33">
+      <c r="O32" s="34">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="Q32" s="34">
+      <c r="Q32" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R32" s="34">
+      <c r="R32" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T32" s="7">
         <v>30</v>
       </c>
-      <c r="U32" s="37">
+      <c r="U32" s="38">
         <f t="shared" si="12"/>
         <v>30</v>
       </c>
-      <c r="V32" s="36"/>
-      <c r="W32" s="36"/>
-      <c r="X32" s="37">
+      <c r="V32" s="37"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y32" s="36"/>
-      <c r="Z32" s="36"/>
+      <c r="Y32" s="37"/>
+      <c r="Z32" s="37"/>
       <c r="AD32" s="7" t="s">
         <v>152</v>
       </c>
@@ -4691,7 +4742,7 @@
       <c r="D33" s="9">
         <v>0</v>
       </c>
-      <c r="E33" s="29">
+      <c r="E33" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4701,18 +4752,18 @@
       <c r="G33" s="7">
         <v>2.5</v>
       </c>
-      <c r="H33" s="25">
+      <c r="H33" s="26">
         <v>3.5</v>
       </c>
-      <c r="I33" s="25">
+      <c r="I33" s="26">
         <f t="shared" si="13"/>
         <v>3.85</v>
       </c>
-      <c r="J33" s="25">
+      <c r="J33" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K33" s="25">
+      <c r="K33" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4723,33 +4774,33 @@
       <c r="N33" s="17">
         <v>10</v>
       </c>
-      <c r="O33" s="33">
+      <c r="O33" s="34">
         <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q33" s="34">
+      <c r="Q33" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R33" s="34">
+      <c r="R33" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T33" s="7">
         <v>16</v>
       </c>
-      <c r="U33" s="37">
+      <c r="U33" s="38">
         <f t="shared" si="12"/>
         <v>128</v>
       </c>
-      <c r="V33" s="36"/>
-      <c r="W33" s="36"/>
-      <c r="X33" s="37">
+      <c r="V33" s="37"/>
+      <c r="W33" s="37"/>
+      <c r="X33" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y33" s="36"/>
-      <c r="Z33" s="36"/>
+      <c r="Y33" s="37"/>
+      <c r="Z33" s="37"/>
       <c r="AD33" s="7" t="s">
         <v>156</v>
       </c>
@@ -4779,7 +4830,7 @@
       <c r="D34" s="9">
         <v>0</v>
       </c>
-      <c r="E34" s="29">
+      <c r="E34" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4789,18 +4840,18 @@
       <c r="G34" s="7">
         <v>0.4</v>
       </c>
-      <c r="H34" s="25">
+      <c r="H34" s="26">
         <v>2</v>
       </c>
-      <c r="I34" s="25">
+      <c r="I34" s="26">
         <f t="shared" si="13"/>
         <v>1.1</v>
       </c>
-      <c r="J34" s="25">
+      <c r="J34" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K34" s="25">
+      <c r="K34" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4811,33 +4862,33 @@
       <c r="N34" s="17">
         <v>10</v>
       </c>
-      <c r="O34" s="33">
+      <c r="O34" s="34">
         <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q34" s="34">
+      <c r="Q34" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R34" s="34">
+      <c r="R34" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T34" s="7">
         <v>16</v>
       </c>
-      <c r="U34" s="37">
+      <c r="U34" s="38">
         <f t="shared" si="12"/>
         <v>48</v>
       </c>
-      <c r="V34" s="36"/>
-      <c r="W34" s="36"/>
-      <c r="X34" s="37">
+      <c r="V34" s="37"/>
+      <c r="W34" s="37"/>
+      <c r="X34" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y34" s="36"/>
-      <c r="Z34" s="36"/>
+      <c r="Y34" s="37"/>
+      <c r="Z34" s="37"/>
       <c r="AD34" s="8" t="s">
         <v>160</v>
       </c>
@@ -4867,7 +4918,7 @@
       <c r="D35" s="9">
         <v>0</v>
       </c>
-      <c r="E35" s="29">
+      <c r="E35" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4877,18 +4928,18 @@
       <c r="G35" s="7">
         <v>1.1</v>
       </c>
-      <c r="H35" s="25">
+      <c r="H35" s="26">
         <v>3</v>
       </c>
-      <c r="I35" s="25">
+      <c r="I35" s="26">
         <f t="shared" si="13"/>
         <v>1.5125</v>
       </c>
-      <c r="J35" s="25">
+      <c r="J35" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K35" s="25">
+      <c r="K35" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4899,33 +4950,33 @@
       <c r="N35" s="17">
         <v>10</v>
       </c>
-      <c r="O35" s="33">
+      <c r="O35" s="34">
         <f t="shared" si="4"/>
         <v>36.57</v>
       </c>
-      <c r="Q35" s="34">
+      <c r="Q35" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R35" s="34">
+      <c r="R35" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T35" s="7">
         <v>32</v>
       </c>
-      <c r="U35" s="37">
+      <c r="U35" s="38">
         <f t="shared" si="12"/>
         <v>64</v>
       </c>
-      <c r="V35" s="36"/>
-      <c r="W35" s="36"/>
-      <c r="X35" s="37">
+      <c r="V35" s="37"/>
+      <c r="W35" s="37"/>
+      <c r="X35" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y35" s="36"/>
-      <c r="Z35" s="36"/>
+      <c r="Y35" s="37"/>
+      <c r="Z35" s="37"/>
       <c r="AD35" s="7" t="s">
         <v>164</v>
       </c>
@@ -4955,7 +5006,7 @@
       <c r="D36" s="9">
         <v>0</v>
       </c>
-      <c r="E36" s="29">
+      <c r="E36" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4965,18 +5016,18 @@
       <c r="G36" s="7">
         <v>2.2</v>
       </c>
-      <c r="H36" s="25">
+      <c r="H36" s="26">
         <v>4.5</v>
       </c>
-      <c r="I36" s="25">
+      <c r="I36" s="26">
         <f t="shared" si="13"/>
         <v>3.025</v>
       </c>
-      <c r="J36" s="25">
+      <c r="J36" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K36" s="25">
+      <c r="K36" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4987,33 +5038,33 @@
       <c r="N36" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="O36" s="33">
+      <c r="O36" s="34">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="Q36" s="34">
+      <c r="Q36" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R36" s="34">
+      <c r="R36" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T36" s="7">
         <v>32</v>
       </c>
-      <c r="U36" s="37">
+      <c r="U36" s="38">
         <f t="shared" si="12"/>
         <v>96</v>
       </c>
-      <c r="V36" s="36"/>
-      <c r="W36" s="36"/>
-      <c r="X36" s="37">
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y36" s="36"/>
-      <c r="Z36" s="36"/>
+      <c r="Y36" s="37"/>
+      <c r="Z36" s="37"/>
       <c r="AD36" s="7" t="s">
         <v>170</v>
       </c>
@@ -5043,7 +5094,7 @@
       <c r="D37" s="9">
         <v>0</v>
       </c>
-      <c r="E37" s="29">
+      <c r="E37" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5053,18 +5104,18 @@
       <c r="G37" s="7">
         <v>0.6</v>
       </c>
-      <c r="H37" s="25">
+      <c r="H37" s="26">
         <v>1</v>
       </c>
-      <c r="I37" s="25">
+      <c r="I37" s="26">
         <f t="shared" si="13"/>
         <v>0.9625</v>
       </c>
-      <c r="J37" s="25">
+      <c r="J37" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K37" s="25">
+      <c r="K37" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5075,33 +5126,33 @@
       <c r="N37" s="17">
         <v>10</v>
       </c>
-      <c r="O37" s="33">
+      <c r="O37" s="34">
         <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q37" s="34">
+      <c r="Q37" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R37" s="34">
+      <c r="R37" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T37" s="7">
         <v>16</v>
       </c>
-      <c r="U37" s="37">
+      <c r="U37" s="38">
         <f t="shared" si="12"/>
         <v>32</v>
       </c>
-      <c r="V37" s="36"/>
-      <c r="W37" s="36"/>
-      <c r="X37" s="37">
+      <c r="V37" s="37"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y37" s="36"/>
-      <c r="Z37" s="36"/>
+      <c r="Y37" s="37"/>
+      <c r="Z37" s="37"/>
       <c r="AD37" s="7" t="s">
         <v>174</v>
       </c>
@@ -5131,7 +5182,7 @@
       <c r="D38" s="9">
         <v>0</v>
       </c>
-      <c r="E38" s="29">
+      <c r="E38" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5141,18 +5192,18 @@
       <c r="G38" s="7">
         <v>0.5</v>
       </c>
-      <c r="H38" s="25">
+      <c r="H38" s="26">
         <v>1</v>
       </c>
-      <c r="I38" s="25">
+      <c r="I38" s="26">
         <f t="shared" si="13"/>
         <v>0.6875</v>
       </c>
-      <c r="J38" s="25">
+      <c r="J38" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K38" s="25">
+      <c r="K38" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5163,33 +5214,33 @@
       <c r="N38" s="17">
         <v>10</v>
       </c>
-      <c r="O38" s="33">
+      <c r="O38" s="34">
         <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q38" s="34">
+      <c r="Q38" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R38" s="34">
+      <c r="R38" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T38" s="7">
         <v>16</v>
       </c>
-      <c r="U38" s="37">
+      <c r="U38" s="38">
         <f t="shared" si="12"/>
         <v>32</v>
       </c>
-      <c r="V38" s="36"/>
-      <c r="W38" s="36"/>
-      <c r="X38" s="37">
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y38" s="36"/>
-      <c r="Z38" s="36"/>
+      <c r="Y38" s="37"/>
+      <c r="Z38" s="37"/>
       <c r="AD38" s="8" t="s">
         <v>178</v>
       </c>
@@ -5219,7 +5270,7 @@
       <c r="D39" s="9">
         <v>0</v>
       </c>
-      <c r="E39" s="26">
+      <c r="E39" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5229,18 +5280,18 @@
       <c r="G39" s="7">
         <v>1</v>
       </c>
-      <c r="H39" s="25">
+      <c r="H39" s="26">
         <v>3.5</v>
       </c>
-      <c r="I39" s="25">
+      <c r="I39" s="26">
         <f t="shared" si="13"/>
         <v>3.4375</v>
       </c>
-      <c r="J39" s="25">
+      <c r="J39" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K39" s="25">
+      <c r="K39" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5251,33 +5302,33 @@
       <c r="N39" s="17">
         <v>10</v>
       </c>
-      <c r="O39" s="33">
+      <c r="O39" s="34">
         <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q39" s="34">
+      <c r="Q39" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R39" s="34">
+      <c r="R39" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T39" s="7">
         <v>16</v>
       </c>
-      <c r="U39" s="37">
+      <c r="U39" s="38">
         <f t="shared" si="12"/>
         <v>112</v>
       </c>
-      <c r="V39" s="36"/>
-      <c r="W39" s="36"/>
-      <c r="X39" s="37">
+      <c r="V39" s="37"/>
+      <c r="W39" s="37"/>
+      <c r="X39" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y39" s="36"/>
-      <c r="Z39" s="36"/>
+      <c r="Y39" s="37"/>
+      <c r="Z39" s="37"/>
       <c r="AD39" s="7" t="s">
         <v>182</v>
       </c>
@@ -5307,7 +5358,7 @@
       <c r="D40" s="9">
         <v>0</v>
       </c>
-      <c r="E40" s="26">
+      <c r="E40" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5317,19 +5368,19 @@
       <c r="G40" s="7">
         <v>0.3</v>
       </c>
-      <c r="H40" s="25">
-        <f>MAX(E40,F40)*1.375</f>
+      <c r="H40" s="26">
+        <f t="shared" ref="H40:H45" si="15">MAX(E40,F40)*1.375</f>
         <v>0.55</v>
       </c>
-      <c r="I40" s="25">
+      <c r="I40" s="26">
         <f t="shared" si="13"/>
         <v>0.55</v>
       </c>
-      <c r="J40" s="25">
+      <c r="J40" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K40" s="25">
+      <c r="K40" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5340,33 +5391,33 @@
       <c r="N40" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="O40" s="33">
+      <c r="O40" s="34">
         <f t="shared" si="4"/>
         <v>30.8</v>
       </c>
-      <c r="Q40" s="34">
+      <c r="Q40" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R40" s="34">
+      <c r="R40" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T40" s="7">
         <v>20</v>
       </c>
-      <c r="U40" s="37">
+      <c r="U40" s="38">
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="V40" s="36"/>
-      <c r="W40" s="36"/>
-      <c r="X40" s="37">
+      <c r="V40" s="37"/>
+      <c r="W40" s="37"/>
+      <c r="X40" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y40" s="36"/>
-      <c r="Z40" s="36"/>
+      <c r="Y40" s="37"/>
+      <c r="Z40" s="37"/>
       <c r="AD40" s="7" t="s">
         <v>188</v>
       </c>
@@ -5396,7 +5447,7 @@
       <c r="D41" s="9">
         <v>0</v>
       </c>
-      <c r="E41" s="26">
+      <c r="E41" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5406,19 +5457,19 @@
       <c r="G41" s="7">
         <v>0.1</v>
       </c>
-      <c r="H41" s="25">
-        <f>MAX(E41,F41)*1.375</f>
-        <v>0</v>
-      </c>
-      <c r="I41" s="25">
+      <c r="H41" s="26">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="26">
         <f t="shared" si="13"/>
         <v>0.1375</v>
       </c>
-      <c r="J41" s="25">
+      <c r="J41" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K41" s="25">
+      <c r="K41" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5429,33 +5480,33 @@
       <c r="N41" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="O41" s="33">
+      <c r="O41" s="34">
         <f t="shared" si="4"/>
         <v>32.8</v>
       </c>
-      <c r="Q41" s="34">
+      <c r="Q41" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R41" s="34">
+      <c r="R41" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T41" s="7">
         <v>20</v>
       </c>
-      <c r="U41" s="37">
+      <c r="U41" s="38">
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="V41" s="36"/>
-      <c r="W41" s="36"/>
-      <c r="X41" s="37">
+      <c r="V41" s="37"/>
+      <c r="W41" s="37"/>
+      <c r="X41" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y41" s="36"/>
-      <c r="Z41" s="36"/>
+      <c r="Y41" s="37"/>
+      <c r="Z41" s="37"/>
       <c r="AD41" s="7" t="s">
         <v>192</v>
       </c>
@@ -5472,10 +5523,354 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" ht="25" customHeight="1"/>
-    <row r="43" ht="25" customHeight="1"/>
-    <row r="44" ht="25" customHeight="1"/>
-    <row r="45" ht="25" customHeight="1"/>
+    <row r="42" ht="25" customHeight="1" spans="1:34">
+      <c r="A42" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="C42" s="9">
+        <v>0</v>
+      </c>
+      <c r="D42" s="9">
+        <v>0</v>
+      </c>
+      <c r="E42" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="7">
+        <v>0</v>
+      </c>
+      <c r="G42" s="7">
+        <v>0</v>
+      </c>
+      <c r="H42" s="26">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="26">
+        <v>1</v>
+      </c>
+      <c r="J42" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="17">
+        <v>26.57</v>
+      </c>
+      <c r="N42" s="17">
+        <v>10</v>
+      </c>
+      <c r="O42" s="34">
+        <f t="shared" si="4"/>
+        <v>36.57</v>
+      </c>
+      <c r="Q42" s="35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T42" s="7">
+        <v>16</v>
+      </c>
+      <c r="U42" s="38">
+        <f t="shared" si="12"/>
+        <v>32</v>
+      </c>
+      <c r="V42" s="37"/>
+      <c r="W42" s="37"/>
+      <c r="X42" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y42" s="37"/>
+      <c r="Z42" s="37"/>
+      <c r="AD42" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="AE42" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF42" s="7">
+        <v>30</v>
+      </c>
+      <c r="AG42" s="7">
+        <v>40</v>
+      </c>
+      <c r="AH42" s="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" ht="25" customHeight="1" spans="1:34">
+      <c r="A43" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="C43" s="9">
+        <v>0</v>
+      </c>
+      <c r="D43" s="9">
+        <v>0</v>
+      </c>
+      <c r="E43" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="7">
+        <v>0</v>
+      </c>
+      <c r="G43" s="7">
+        <v>0</v>
+      </c>
+      <c r="H43" s="26">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="26">
+        <v>1</v>
+      </c>
+      <c r="J43" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="17">
+        <v>26.57</v>
+      </c>
+      <c r="N43" s="17">
+        <v>10</v>
+      </c>
+      <c r="O43" s="34">
+        <f t="shared" si="4"/>
+        <v>36.57</v>
+      </c>
+      <c r="Q43" s="35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T43" s="7">
+        <v>16</v>
+      </c>
+      <c r="U43" s="38">
+        <f t="shared" si="12"/>
+        <v>32</v>
+      </c>
+      <c r="V43" s="37"/>
+      <c r="W43" s="37"/>
+      <c r="X43" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y43" s="37"/>
+      <c r="Z43" s="37"/>
+      <c r="AD43" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE43" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF43" s="7">
+        <v>30</v>
+      </c>
+      <c r="AG43" s="7">
+        <v>40</v>
+      </c>
+      <c r="AH43" s="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" ht="25" customHeight="1" spans="1:34">
+      <c r="A44" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="C44" s="9">
+        <v>0</v>
+      </c>
+      <c r="D44" s="9">
+        <v>0</v>
+      </c>
+      <c r="E44" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="7">
+        <v>0</v>
+      </c>
+      <c r="G44" s="7">
+        <v>0</v>
+      </c>
+      <c r="H44" s="26">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="26">
+        <v>1</v>
+      </c>
+      <c r="J44" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="24">
+        <v>13.3</v>
+      </c>
+      <c r="N44" s="24">
+        <v>5</v>
+      </c>
+      <c r="O44" s="34">
+        <f>M44+N44</f>
+        <v>18.3</v>
+      </c>
+      <c r="Q44" s="35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T44" s="24">
+        <v>32</v>
+      </c>
+      <c r="U44" s="38">
+        <f>CEILING(MAX(0,90-MAX(K44,60))*I44/T44,1)*T44</f>
+        <v>32</v>
+      </c>
+      <c r="V44" s="37"/>
+      <c r="W44" s="37"/>
+      <c r="X44" s="38">
+        <f>MIN(CEILING(MAX(0,70-MAX(J44,30))*I44/T44,1)*T44,D44)</f>
+        <v>0</v>
+      </c>
+      <c r="Y44" s="37"/>
+      <c r="Z44" s="37"/>
+      <c r="AD44" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="AE44" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF44" s="7">
+        <v>30</v>
+      </c>
+      <c r="AG44" s="7">
+        <v>40</v>
+      </c>
+      <c r="AH44" s="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" ht="25" customHeight="1" spans="1:34">
+      <c r="A45" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="C45" s="9">
+        <v>0</v>
+      </c>
+      <c r="D45" s="9">
+        <v>0</v>
+      </c>
+      <c r="E45" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="7">
+        <v>0</v>
+      </c>
+      <c r="G45" s="7">
+        <v>0</v>
+      </c>
+      <c r="H45" s="26">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="26">
+        <v>1</v>
+      </c>
+      <c r="J45" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="24">
+        <v>10</v>
+      </c>
+      <c r="N45" s="24">
+        <v>3</v>
+      </c>
+      <c r="O45" s="34">
+        <f>M45+N45</f>
+        <v>13</v>
+      </c>
+      <c r="Q45" s="35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T45" s="24">
+        <v>40</v>
+      </c>
+      <c r="U45" s="38">
+        <f>CEILING(MAX(0,90-MAX(K45,60))*I45/T45,1)*T45</f>
+        <v>40</v>
+      </c>
+      <c r="V45" s="37"/>
+      <c r="W45" s="37"/>
+      <c r="X45" s="38">
+        <f>MIN(CEILING(MAX(0,70-MAX(J45,30))*I45/T45,1)*T45,D45)</f>
+        <v>0</v>
+      </c>
+      <c r="Y45" s="37"/>
+      <c r="Z45" s="37"/>
+      <c r="AD45" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="AE45" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="AF45" s="7">
+        <v>25</v>
+      </c>
+      <c r="AG45" s="7">
+        <v>37</v>
+      </c>
+      <c r="AH45" s="7">
+        <v>40</v>
+      </c>
+    </row>
     <row r="46" ht="25" customHeight="1"/>
     <row r="47" ht="25" customHeight="1"/>
     <row r="48" ht="25" customHeight="1"/>
@@ -5504,7 +5899,7 @@
     <row r="71" ht="25" customHeight="1"/>
     <row r="72" ht="25" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:AH41">
+  <autoFilter ref="A1:AH45">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="J2:J30">
@@ -5518,7 +5913,7 @@
       <formula>70</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J31:J41">
+  <conditionalFormatting sqref="J31:J45">
     <cfRule type="cellIs" dxfId="0" priority="7" operator="greaterThanOrEqual">
       <formula>105</formula>
     </cfRule>
@@ -5540,7 +5935,7 @@
       <formula>105</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K31:K41">
+  <conditionalFormatting sqref="K31:K45">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThanOrEqual">
       <formula>70</formula>
     </cfRule>

--- a/dist/产品库存及周转统计.xlsx
+++ b/dist/产品库存及周转统计.xlsx
@@ -10,14 +10,14 @@
     <sheet name="产品库存" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">产品库存!$A$1:$AH$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">产品库存!$A$1:$AH$44</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="206">
   <si>
     <t>名称</t>
   </si>
@@ -451,18 +451,6 @@
   </si>
   <si>
     <t>X00412HFX9</t>
-  </si>
-  <si>
-    <t>床边三袋（卡其）3p</t>
-  </si>
-  <si>
-    <t>B0CMPG3BZT</t>
-  </si>
-  <si>
-    <t>BedSideCaddy-Khaki-3pcs</t>
-  </si>
-  <si>
-    <t>X00412XR63</t>
   </si>
   <si>
     <t>床边三袋（卡其）2p</t>
@@ -1388,7 +1376,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1460,9 +1448,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1862,14 +1847,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AH72"/>
+  <dimension ref="A1:AH71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1915,16 +1900,16 @@
       <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="32" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="8" t="s">
@@ -1940,34 +1925,34 @@
       <c r="N1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="O1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="35" t="s">
+      <c r="Q1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="35" t="s">
+      <c r="R1" s="34" t="s">
         <v>15</v>
       </c>
       <c r="T1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="36" t="s">
+      <c r="U1" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="36" t="s">
+      <c r="V1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="36" t="s">
+      <c r="W1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="36" t="s">
+      <c r="X1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="36" t="s">
+      <c r="Y1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="36" t="s">
+      <c r="Z1" s="35" t="s">
         <v>22</v>
       </c>
       <c r="AD1" s="7" t="s">
@@ -1999,28 +1984,28 @@
       <c r="D2" s="9">
         <v>0</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="26">
         <f t="shared" ref="E2:E45" si="0">C2+D2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="27">
         <v>16.4</v>
       </c>
-      <c r="G2" s="29">
+      <c r="G2" s="28">
         <v>13.8</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="25">
         <v>20.5</v>
       </c>
-      <c r="I2" s="26">
+      <c r="I2" s="25">
         <f t="shared" ref="I2:I19" si="1">MAX(F2,G2)*1.375</f>
         <v>22.55</v>
       </c>
-      <c r="J2" s="26">
+      <c r="J2" s="25">
         <f t="shared" ref="J2:J45" si="2">(C2)/I2</f>
         <v>0</v>
       </c>
-      <c r="K2" s="26">
+      <c r="K2" s="25">
         <f t="shared" ref="K2:K45" si="3">(E2)/I2</f>
         <v>0</v>
       </c>
@@ -2031,30 +2016,30 @@
       <c r="N2" s="17">
         <v>6</v>
       </c>
-      <c r="O2" s="34">
-        <f t="shared" ref="O2:O43" si="4">M2+N2</f>
+      <c r="O2" s="33">
+        <f t="shared" ref="O2:O45" si="4">M2+N2</f>
         <v>25.43</v>
       </c>
-      <c r="Q2" s="35">
+      <c r="Q2" s="34">
         <f t="shared" ref="Q2:Q45" si="5">M2*C2</f>
         <v>0</v>
       </c>
-      <c r="R2" s="35">
+      <c r="R2" s="34">
         <f t="shared" ref="R2:R45" si="6">M2*D2</f>
         <v>0</v>
       </c>
       <c r="T2" s="7">
         <v>36</v>
       </c>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="38">
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="37">
         <f>CEILING(MAX(0,135-MAX(K2,60))*I2/T2,1)*T2</f>
         <v>1692</v>
       </c>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="38">
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="37">
         <f>MIN(CEILING(MAX(0,115-MAX(J2,30))*I2/T2,1)*T2,D2)</f>
         <v>0</v>
       </c>
@@ -2087,28 +2072,28 @@
       <c r="D3" s="9">
         <v>0</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="27">
         <v>5.7</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="28">
         <v>5.3</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="25">
         <v>8</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="25">
         <f t="shared" si="1"/>
         <v>7.8375</v>
       </c>
-      <c r="J3" s="26">
+      <c r="J3" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K3" s="26">
+      <c r="K3" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2119,30 +2104,30 @@
       <c r="N3" s="17">
         <v>10</v>
       </c>
-      <c r="O3" s="34">
+      <c r="O3" s="33">
         <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q3" s="35">
+      <c r="Q3" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R3" s="35">
+      <c r="R3" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T3" s="7">
         <v>32</v>
       </c>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="38">
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="37">
         <f>CEILING(MAX(0,135-MAX(K3,60))*I3/T3,1)*T3</f>
         <v>608</v>
       </c>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="38">
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="37">
         <f>MIN(CEILING(MAX(0,115-MAX(J3,30))*I3/T3,1)*T3,D3)</f>
         <v>0</v>
       </c>
@@ -2175,28 +2160,28 @@
       <c r="D4" s="9">
         <v>0</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="27">
         <v>5.4</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="28">
         <v>6.1</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="25">
         <v>8</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="25">
         <f t="shared" si="1"/>
         <v>8.3875</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2207,30 +2192,30 @@
       <c r="N4" s="17">
         <v>6.98</v>
       </c>
-      <c r="O4" s="34">
+      <c r="O4" s="33">
         <f t="shared" si="4"/>
         <v>29.72</v>
       </c>
-      <c r="Q4" s="35">
+      <c r="Q4" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R4" s="35">
+      <c r="R4" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T4" s="7">
         <v>42</v>
       </c>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="38">
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="37">
         <f>CEILING(MAX(0,135-MAX(K4,60))*I4/T4,1)*T4</f>
         <v>630</v>
       </c>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="38">
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="37">
         <f>MIN(CEILING(MAX(0,115-MAX(J4,30))*I4/T4,1)*T4,D4)</f>
         <v>0</v>
       </c>
@@ -2263,28 +2248,28 @@
       <c r="D5" s="9">
         <v>0</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="27">
         <v>10</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="28">
         <v>11.5</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="25">
         <v>17</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="25">
         <f t="shared" si="1"/>
         <v>15.8125</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2295,30 +2280,30 @@
       <c r="N5" s="17">
         <v>10</v>
       </c>
-      <c r="O5" s="34">
+      <c r="O5" s="33">
         <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q5" s="35">
+      <c r="Q5" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R5" s="35">
+      <c r="R5" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T5" s="7">
         <v>32</v>
       </c>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="38">
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="37">
         <f>CEILING(MAX(0,135-MAX(K5,60))*I5/T5,1)*T5</f>
         <v>1216</v>
       </c>
-      <c r="X5" s="37"/>
-      <c r="Y5" s="37"/>
-      <c r="Z5" s="38">
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="37">
         <f>MIN(CEILING(MAX(0,115-MAX(J5,30))*I5/T5,1)*T5,D5)</f>
         <v>0</v>
       </c>
@@ -2351,28 +2336,28 @@
       <c r="D6" s="9">
         <v>0</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="27">
         <v>9.2</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="28">
         <v>9.4</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="25">
         <v>13.5</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="25">
         <f t="shared" si="1"/>
         <v>12.925</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2383,30 +2368,30 @@
       <c r="N6" s="17">
         <v>10</v>
       </c>
-      <c r="O6" s="34">
+      <c r="O6" s="33">
         <f t="shared" si="4"/>
         <v>36.57</v>
       </c>
-      <c r="Q6" s="35">
+      <c r="Q6" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R6" s="35">
+      <c r="R6" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T6" s="7">
         <v>32</v>
       </c>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="38">
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="37">
         <f>CEILING(MAX(0,135-MAX(K6,60))*I6/T6,1)*T6</f>
         <v>992</v>
       </c>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="38">
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="37">
         <f>MIN(CEILING(MAX(0,115-MAX(J6,30))*I6/T6,1)*T6,D6)</f>
         <v>0</v>
       </c>
@@ -2439,28 +2424,28 @@
       <c r="D7" s="9">
         <v>0</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="27">
         <v>1</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="28">
         <v>1.3</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="25">
         <v>2.5</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="25">
         <f t="shared" si="1"/>
         <v>1.7875</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2471,33 +2456,33 @@
       <c r="N7" s="17">
         <v>13.38</v>
       </c>
-      <c r="O7" s="34">
+      <c r="O7" s="33">
         <f t="shared" si="4"/>
         <v>49.49</v>
       </c>
-      <c r="Q7" s="35">
+      <c r="Q7" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R7" s="35">
+      <c r="R7" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T7" s="7">
         <v>12</v>
       </c>
-      <c r="U7" s="37"/>
-      <c r="V7" s="38">
+      <c r="U7" s="36"/>
+      <c r="V7" s="37">
         <f>CEILING(MAX(0,120-MAX(K7,60))*I7/T7,1)*T7</f>
         <v>108</v>
       </c>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="38">
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="37">
         <f>MIN(CEILING(MAX(0,100-MAX(J7,30))*I7/T7,1)*T7,D7)</f>
         <v>0</v>
       </c>
-      <c r="Z7" s="37"/>
+      <c r="Z7" s="36"/>
       <c r="AD7" s="7" t="s">
         <v>50</v>
       </c>
@@ -2527,29 +2512,29 @@
       <c r="D8" s="9">
         <v>0</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="27">
         <v>1.7</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="28">
         <v>1.6</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="25">
         <f t="shared" ref="H8:H14" si="7">MAX(E8,F8)*1.375</f>
         <v>2.3375</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="25">
         <f t="shared" si="1"/>
         <v>2.3375</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2560,33 +2545,33 @@
       <c r="N8" s="17">
         <v>10.47</v>
       </c>
-      <c r="O8" s="34">
+      <c r="O8" s="33">
         <f t="shared" si="4"/>
         <v>44.18</v>
       </c>
-      <c r="Q8" s="35">
+      <c r="Q8" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R8" s="35">
+      <c r="R8" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T8" s="7">
         <v>15</v>
       </c>
-      <c r="U8" s="37"/>
-      <c r="V8" s="38">
+      <c r="U8" s="36"/>
+      <c r="V8" s="37">
         <f t="shared" ref="V8:V15" si="8">CEILING(MAX(0,120-MAX(K8,60))*I8/T8,1)*T8</f>
         <v>150</v>
       </c>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="38">
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="37">
         <f t="shared" ref="Y8:Y15" si="9">MIN(CEILING(MAX(0,100-MAX(J8,30))*I8/T8,1)*T8,D8)</f>
         <v>0</v>
       </c>
-      <c r="Z8" s="37"/>
+      <c r="Z8" s="36"/>
       <c r="AD8" s="7" t="s">
         <v>54</v>
       </c>
@@ -2616,28 +2601,28 @@
       <c r="D9" s="9">
         <v>0</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="27">
         <v>1.7</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="28">
         <v>1.3</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="25">
         <v>5</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="25">
         <f t="shared" si="1"/>
         <v>2.3375</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2648,33 +2633,33 @@
       <c r="N9" s="17">
         <v>9</v>
       </c>
-      <c r="O9" s="34">
+      <c r="O9" s="33">
         <f t="shared" si="4"/>
         <v>37.52</v>
       </c>
-      <c r="Q9" s="35">
+      <c r="Q9" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R9" s="35">
+      <c r="R9" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T9" s="7">
         <v>28</v>
       </c>
-      <c r="U9" s="37"/>
-      <c r="V9" s="38">
+      <c r="U9" s="36"/>
+      <c r="V9" s="37">
         <f t="shared" si="8"/>
         <v>168</v>
       </c>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="38">
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="37">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z9" s="37"/>
+      <c r="Z9" s="36"/>
       <c r="AD9" s="7" t="s">
         <v>58</v>
       </c>
@@ -2704,28 +2689,28 @@
       <c r="D10" s="9">
         <v>0</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="27">
         <v>0.2</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="28">
         <v>0.8</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="25">
         <v>5</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="25">
         <f t="shared" si="1"/>
         <v>1.1</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="26">
+      <c r="K10" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2736,33 +2721,33 @@
       <c r="N10" s="17">
         <v>10</v>
       </c>
-      <c r="O10" s="34">
+      <c r="O10" s="33">
         <f t="shared" si="4"/>
         <v>36.57</v>
       </c>
-      <c r="Q10" s="35">
+      <c r="Q10" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R10" s="35">
+      <c r="R10" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T10" s="7">
         <v>32</v>
       </c>
-      <c r="U10" s="37"/>
-      <c r="V10" s="38">
+      <c r="U10" s="36"/>
+      <c r="V10" s="37">
         <f t="shared" si="8"/>
         <v>96</v>
       </c>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="38">
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="37">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z10" s="37"/>
+      <c r="Z10" s="36"/>
       <c r="AD10" s="7" t="s">
         <v>62</v>
       </c>
@@ -2792,28 +2777,28 @@
       <c r="D11" s="9">
         <v>0</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="27">
         <v>3.7</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="28">
         <v>4.2</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="25">
         <v>5.5</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="25">
         <f t="shared" si="1"/>
         <v>5.775</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2824,33 +2809,33 @@
       <c r="N11" s="17">
         <v>13.38</v>
       </c>
-      <c r="O11" s="34">
+      <c r="O11" s="33">
         <f t="shared" si="4"/>
         <v>49.49</v>
       </c>
-      <c r="Q11" s="35">
+      <c r="Q11" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R11" s="35">
+      <c r="R11" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T11" s="7">
         <v>24</v>
       </c>
-      <c r="U11" s="37"/>
-      <c r="V11" s="38">
+      <c r="U11" s="36"/>
+      <c r="V11" s="37">
         <f t="shared" si="8"/>
         <v>360</v>
       </c>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="38">
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="37">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z11" s="37"/>
+      <c r="Z11" s="36"/>
       <c r="AD11" s="7" t="s">
         <v>66</v>
       </c>
@@ -2880,29 +2865,29 @@
       <c r="D12" s="9">
         <v>0</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="27">
         <v>0.1</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="28">
         <v>0.2</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="25">
         <f t="shared" si="7"/>
         <v>0.1375</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="25">
         <f t="shared" si="1"/>
         <v>0.275</v>
       </c>
-      <c r="J12" s="26">
+      <c r="J12" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K12" s="26">
+      <c r="K12" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2913,33 +2898,33 @@
       <c r="N12" s="17">
         <v>13.38</v>
       </c>
-      <c r="O12" s="34">
+      <c r="O12" s="33">
         <f t="shared" si="4"/>
         <v>53.18</v>
       </c>
-      <c r="Q12" s="35">
+      <c r="Q12" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R12" s="35">
+      <c r="R12" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T12" s="7">
         <v>12</v>
       </c>
-      <c r="U12" s="37"/>
-      <c r="V12" s="38">
+      <c r="U12" s="36"/>
+      <c r="V12" s="37">
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="38">
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="37">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="37"/>
+      <c r="Z12" s="36"/>
       <c r="AD12" s="7" t="s">
         <v>70</v>
       </c>
@@ -2969,29 +2954,29 @@
       <c r="D13" s="9">
         <v>0</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="27">
         <v>0.8</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="28">
         <v>1.1</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="25">
         <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="25">
         <f t="shared" si="1"/>
         <v>1.5125</v>
       </c>
-      <c r="J13" s="26">
+      <c r="J13" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K13" s="26">
+      <c r="K13" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3002,33 +2987,33 @@
       <c r="N13" s="17">
         <v>10.47</v>
       </c>
-      <c r="O13" s="34">
+      <c r="O13" s="33">
         <f t="shared" si="4"/>
         <v>44.18</v>
       </c>
-      <c r="Q13" s="35">
+      <c r="Q13" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R13" s="35">
+      <c r="R13" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T13" s="7">
         <v>15</v>
       </c>
-      <c r="U13" s="37"/>
-      <c r="V13" s="38">
+      <c r="U13" s="36"/>
+      <c r="V13" s="37">
         <f t="shared" si="8"/>
         <v>105</v>
       </c>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="38">
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="37">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="37"/>
+      <c r="Z13" s="36"/>
       <c r="AD13" s="7" t="s">
         <v>74</v>
       </c>
@@ -3058,29 +3043,29 @@
       <c r="D14" s="9">
         <v>0</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="27">
         <v>2.5</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="28">
         <v>2</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="25">
         <f t="shared" si="7"/>
         <v>3.4375</v>
       </c>
-      <c r="I14" s="26">
+      <c r="I14" s="25">
         <f t="shared" si="1"/>
         <v>3.4375</v>
       </c>
-      <c r="J14" s="26">
+      <c r="J14" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3091,33 +3076,33 @@
       <c r="N14" s="17">
         <v>13.38</v>
       </c>
-      <c r="O14" s="34">
+      <c r="O14" s="33">
         <f t="shared" si="4"/>
         <v>53.18</v>
       </c>
-      <c r="Q14" s="35">
+      <c r="Q14" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R14" s="35">
+      <c r="R14" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T14" s="7">
         <v>12</v>
       </c>
-      <c r="U14" s="37"/>
-      <c r="V14" s="38">
+      <c r="U14" s="36"/>
+      <c r="V14" s="37">
         <f t="shared" si="8"/>
         <v>216</v>
       </c>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="38">
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="37">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="37"/>
+      <c r="Z14" s="36"/>
       <c r="AD14" s="7" t="s">
         <v>78</v>
       </c>
@@ -3147,7 +3132,7 @@
       <c r="D15" s="9">
         <v>0</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3157,18 +3142,18 @@
       <c r="G15" s="7">
         <v>0.1</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="25">
         <v>3</v>
       </c>
-      <c r="I15" s="26">
+      <c r="I15" s="25">
         <f t="shared" si="1"/>
         <v>0.55</v>
       </c>
-      <c r="J15" s="26">
+      <c r="J15" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K15" s="26">
+      <c r="K15" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3179,33 +3164,33 @@
       <c r="N15" s="17">
         <v>10</v>
       </c>
-      <c r="O15" s="34">
+      <c r="O15" s="33">
         <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q15" s="35">
+      <c r="Q15" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R15" s="35">
+      <c r="R15" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T15" s="7">
         <v>16</v>
       </c>
-      <c r="U15" s="37"/>
-      <c r="V15" s="38">
+      <c r="U15" s="36"/>
+      <c r="V15" s="37">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="38">
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="37">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z15" s="37"/>
+      <c r="Z15" s="36"/>
       <c r="AD15" s="7" t="s">
         <v>82</v>
       </c>
@@ -3235,28 +3220,28 @@
       <c r="D16" s="9">
         <v>0</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="27">
         <v>1.4</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="28">
         <v>1.4</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="25">
         <v>1.9</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I16" s="25">
         <f t="shared" si="1"/>
         <v>1.925</v>
       </c>
-      <c r="J16" s="26">
+      <c r="J16" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K16" s="26">
+      <c r="K16" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3267,33 +3252,33 @@
       <c r="N16" s="17">
         <v>10</v>
       </c>
-      <c r="O16" s="34">
+      <c r="O16" s="33">
         <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q16" s="35">
+      <c r="Q16" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R16" s="35">
+      <c r="R16" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T16" s="7">
         <v>16</v>
       </c>
-      <c r="U16" s="38">
+      <c r="U16" s="37">
         <f>CEILING(MAX(0,90-MAX(K16,60))*I16/T16,1)*T16</f>
         <v>64</v>
       </c>
-      <c r="V16" s="37"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="38">
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="37">
         <f>MIN(CEILING(MAX(0,70-MAX(J16,30))*I16/T16,1)*T16,D16)</f>
         <v>0</v>
       </c>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="37"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="36"/>
       <c r="AD16" s="7" t="s">
         <v>86</v>
       </c>
@@ -3323,28 +3308,28 @@
       <c r="D17" s="9">
         <v>0</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="27">
         <v>1</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="28">
         <v>0.4</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="25">
         <v>6</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="25">
         <f t="shared" si="1"/>
         <v>1.375</v>
       </c>
-      <c r="J17" s="26">
+      <c r="J17" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K17" s="26">
+      <c r="K17" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3355,33 +3340,33 @@
       <c r="N17" s="17">
         <v>6</v>
       </c>
-      <c r="O17" s="34">
+      <c r="O17" s="33">
         <f t="shared" si="4"/>
         <v>25.43</v>
       </c>
-      <c r="Q17" s="35">
+      <c r="Q17" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R17" s="35">
+      <c r="R17" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T17" s="7">
         <v>20</v>
       </c>
-      <c r="U17" s="38">
+      <c r="U17" s="37">
         <f>CEILING(MAX(0,90-MAX(K17,60))*I17/T17,1)*T17</f>
         <v>60</v>
       </c>
-      <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="38">
-        <f t="shared" ref="X17:X43" si="10">MIN(CEILING(MAX(0,70-MAX(J17,30))*I17/T17,1)*T17,D17)</f>
-        <v>0</v>
-      </c>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="37"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="37">
+        <f>MIN(CEILING(MAX(0,70-MAX(J17,30))*I17/T17,1)*T17,D17)</f>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
       <c r="AD17" s="7" t="s">
         <v>90</v>
       </c>
@@ -3411,29 +3396,29 @@
       <c r="D18" s="9">
         <v>0</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="27">
         <v>1</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="28">
         <v>0.3</v>
       </c>
-      <c r="H18" s="26">
-        <f t="shared" ref="H18:H21" si="11">MAX(E18,F18)*1.375</f>
+      <c r="H18" s="25">
+        <f t="shared" ref="H18:H21" si="10">MAX(E18,F18)*1.375</f>
         <v>1.375</v>
       </c>
-      <c r="I18" s="26">
+      <c r="I18" s="25">
         <f t="shared" si="1"/>
         <v>1.375</v>
       </c>
-      <c r="J18" s="26">
+      <c r="J18" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K18" s="26">
+      <c r="K18" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3444,33 +3429,33 @@
       <c r="N18" s="17">
         <v>13.38</v>
       </c>
-      <c r="O18" s="34">
+      <c r="O18" s="33">
         <f t="shared" si="4"/>
         <v>49.49</v>
       </c>
-      <c r="Q18" s="35">
+      <c r="Q18" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R18" s="35">
+      <c r="R18" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T18" s="7">
         <v>12</v>
       </c>
-      <c r="U18" s="38">
-        <f t="shared" ref="U18:U43" si="12">CEILING(MAX(0,90-MAX(K18,60))*I18/T18,1)*T18</f>
+      <c r="U18" s="37">
+        <f>CEILING(MAX(0,90-MAX(K18,60))*I18/T18,1)*T18</f>
         <v>48</v>
       </c>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="38">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="37"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="37">
+        <f>MIN(CEILING(MAX(0,70-MAX(J18,30))*I18/T18,1)*T18,D18)</f>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="36"/>
       <c r="AD18" s="7" t="s">
         <v>94</v>
       </c>
@@ -3500,28 +3485,28 @@
       <c r="D19" s="9">
         <v>0</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="27">
         <v>0.5</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="28">
         <v>0.9</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="25">
         <v>1.4</v>
       </c>
-      <c r="I19" s="26">
-        <f t="shared" ref="I19:I41" si="13">MAX(F19,G19)*1.375</f>
+      <c r="I19" s="25">
+        <f t="shared" ref="I19:I41" si="11">MAX(F19,G19)*1.375</f>
         <v>1.2375</v>
       </c>
-      <c r="J19" s="26">
+      <c r="J19" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K19" s="26">
+      <c r="K19" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3532,33 +3517,33 @@
       <c r="N19" s="17">
         <v>10</v>
       </c>
-      <c r="O19" s="34">
+      <c r="O19" s="33">
         <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q19" s="35">
+      <c r="Q19" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R19" s="35">
+      <c r="R19" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T19" s="7">
         <v>16</v>
       </c>
-      <c r="U19" s="38">
-        <f t="shared" si="12"/>
+      <c r="U19" s="37">
+        <f>CEILING(MAX(0,90-MAX(K19,60))*I19/T19,1)*T19</f>
         <v>48</v>
       </c>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="38">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="37"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="37">
+        <f>MIN(CEILING(MAX(0,70-MAX(J19,30))*I19/T19,1)*T19,D19)</f>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
       <c r="AD19" s="7" t="s">
         <v>98</v>
       </c>
@@ -3588,29 +3573,29 @@
       <c r="D20" s="9">
         <v>0</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="28">
-        <v>0</v>
-      </c>
-      <c r="G20" s="29">
+      <c r="F20" s="27">
+        <v>0</v>
+      </c>
+      <c r="G20" s="28">
         <v>0.4</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="25">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="26">
-        <f t="shared" si="13"/>
         <v>0.55</v>
       </c>
-      <c r="J20" s="26">
+      <c r="J20" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K20" s="26">
+      <c r="K20" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3621,33 +3606,33 @@
       <c r="N20" s="17">
         <v>13.38</v>
       </c>
-      <c r="O20" s="34">
+      <c r="O20" s="33">
         <f t="shared" si="4"/>
         <v>49.49</v>
       </c>
-      <c r="Q20" s="35">
+      <c r="Q20" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R20" s="35">
+      <c r="R20" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T20" s="7">
         <v>12</v>
       </c>
-      <c r="U20" s="38">
-        <f t="shared" si="12"/>
+      <c r="U20" s="37">
+        <f>CEILING(MAX(0,90-MAX(K20,60))*I20/T20,1)*T20</f>
         <v>24</v>
       </c>
-      <c r="V20" s="37"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="38">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="37"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="37">
+        <f>MIN(CEILING(MAX(0,70-MAX(J20,30))*I20/T20,1)*T20,D20)</f>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
       <c r="AD20" s="7" t="s">
         <v>102</v>
       </c>
@@ -3677,29 +3662,29 @@
       <c r="D21" s="9">
         <v>0</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="28">
+      <c r="F21" s="27">
         <v>1.7</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="28">
         <v>1.8</v>
       </c>
-      <c r="H21" s="26">
+      <c r="H21" s="25">
+        <f t="shared" si="10"/>
+        <v>2.3375</v>
+      </c>
+      <c r="I21" s="25">
         <f t="shared" si="11"/>
-        <v>2.3375</v>
-      </c>
-      <c r="I21" s="26">
-        <f t="shared" si="13"/>
         <v>2.475</v>
       </c>
-      <c r="J21" s="26">
+      <c r="J21" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K21" s="26">
+      <c r="K21" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3710,33 +3695,33 @@
       <c r="N21" s="17">
         <v>6.98</v>
       </c>
-      <c r="O21" s="34">
+      <c r="O21" s="33">
         <f t="shared" si="4"/>
         <v>29.72</v>
       </c>
-      <c r="Q21" s="35">
+      <c r="Q21" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R21" s="35">
+      <c r="R21" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T21" s="7">
         <v>21</v>
       </c>
-      <c r="U21" s="38">
-        <f t="shared" si="12"/>
+      <c r="U21" s="37">
+        <f>CEILING(MAX(0,90-MAX(K21,60))*I21/T21,1)*T21</f>
         <v>84</v>
       </c>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="38">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="37"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="37">
+        <f>MIN(CEILING(MAX(0,70-MAX(J21,30))*I21/T21,1)*T21,D21)</f>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="36"/>
       <c r="AD21" s="7" t="s">
         <v>106</v>
       </c>
@@ -3766,28 +3751,28 @@
       <c r="D22" s="9">
         <v>0</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="28">
+      <c r="F22" s="27">
         <v>0.5</v>
       </c>
-      <c r="G22" s="29">
+      <c r="G22" s="28">
         <v>0.5</v>
       </c>
-      <c r="H22" s="26">
+      <c r="H22" s="25">
         <v>2</v>
       </c>
-      <c r="I22" s="26">
-        <f t="shared" si="13"/>
+      <c r="I22" s="25">
+        <f t="shared" si="11"/>
         <v>0.6875</v>
       </c>
-      <c r="J22" s="26">
+      <c r="J22" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K22" s="26">
+      <c r="K22" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3798,33 +3783,33 @@
       <c r="N22" s="17">
         <v>9</v>
       </c>
-      <c r="O22" s="34">
+      <c r="O22" s="33">
         <f t="shared" si="4"/>
         <v>37.52</v>
       </c>
-      <c r="Q22" s="35">
+      <c r="Q22" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R22" s="35">
+      <c r="R22" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T22" s="7">
         <v>14</v>
       </c>
-      <c r="U22" s="38">
-        <f t="shared" si="12"/>
+      <c r="U22" s="37">
+        <f>CEILING(MAX(0,90-MAX(K22,60))*I22/T22,1)*T22</f>
         <v>28</v>
       </c>
-      <c r="V22" s="37"/>
-      <c r="W22" s="37"/>
-      <c r="X22" s="38">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="37"/>
-      <c r="Z22" s="37"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="37">
+        <f>MIN(CEILING(MAX(0,70-MAX(J22,30))*I22/T22,1)*T22,D22)</f>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
       <c r="AD22" s="7" t="s">
         <v>110</v>
       </c>
@@ -3854,29 +3839,29 @@
       <c r="D23" s="9">
         <v>0</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="27">
         <v>0.5</v>
       </c>
-      <c r="G23" s="29">
+      <c r="G23" s="28">
         <v>0.7</v>
       </c>
-      <c r="H23" s="26">
-        <f t="shared" ref="H23:H32" si="14">MAX(E23,F23)*1.375</f>
+      <c r="H23" s="25">
+        <f>MAX(E23,F23)*1.375</f>
         <v>0.6875</v>
       </c>
-      <c r="I23" s="26">
-        <f t="shared" si="13"/>
+      <c r="I23" s="25">
+        <f t="shared" si="11"/>
         <v>0.9625</v>
       </c>
-      <c r="J23" s="26">
+      <c r="J23" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K23" s="26">
+      <c r="K23" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3887,33 +3872,33 @@
       <c r="N23" s="17">
         <v>10</v>
       </c>
-      <c r="O23" s="34">
+      <c r="O23" s="33">
         <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q23" s="35">
+      <c r="Q23" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R23" s="35">
+      <c r="R23" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T23" s="7">
         <v>16</v>
       </c>
-      <c r="U23" s="38">
-        <f t="shared" si="12"/>
+      <c r="U23" s="37">
+        <f>CEILING(MAX(0,90-MAX(K23,60))*I23/T23,1)*T23</f>
         <v>32</v>
       </c>
-      <c r="V23" s="37"/>
-      <c r="W23" s="37"/>
-      <c r="X23" s="38">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y23" s="37"/>
-      <c r="Z23" s="37"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="37">
+        <f>MIN(CEILING(MAX(0,70-MAX(J23,30))*I23/T23,1)*T23,D23)</f>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="36"/>
       <c r="AD23" s="7" t="s">
         <v>114</v>
       </c>
@@ -3943,29 +3928,29 @@
       <c r="D24" s="9">
         <v>0</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="28">
         <v>0.7</v>
       </c>
-      <c r="G24" s="29">
+      <c r="G24" s="28">
         <v>1</v>
       </c>
-      <c r="H24" s="26">
-        <f t="shared" si="14"/>
+      <c r="H24" s="25">
+        <f>MAX(E24,F24)*1.375</f>
         <v>0.9625</v>
       </c>
-      <c r="I24" s="26">
-        <f t="shared" si="13"/>
+      <c r="I24" s="25">
+        <f t="shared" si="11"/>
         <v>1.375</v>
       </c>
-      <c r="J24" s="26">
+      <c r="J24" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K24" s="26">
+      <c r="K24" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3976,33 +3961,33 @@
       <c r="N24" s="17">
         <v>10</v>
       </c>
-      <c r="O24" s="34">
+      <c r="O24" s="33">
         <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q24" s="35">
+      <c r="Q24" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R24" s="35">
+      <c r="R24" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T24" s="7">
         <v>16</v>
       </c>
-      <c r="U24" s="38">
-        <f t="shared" si="12"/>
+      <c r="U24" s="37">
+        <f>CEILING(MAX(0,90-MAX(K24,60))*I24/T24,1)*T24</f>
         <v>48</v>
       </c>
-      <c r="V24" s="37"/>
-      <c r="W24" s="37"/>
-      <c r="X24" s="38">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y24" s="37"/>
-      <c r="Z24" s="37"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="37">
+        <f>MIN(CEILING(MAX(0,70-MAX(J24,30))*I24/T24,1)*T24,D24)</f>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="36"/>
       <c r="AD24" s="7" t="s">
         <v>118</v>
       </c>
@@ -4032,28 +4017,28 @@
       <c r="D25" s="9">
         <v>0</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F25" s="29">
+      <c r="F25" s="28">
         <v>1.2</v>
       </c>
-      <c r="G25" s="29">
+      <c r="G25" s="28">
         <v>1.4</v>
       </c>
-      <c r="H25" s="26">
+      <c r="H25" s="25">
         <v>2.5</v>
       </c>
-      <c r="I25" s="26">
-        <f t="shared" si="13"/>
+      <c r="I25" s="25">
+        <f t="shared" si="11"/>
         <v>1.925</v>
       </c>
-      <c r="J25" s="26">
+      <c r="J25" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K25" s="26">
+      <c r="K25" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4064,33 +4049,33 @@
       <c r="N25" s="17">
         <v>6</v>
       </c>
-      <c r="O25" s="34">
+      <c r="O25" s="33">
         <f t="shared" si="4"/>
         <v>25.43</v>
       </c>
-      <c r="Q25" s="35">
+      <c r="Q25" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R25" s="35">
+      <c r="R25" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T25" s="7">
         <v>20</v>
       </c>
-      <c r="U25" s="38">
-        <f t="shared" si="12"/>
+      <c r="U25" s="37">
+        <f>CEILING(MAX(0,90-MAX(K25,60))*I25/T25,1)*T25</f>
         <v>60</v>
       </c>
-      <c r="V25" s="37"/>
-      <c r="W25" s="37"/>
-      <c r="X25" s="38">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y25" s="37"/>
-      <c r="Z25" s="37"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="37">
+        <f>MIN(CEILING(MAX(0,70-MAX(J25,30))*I25/T25,1)*T25,D25)</f>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="36"/>
+      <c r="Z25" s="36"/>
       <c r="AD25" s="7" t="s">
         <v>122</v>
       </c>
@@ -4120,28 +4105,28 @@
       <c r="D26" s="9">
         <v>0</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E26" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F26" s="29">
+      <c r="F26" s="28">
         <v>0.7</v>
       </c>
-      <c r="G26" s="29">
+      <c r="G26" s="28">
         <v>0.7</v>
       </c>
-      <c r="H26" s="26">
+      <c r="H26" s="25">
         <v>4</v>
       </c>
-      <c r="I26" s="26">
-        <f t="shared" si="13"/>
+      <c r="I26" s="25">
+        <f t="shared" si="11"/>
         <v>0.9625</v>
       </c>
-      <c r="J26" s="26">
+      <c r="J26" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K26" s="26">
+      <c r="K26" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4152,33 +4137,33 @@
       <c r="N26" s="17">
         <v>6.98</v>
       </c>
-      <c r="O26" s="34">
+      <c r="O26" s="33">
         <f t="shared" si="4"/>
         <v>29.72</v>
       </c>
-      <c r="Q26" s="35">
+      <c r="Q26" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R26" s="35">
+      <c r="R26" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T26" s="7">
         <v>21</v>
       </c>
-      <c r="U26" s="38">
-        <f t="shared" si="12"/>
+      <c r="U26" s="37">
+        <f>CEILING(MAX(0,90-MAX(K26,60))*I26/T26,1)*T26</f>
         <v>42</v>
       </c>
-      <c r="V26" s="37"/>
-      <c r="W26" s="37"/>
-      <c r="X26" s="38">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y26" s="37"/>
-      <c r="Z26" s="37"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="37">
+        <f>MIN(CEILING(MAX(0,70-MAX(J26,30))*I26/T26,1)*T26,D26)</f>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="36"/>
       <c r="AD26" s="7" t="s">
         <v>126</v>
       </c>
@@ -4208,29 +4193,29 @@
       <c r="D27" s="9">
         <v>0</v>
       </c>
-      <c r="E27" s="27">
+      <c r="E27" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F27" s="29">
+      <c r="F27" s="28">
         <v>1.5</v>
       </c>
-      <c r="G27" s="29">
+      <c r="G27" s="28">
         <v>1.2</v>
       </c>
-      <c r="H27" s="26">
-        <f t="shared" si="14"/>
+      <c r="H27" s="25">
+        <f>MAX(E27,F27)*1.375</f>
         <v>2.0625</v>
       </c>
-      <c r="I27" s="26">
-        <f t="shared" si="13"/>
+      <c r="I27" s="25">
+        <f t="shared" si="11"/>
         <v>2.0625</v>
       </c>
-      <c r="J27" s="26">
+      <c r="J27" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K27" s="26">
+      <c r="K27" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4241,33 +4226,33 @@
       <c r="N27" s="17">
         <v>10</v>
       </c>
-      <c r="O27" s="34">
+      <c r="O27" s="33">
         <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q27" s="35">
+      <c r="Q27" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R27" s="35">
+      <c r="R27" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T27" s="7">
         <v>16</v>
       </c>
-      <c r="U27" s="38">
-        <f t="shared" si="12"/>
+      <c r="U27" s="37">
+        <f>CEILING(MAX(0,90-MAX(K27,60))*I27/T27,1)*T27</f>
         <v>64</v>
       </c>
-      <c r="V27" s="37"/>
-      <c r="W27" s="37"/>
-      <c r="X27" s="38">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y27" s="37"/>
-      <c r="Z27" s="37"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="37">
+        <f>MIN(CEILING(MAX(0,70-MAX(J27,30))*I27/T27,1)*T27,D27)</f>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="36"/>
       <c r="AD27" s="7" t="s">
         <v>130</v>
       </c>
@@ -4297,29 +4282,29 @@
       <c r="D28" s="9">
         <v>0</v>
       </c>
-      <c r="E28" s="27">
+      <c r="E28" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F28" s="27">
         <v>1.1</v>
       </c>
-      <c r="G28" s="29">
+      <c r="G28" s="28">
         <v>0.5</v>
       </c>
-      <c r="H28" s="26">
-        <f t="shared" si="14"/>
+      <c r="H28" s="25">
+        <f>MAX(E28,F28)*1.375</f>
         <v>1.5125</v>
       </c>
-      <c r="I28" s="26">
-        <f t="shared" si="13"/>
+      <c r="I28" s="25">
+        <f t="shared" si="11"/>
         <v>1.5125</v>
       </c>
-      <c r="J28" s="26">
+      <c r="J28" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K28" s="26">
+      <c r="K28" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4330,33 +4315,33 @@
       <c r="N28" s="17">
         <v>13.38</v>
       </c>
-      <c r="O28" s="34">
+      <c r="O28" s="33">
         <f t="shared" si="4"/>
         <v>49.49</v>
       </c>
-      <c r="Q28" s="35">
+      <c r="Q28" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R28" s="35">
+      <c r="R28" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T28" s="7">
         <v>12</v>
       </c>
-      <c r="U28" s="38">
-        <f t="shared" si="12"/>
+      <c r="U28" s="37">
+        <f>CEILING(MAX(0,90-MAX(K28,60))*I28/T28,1)*T28</f>
         <v>48</v>
       </c>
-      <c r="V28" s="37"/>
-      <c r="W28" s="37"/>
-      <c r="X28" s="38">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y28" s="37"/>
-      <c r="Z28" s="37"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="37">
+        <f>MIN(CEILING(MAX(0,70-MAX(J28,30))*I28/T28,1)*T28,D28)</f>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="36"/>
       <c r="AD28" s="7" t="s">
         <v>134</v>
       </c>
@@ -4386,29 +4371,29 @@
       <c r="D29" s="9">
         <v>0</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E29" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F29" s="28">
+      <c r="F29" s="27">
         <v>0.8</v>
       </c>
-      <c r="G29" s="29">
+      <c r="G29" s="28">
         <v>1</v>
       </c>
-      <c r="H29" s="26">
-        <f t="shared" si="14"/>
+      <c r="H29" s="25">
+        <f>MAX(E29,F29)*1.375</f>
         <v>1.1</v>
       </c>
-      <c r="I29" s="26">
-        <f t="shared" si="13"/>
+      <c r="I29" s="25">
+        <f t="shared" si="11"/>
         <v>1.375</v>
       </c>
-      <c r="J29" s="26">
+      <c r="J29" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K29" s="26">
+      <c r="K29" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4419,33 +4404,33 @@
       <c r="N29" s="17">
         <v>10</v>
       </c>
-      <c r="O29" s="34">
+      <c r="O29" s="33">
         <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q29" s="35">
+      <c r="Q29" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R29" s="35">
+      <c r="R29" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T29" s="7">
         <v>16</v>
       </c>
-      <c r="U29" s="38">
-        <f t="shared" si="12"/>
+      <c r="U29" s="37">
+        <f>CEILING(MAX(0,90-MAX(K29,60))*I29/T29,1)*T29</f>
         <v>48</v>
       </c>
-      <c r="V29" s="37"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="38">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="37"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="36"/>
+      <c r="X29" s="37">
+        <f>MIN(CEILING(MAX(0,70-MAX(J29,30))*I29/T29,1)*T29,D29)</f>
+        <v>0</v>
+      </c>
+      <c r="Y29" s="36"/>
+      <c r="Z29" s="36"/>
       <c r="AD29" s="7" t="s">
         <v>138</v>
       </c>
@@ -4466,7 +4451,7 @@
       <c r="A30" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="23" t="s">
         <v>141</v>
       </c>
       <c r="C30" s="9">
@@ -4475,66 +4460,66 @@
       <c r="D30" s="9">
         <v>0</v>
       </c>
-      <c r="E30" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="28">
+      <c r="E30" s="29">
+        <f>C30+D30</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="30">
         <v>0.1</v>
       </c>
-      <c r="G30" s="29">
-        <v>0.2</v>
-      </c>
-      <c r="H30" s="26">
-        <f t="shared" si="14"/>
+      <c r="G30" s="31">
+        <v>0</v>
+      </c>
+      <c r="H30" s="25">
+        <f>MAX(E30,F30)*1.375</f>
         <v>0.1375</v>
       </c>
-      <c r="I30" s="26">
-        <f t="shared" si="13"/>
-        <v>0.275</v>
-      </c>
-      <c r="J30" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="26">
-        <f t="shared" si="3"/>
+      <c r="I30" s="25">
+        <f>MAX(F30,G30)*1.375</f>
+        <v>0.1375</v>
+      </c>
+      <c r="J30" s="25">
+        <f>(C30)/I30</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="25">
+        <f>(E30)/I30</f>
         <v>0</v>
       </c>
       <c r="L30" s="17"/>
       <c r="M30" s="17">
-        <v>39.8</v>
+        <v>26.57</v>
       </c>
       <c r="N30" s="17">
-        <v>13.38</v>
-      </c>
-      <c r="O30" s="34">
-        <f t="shared" si="4"/>
-        <v>53.18</v>
-      </c>
-      <c r="Q30" s="35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="35">
-        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="O30" s="33">
+        <f>M30+N30</f>
+        <v>36.57</v>
+      </c>
+      <c r="Q30" s="34">
+        <f>M30*C30</f>
+        <v>0</v>
+      </c>
+      <c r="R30" s="34">
+        <f>M30*D30</f>
         <v>0</v>
       </c>
       <c r="T30" s="7">
-        <v>12</v>
-      </c>
-      <c r="U30" s="38">
-        <f t="shared" si="12"/>
-        <v>12</v>
-      </c>
-      <c r="V30" s="37"/>
-      <c r="W30" s="37"/>
-      <c r="X30" s="38">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y30" s="37"/>
-      <c r="Z30" s="37"/>
+        <v>16</v>
+      </c>
+      <c r="U30" s="37">
+        <f t="shared" ref="U30:U44" si="12">CEILING(MAX(0,90-MAX(K30,60))*I30/T30,1)*T30</f>
+        <v>16</v>
+      </c>
+      <c r="V30" s="36"/>
+      <c r="W30" s="36"/>
+      <c r="X30" s="37">
+        <f t="shared" ref="X30:X44" si="13">MIN(CEILING(MAX(0,70-MAX(J30,30))*I30/T30,1)*T30,D30)</f>
+        <v>0</v>
+      </c>
+      <c r="Y30" s="36"/>
+      <c r="Z30" s="36"/>
       <c r="AD30" s="7" t="s">
         <v>142</v>
       </c>
@@ -4551,11 +4536,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="25" customHeight="1" spans="1:34">
+    <row r="31" ht="25" customHeight="1" spans="1:34">
       <c r="A31" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="17" t="s">
         <v>145</v>
       </c>
       <c r="C31" s="9">
@@ -4564,88 +4549,88 @@
       <c r="D31" s="9">
         <v>0</v>
       </c>
-      <c r="E31" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="31">
+      <c r="E31" s="29">
+        <f>C31+D31</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="27">
         <v>0.1</v>
       </c>
-      <c r="G31" s="32">
-        <v>0</v>
-      </c>
-      <c r="H31" s="26">
-        <f t="shared" si="14"/>
+      <c r="G31" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="H31" s="25">
+        <f>MAX(E31,F31)*1.375</f>
         <v>0.1375</v>
       </c>
-      <c r="I31" s="26">
+      <c r="I31" s="25">
+        <f>MAX(F31,G31)*1.375</f>
+        <v>0.1375</v>
+      </c>
+      <c r="J31" s="25">
+        <f>(C31)/I31</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="25">
+        <f>(E31)/I31</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="N31" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="O31" s="33">
+        <f>M31+N31</f>
+        <v>30</v>
+      </c>
+      <c r="Q31" s="34">
+        <f>M31*C31</f>
+        <v>0</v>
+      </c>
+      <c r="R31" s="34">
+        <f>M31*D31</f>
+        <v>0</v>
+      </c>
+      <c r="T31" s="7">
+        <v>30</v>
+      </c>
+      <c r="U31" s="37">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="V31" s="36"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="37">
         <f t="shared" si="13"/>
-        <v>0.1375</v>
-      </c>
-      <c r="J31" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17">
-        <v>26.57</v>
-      </c>
-      <c r="N31" s="17">
-        <v>10</v>
-      </c>
-      <c r="O31" s="34">
-        <f t="shared" si="4"/>
-        <v>36.57</v>
-      </c>
-      <c r="Q31" s="35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R31" s="35">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T31" s="7">
-        <v>16</v>
-      </c>
-      <c r="U31" s="38">
-        <f t="shared" si="12"/>
-        <v>16</v>
-      </c>
-      <c r="V31" s="37"/>
-      <c r="W31" s="37"/>
-      <c r="X31" s="38">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y31" s="37"/>
-      <c r="Z31" s="37"/>
+        <v>0</v>
+      </c>
+      <c r="Y31" s="36"/>
+      <c r="Z31" s="36"/>
       <c r="AD31" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AE31" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AF31" s="7">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="AG31" s="7">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH31" s="7">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" ht="25" customHeight="1" spans="1:34">
-      <c r="A32" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>149</v>
+      <c r="A32" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>151</v>
       </c>
       <c r="C32" s="9">
         <v>0</v>
@@ -4653,66 +4638,65 @@
       <c r="D32" s="9">
         <v>0</v>
       </c>
-      <c r="E32" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="G32" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="H32" s="26">
-        <f t="shared" si="14"/>
-        <v>0.1375</v>
-      </c>
-      <c r="I32" s="26">
+      <c r="E32" s="29">
+        <f>C32+D32</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="G32" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H32" s="25">
+        <v>3.5</v>
+      </c>
+      <c r="I32" s="25">
+        <f>MAX(F32,G32)*1.375</f>
+        <v>3.85</v>
+      </c>
+      <c r="J32" s="25">
+        <f>(C32)/I32</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="25">
+        <f>(E32)/I32</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17">
+        <v>24.37</v>
+      </c>
+      <c r="N32" s="17">
+        <v>10</v>
+      </c>
+      <c r="O32" s="33">
+        <f>M32+N32</f>
+        <v>34.37</v>
+      </c>
+      <c r="Q32" s="34">
+        <f>M32*C32</f>
+        <v>0</v>
+      </c>
+      <c r="R32" s="34">
+        <f>M32*D32</f>
+        <v>0</v>
+      </c>
+      <c r="T32" s="7">
+        <v>16</v>
+      </c>
+      <c r="U32" s="37">
+        <f t="shared" si="12"/>
+        <v>128</v>
+      </c>
+      <c r="V32" s="36"/>
+      <c r="W32" s="36"/>
+      <c r="X32" s="37">
         <f t="shared" si="13"/>
-        <v>0.1375</v>
-      </c>
-      <c r="J32" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="N32" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="O32" s="34">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="Q32" s="35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R32" s="35">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T32" s="7">
-        <v>30</v>
-      </c>
-      <c r="U32" s="38">
-        <f t="shared" si="12"/>
-        <v>30</v>
-      </c>
-      <c r="V32" s="37"/>
-      <c r="W32" s="37"/>
-      <c r="X32" s="38">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y32" s="37"/>
-      <c r="Z32" s="37"/>
+        <v>0</v>
+      </c>
+      <c r="Y32" s="36"/>
+      <c r="Z32" s="36"/>
       <c r="AD32" s="7" t="s">
         <v>152</v>
       </c>
@@ -4720,17 +4704,17 @@
         <v>153</v>
       </c>
       <c r="AF32" s="7">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="AG32" s="7">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH32" s="7">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" ht="25" customHeight="1" spans="1:34">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="18" t="s">
         <v>154</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -4742,29 +4726,29 @@
       <c r="D33" s="9">
         <v>0</v>
       </c>
-      <c r="E33" s="30">
-        <f t="shared" si="0"/>
+      <c r="E33" s="29">
+        <f>C33+D33</f>
         <v>0</v>
       </c>
       <c r="F33" s="7">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="G33" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="H33" s="26">
-        <v>3.5</v>
-      </c>
-      <c r="I33" s="26">
-        <f t="shared" si="13"/>
-        <v>3.85</v>
-      </c>
-      <c r="J33" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="26">
-        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="H33" s="25">
+        <v>2</v>
+      </c>
+      <c r="I33" s="25">
+        <f>MAX(F33,G33)*1.375</f>
+        <v>1.1</v>
+      </c>
+      <c r="J33" s="25">
+        <f>(C33)/I33</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="25">
+        <f>(E33)/I33</f>
         <v>0</v>
       </c>
       <c r="L33" s="17"/>
@@ -4774,34 +4758,34 @@
       <c r="N33" s="17">
         <v>10</v>
       </c>
-      <c r="O33" s="34">
-        <f t="shared" si="4"/>
+      <c r="O33" s="33">
+        <f>M33+N33</f>
         <v>34.37</v>
       </c>
-      <c r="Q33" s="35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R33" s="35">
-        <f t="shared" si="6"/>
+      <c r="Q33" s="34">
+        <f>M33*C33</f>
+        <v>0</v>
+      </c>
+      <c r="R33" s="34">
+        <f>M33*D33</f>
         <v>0</v>
       </c>
       <c r="T33" s="7">
         <v>16</v>
       </c>
-      <c r="U33" s="38">
+      <c r="U33" s="37">
         <f t="shared" si="12"/>
-        <v>128</v>
-      </c>
-      <c r="V33" s="37"/>
-      <c r="W33" s="37"/>
-      <c r="X33" s="38">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y33" s="37"/>
-      <c r="Z33" s="37"/>
-      <c r="AD33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="V33" s="36"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="37">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="36"/>
+      <c r="Z33" s="36"/>
+      <c r="AD33" s="8" t="s">
         <v>156</v>
       </c>
       <c r="AE33" s="7" t="s">
@@ -4818,7 +4802,7 @@
       </c>
     </row>
     <row r="34" ht="25" customHeight="1" spans="1:34">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="7" t="s">
         <v>158</v>
       </c>
       <c r="B34" s="7" t="s">
@@ -4830,73 +4814,73 @@
       <c r="D34" s="9">
         <v>0</v>
       </c>
-      <c r="E34" s="30">
-        <f t="shared" si="0"/>
+      <c r="E34" s="29">
+        <f>C34+D34</f>
         <v>0</v>
       </c>
       <c r="F34" s="7">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="G34" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="H34" s="26">
-        <v>2</v>
-      </c>
-      <c r="I34" s="26">
-        <f t="shared" si="13"/>
         <v>1.1</v>
       </c>
-      <c r="J34" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="26">
-        <f t="shared" si="3"/>
+      <c r="H34" s="25">
+        <v>3</v>
+      </c>
+      <c r="I34" s="25">
+        <f>MAX(F34,G34)*1.375</f>
+        <v>1.5125</v>
+      </c>
+      <c r="J34" s="25">
+        <f>(C34)/I34</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="25">
+        <f>(E34)/I34</f>
         <v>0</v>
       </c>
       <c r="L34" s="17"/>
       <c r="M34" s="17">
-        <v>24.37</v>
+        <v>26.57</v>
       </c>
       <c r="N34" s="17">
         <v>10</v>
       </c>
-      <c r="O34" s="34">
-        <f t="shared" si="4"/>
-        <v>34.37</v>
-      </c>
-      <c r="Q34" s="35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R34" s="35">
-        <f t="shared" si="6"/>
+      <c r="O34" s="33">
+        <f>M34+N34</f>
+        <v>36.57</v>
+      </c>
+      <c r="Q34" s="34">
+        <f>M34*C34</f>
+        <v>0</v>
+      </c>
+      <c r="R34" s="34">
+        <f>M34*D34</f>
         <v>0</v>
       </c>
       <c r="T34" s="7">
-        <v>16</v>
-      </c>
-      <c r="U34" s="38">
+        <v>32</v>
+      </c>
+      <c r="U34" s="37">
         <f t="shared" si="12"/>
-        <v>48</v>
-      </c>
-      <c r="V34" s="37"/>
-      <c r="W34" s="37"/>
-      <c r="X34" s="38">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y34" s="37"/>
-      <c r="Z34" s="37"/>
-      <c r="AD34" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="V34" s="36"/>
+      <c r="W34" s="36"/>
+      <c r="X34" s="37">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y34" s="36"/>
+      <c r="Z34" s="36"/>
+      <c r="AD34" s="7" t="s">
         <v>160</v>
       </c>
       <c r="AE34" s="7" t="s">
         <v>161</v>
       </c>
       <c r="AF34" s="7">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AG34" s="7">
         <v>40</v>
@@ -4918,73 +4902,73 @@
       <c r="D35" s="9">
         <v>0</v>
       </c>
-      <c r="E35" s="30">
-        <f t="shared" si="0"/>
+      <c r="E35" s="29">
+        <f>C35+D35</f>
         <v>0</v>
       </c>
       <c r="F35" s="7">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="G35" s="7">
-        <v>1.1</v>
-      </c>
-      <c r="H35" s="26">
-        <v>3</v>
-      </c>
-      <c r="I35" s="26">
-        <f t="shared" si="13"/>
-        <v>1.5125</v>
-      </c>
-      <c r="J35" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="26">
-        <f t="shared" si="3"/>
+        <v>2.2</v>
+      </c>
+      <c r="H35" s="25">
+        <v>4.5</v>
+      </c>
+      <c r="I35" s="25">
+        <f>MAX(F35,G35)*1.375</f>
+        <v>3.025</v>
+      </c>
+      <c r="J35" s="25">
+        <f>(C35)/I35</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="25">
+        <f>(E35)/I35</f>
         <v>0</v>
       </c>
       <c r="L35" s="17"/>
-      <c r="M35" s="17">
-        <v>26.57</v>
-      </c>
-      <c r="N35" s="17">
-        <v>10</v>
-      </c>
-      <c r="O35" s="34">
-        <f t="shared" si="4"/>
-        <v>36.57</v>
-      </c>
-      <c r="Q35" s="35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R35" s="35">
-        <f t="shared" si="6"/>
+      <c r="M35" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="N35" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="O35" s="33">
+        <f>M35+N35</f>
+        <v>19</v>
+      </c>
+      <c r="Q35" s="34">
+        <f>M35*C35</f>
+        <v>0</v>
+      </c>
+      <c r="R35" s="34">
+        <f>M35*D35</f>
         <v>0</v>
       </c>
       <c r="T35" s="7">
         <v>32</v>
       </c>
-      <c r="U35" s="38">
+      <c r="U35" s="37">
         <f t="shared" si="12"/>
-        <v>64</v>
-      </c>
-      <c r="V35" s="37"/>
-      <c r="W35" s="37"/>
-      <c r="X35" s="38">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y35" s="37"/>
-      <c r="Z35" s="37"/>
+        <v>96</v>
+      </c>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="37">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y35" s="36"/>
+      <c r="Z35" s="36"/>
       <c r="AD35" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE35" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AF35" s="7">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AG35" s="7">
         <v>40</v>
@@ -4994,11 +4978,11 @@
       </c>
     </row>
     <row r="36" ht="25" customHeight="1" spans="1:34">
-      <c r="A36" s="7" t="s">
-        <v>166</v>
+      <c r="A36" s="18" t="s">
+        <v>168</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C36" s="9">
         <v>0</v>
@@ -5006,65 +4990,65 @@
       <c r="D36" s="9">
         <v>0</v>
       </c>
-      <c r="E36" s="30">
-        <f t="shared" si="0"/>
+      <c r="E36" s="29">
+        <f>C36+D36</f>
         <v>0</v>
       </c>
       <c r="F36" s="7">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="G36" s="7">
-        <v>2.2</v>
-      </c>
-      <c r="H36" s="26">
-        <v>4.5</v>
-      </c>
-      <c r="I36" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="H36" s="25">
+        <v>1</v>
+      </c>
+      <c r="I36" s="25">
+        <f>MAX(F36,G36)*1.375</f>
+        <v>0.9625</v>
+      </c>
+      <c r="J36" s="25">
+        <f>(C36)/I36</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="25">
+        <f>(E36)/I36</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17">
+        <v>24.37</v>
+      </c>
+      <c r="N36" s="17">
+        <v>10</v>
+      </c>
+      <c r="O36" s="33">
+        <f>M36+N36</f>
+        <v>34.37</v>
+      </c>
+      <c r="Q36" s="34">
+        <f>M36*C36</f>
+        <v>0</v>
+      </c>
+      <c r="R36" s="34">
+        <f>M36*D36</f>
+        <v>0</v>
+      </c>
+      <c r="T36" s="7">
+        <v>16</v>
+      </c>
+      <c r="U36" s="37">
+        <f t="shared" si="12"/>
+        <v>32</v>
+      </c>
+      <c r="V36" s="36"/>
+      <c r="W36" s="36"/>
+      <c r="X36" s="37">
         <f t="shared" si="13"/>
-        <v>3.025</v>
-      </c>
-      <c r="J36" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="N36" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="O36" s="34">
-        <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="Q36" s="35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R36" s="35">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T36" s="7">
-        <v>32</v>
-      </c>
-      <c r="U36" s="38">
-        <f t="shared" si="12"/>
-        <v>96</v>
-      </c>
-      <c r="V36" s="37"/>
-      <c r="W36" s="37"/>
-      <c r="X36" s="38">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y36" s="37"/>
-      <c r="Z36" s="37"/>
+        <v>0</v>
+      </c>
+      <c r="Y36" s="36"/>
+      <c r="Z36" s="36"/>
       <c r="AD36" s="7" t="s">
         <v>170</v>
       </c>
@@ -5082,7 +5066,7 @@
       </c>
     </row>
     <row r="37" ht="25" customHeight="1" spans="1:34">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="14" t="s">
         <v>172</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -5094,29 +5078,29 @@
       <c r="D37" s="9">
         <v>0</v>
       </c>
-      <c r="E37" s="30">
-        <f t="shared" si="0"/>
+      <c r="E37" s="29">
+        <f>C37+D37</f>
         <v>0</v>
       </c>
       <c r="F37" s="7">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="G37" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="H37" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="H37" s="25">
         <v>1</v>
       </c>
-      <c r="I37" s="26">
-        <f t="shared" si="13"/>
-        <v>0.9625</v>
-      </c>
-      <c r="J37" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="26">
-        <f t="shared" si="3"/>
+      <c r="I37" s="25">
+        <f>MAX(F37,G37)*1.375</f>
+        <v>0.6875</v>
+      </c>
+      <c r="J37" s="25">
+        <f>(C37)/I37</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="25">
+        <f>(E37)/I37</f>
         <v>0</v>
       </c>
       <c r="L37" s="17"/>
@@ -5126,34 +5110,34 @@
       <c r="N37" s="17">
         <v>10</v>
       </c>
-      <c r="O37" s="34">
-        <f t="shared" si="4"/>
+      <c r="O37" s="33">
+        <f>M37+N37</f>
         <v>34.37</v>
       </c>
-      <c r="Q37" s="35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R37" s="35">
-        <f t="shared" si="6"/>
+      <c r="Q37" s="34">
+        <f>M37*C37</f>
+        <v>0</v>
+      </c>
+      <c r="R37" s="34">
+        <f>M37*D37</f>
         <v>0</v>
       </c>
       <c r="T37" s="7">
         <v>16</v>
       </c>
-      <c r="U37" s="38">
+      <c r="U37" s="37">
         <f t="shared" si="12"/>
         <v>32</v>
       </c>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="38">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y37" s="37"/>
-      <c r="Z37" s="37"/>
-      <c r="AD37" s="7" t="s">
+      <c r="V37" s="36"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="37">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y37" s="36"/>
+      <c r="Z37" s="36"/>
+      <c r="AD37" s="8" t="s">
         <v>174</v>
       </c>
       <c r="AE37" s="7" t="s">
@@ -5182,29 +5166,29 @@
       <c r="D38" s="9">
         <v>0</v>
       </c>
-      <c r="E38" s="30">
-        <f t="shared" si="0"/>
+      <c r="E38" s="26">
+        <f>C38+D38</f>
         <v>0</v>
       </c>
       <c r="F38" s="7">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="G38" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="H38" s="26">
         <v>1</v>
       </c>
-      <c r="I38" s="26">
-        <f t="shared" si="13"/>
-        <v>0.6875</v>
-      </c>
-      <c r="J38" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="26">
-        <f t="shared" si="3"/>
+      <c r="H38" s="25">
+        <v>3.5</v>
+      </c>
+      <c r="I38" s="25">
+        <f>MAX(F38,G38)*1.375</f>
+        <v>3.4375</v>
+      </c>
+      <c r="J38" s="25">
+        <f>(C38)/I38</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="25">
+        <f>(E38)/I38</f>
         <v>0</v>
       </c>
       <c r="L38" s="17"/>
@@ -5214,34 +5198,34 @@
       <c r="N38" s="17">
         <v>10</v>
       </c>
-      <c r="O38" s="34">
-        <f t="shared" si="4"/>
+      <c r="O38" s="33">
+        <f>M38+N38</f>
         <v>34.37</v>
       </c>
-      <c r="Q38" s="35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R38" s="35">
-        <f t="shared" si="6"/>
+      <c r="Q38" s="34">
+        <f>M38*C38</f>
+        <v>0</v>
+      </c>
+      <c r="R38" s="34">
+        <f>M38*D38</f>
         <v>0</v>
       </c>
       <c r="T38" s="7">
         <v>16</v>
       </c>
-      <c r="U38" s="38">
+      <c r="U38" s="37">
         <f t="shared" si="12"/>
-        <v>32</v>
-      </c>
-      <c r="V38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="38">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y38" s="37"/>
-      <c r="Z38" s="37"/>
-      <c r="AD38" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="V38" s="36"/>
+      <c r="W38" s="36"/>
+      <c r="X38" s="37">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y38" s="36"/>
+      <c r="Z38" s="36"/>
+      <c r="AD38" s="7" t="s">
         <v>178</v>
       </c>
       <c r="AE38" s="7" t="s">
@@ -5258,7 +5242,7 @@
       </c>
     </row>
     <row r="39" ht="25" customHeight="1" spans="1:34">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="7" t="s">
         <v>180</v>
       </c>
       <c r="B39" s="7" t="s">
@@ -5270,87 +5254,88 @@
       <c r="D39" s="9">
         <v>0</v>
       </c>
-      <c r="E39" s="27">
-        <f t="shared" si="0"/>
+      <c r="E39" s="26">
+        <f>C39+D39</f>
         <v>0</v>
       </c>
       <c r="F39" s="7">
-        <v>2.5</v>
+        <v>0.4</v>
       </c>
       <c r="G39" s="7">
-        <v>1</v>
-      </c>
-      <c r="H39" s="26">
-        <v>3.5</v>
-      </c>
-      <c r="I39" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="H39" s="25">
+        <f t="shared" ref="H39:H44" si="14">MAX(E39,F39)*1.375</f>
+        <v>0.55</v>
+      </c>
+      <c r="I39" s="25">
+        <f>MAX(F39,G39)*1.375</f>
+        <v>0.55</v>
+      </c>
+      <c r="J39" s="25">
+        <f>(C39)/I39</f>
+        <v>0</v>
+      </c>
+      <c r="K39" s="25">
+        <f>(E39)/I39</f>
+        <v>0</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="N39" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="O39" s="33">
+        <f>M39+N39</f>
+        <v>30.8</v>
+      </c>
+      <c r="Q39" s="34">
+        <f>M39*C39</f>
+        <v>0</v>
+      </c>
+      <c r="R39" s="34">
+        <f>M39*D39</f>
+        <v>0</v>
+      </c>
+      <c r="T39" s="7">
+        <v>20</v>
+      </c>
+      <c r="U39" s="37">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="V39" s="36"/>
+      <c r="W39" s="36"/>
+      <c r="X39" s="37">
         <f t="shared" si="13"/>
-        <v>3.4375</v>
-      </c>
-      <c r="J39" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17">
-        <v>24.37</v>
-      </c>
-      <c r="N39" s="17">
-        <v>10</v>
-      </c>
-      <c r="O39" s="34">
-        <f t="shared" si="4"/>
-        <v>34.37</v>
-      </c>
-      <c r="Q39" s="35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R39" s="35">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T39" s="7">
-        <v>16</v>
-      </c>
-      <c r="U39" s="38">
-        <f t="shared" si="12"/>
-        <v>112</v>
-      </c>
-      <c r="V39" s="37"/>
-      <c r="W39" s="37"/>
-      <c r="X39" s="38">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y39" s="37"/>
-      <c r="Z39" s="37"/>
+        <v>0</v>
+      </c>
+      <c r="Y39" s="36"/>
+      <c r="Z39" s="36"/>
       <c r="AD39" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AE39" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AF39" s="7">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="AG39" s="7">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AH39" s="7">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" ht="25" customHeight="1" spans="1:34">
       <c r="A40" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C40" s="9">
         <v>0</v>
@@ -5358,66 +5343,66 @@
       <c r="D40" s="9">
         <v>0</v>
       </c>
-      <c r="E40" s="27">
-        <f t="shared" si="0"/>
+      <c r="E40" s="26">
+        <f>C40+D40</f>
         <v>0</v>
       </c>
       <c r="F40" s="7">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G40" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="H40" s="26">
-        <f t="shared" ref="H40:H45" si="15">MAX(E40,F40)*1.375</f>
-        <v>0.55</v>
-      </c>
-      <c r="I40" s="26">
-        <f t="shared" si="13"/>
-        <v>0.55</v>
-      </c>
-      <c r="J40" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="26">
-        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="H40" s="25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="25">
+        <f>MAX(F40,G40)*1.375</f>
+        <v>0.1375</v>
+      </c>
+      <c r="J40" s="25">
+        <f>(C40)/I40</f>
+        <v>0</v>
+      </c>
+      <c r="K40" s="25">
+        <f>(E40)/I40</f>
         <v>0</v>
       </c>
       <c r="L40" s="17"/>
       <c r="M40" s="17" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="N40" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="O40" s="34">
-        <f t="shared" si="4"/>
-        <v>30.8</v>
-      </c>
-      <c r="Q40" s="35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R40" s="35">
-        <f t="shared" si="6"/>
+        <v>183</v>
+      </c>
+      <c r="O40" s="33">
+        <f>M40+N40</f>
+        <v>32.8</v>
+      </c>
+      <c r="Q40" s="34">
+        <f>M40*C40</f>
+        <v>0</v>
+      </c>
+      <c r="R40" s="34">
+        <f>M40*D40</f>
         <v>0</v>
       </c>
       <c r="T40" s="7">
         <v>20</v>
       </c>
-      <c r="U40" s="38">
+      <c r="U40" s="37">
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="V40" s="37"/>
-      <c r="W40" s="37"/>
-      <c r="X40" s="38">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y40" s="37"/>
-      <c r="Z40" s="37"/>
+      <c r="V40" s="36"/>
+      <c r="W40" s="36"/>
+      <c r="X40" s="37">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y40" s="36"/>
+      <c r="Z40" s="36"/>
       <c r="AD40" s="7" t="s">
         <v>188</v>
       </c>
@@ -5435,7 +5420,7 @@
       </c>
     </row>
     <row r="41" ht="25" customHeight="1" spans="1:34">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="15" t="s">
         <v>190</v>
       </c>
       <c r="B41" s="7" t="s">
@@ -5447,66 +5432,64 @@
       <c r="D41" s="9">
         <v>0</v>
       </c>
-      <c r="E41" s="27">
-        <f t="shared" si="0"/>
+      <c r="E41" s="26">
+        <f>C41+D41</f>
         <v>0</v>
       </c>
       <c r="F41" s="7">
         <v>0</v>
       </c>
       <c r="G41" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="H41" s="26">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="26">
+        <v>0</v>
+      </c>
+      <c r="H41" s="25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="25">
+        <v>1</v>
+      </c>
+      <c r="J41" s="25">
+        <f>(C41)/I41</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="25">
+        <f>(E41)/I41</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="17">
+        <v>26.57</v>
+      </c>
+      <c r="N41" s="17">
+        <v>10</v>
+      </c>
+      <c r="O41" s="33">
+        <f>M41+N41</f>
+        <v>36.57</v>
+      </c>
+      <c r="Q41" s="34">
+        <f>M41*C41</f>
+        <v>0</v>
+      </c>
+      <c r="R41" s="34">
+        <f>M41*D41</f>
+        <v>0</v>
+      </c>
+      <c r="T41" s="7">
+        <v>16</v>
+      </c>
+      <c r="U41" s="37">
+        <f t="shared" si="12"/>
+        <v>32</v>
+      </c>
+      <c r="V41" s="36"/>
+      <c r="W41" s="36"/>
+      <c r="X41" s="37">
         <f t="shared" si="13"/>
-        <v>0.1375</v>
-      </c>
-      <c r="J41" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="N41" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="O41" s="34">
-        <f t="shared" si="4"/>
-        <v>32.8</v>
-      </c>
-      <c r="Q41" s="35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R41" s="35">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T41" s="7">
-        <v>20</v>
-      </c>
-      <c r="U41" s="38">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="V41" s="37"/>
-      <c r="W41" s="37"/>
-      <c r="X41" s="38">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y41" s="37"/>
-      <c r="Z41" s="37"/>
+        <v>0</v>
+      </c>
+      <c r="Y41" s="36"/>
+      <c r="Z41" s="36"/>
       <c r="AD41" s="7" t="s">
         <v>192</v>
       </c>
@@ -5514,20 +5497,20 @@
         <v>193</v>
       </c>
       <c r="AF41" s="7">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="AG41" s="7">
+        <v>40</v>
+      </c>
+      <c r="AH41" s="7">
         <v>45</v>
-      </c>
-      <c r="AH41" s="7">
-        <v>35</v>
       </c>
     </row>
     <row r="42" ht="25" customHeight="1" spans="1:34">
       <c r="A42" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="7" t="s">
         <v>195</v>
       </c>
       <c r="C42" s="9">
@@ -5536,8 +5519,8 @@
       <c r="D42" s="9">
         <v>0</v>
       </c>
-      <c r="E42" s="27">
-        <f t="shared" si="0"/>
+      <c r="E42" s="26">
+        <f>C42+D42</f>
         <v>0</v>
       </c>
       <c r="F42" s="7">
@@ -5546,19 +5529,19 @@
       <c r="G42" s="7">
         <v>0</v>
       </c>
-      <c r="H42" s="26">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="26">
+      <c r="H42" s="25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="25">
         <v>1</v>
       </c>
-      <c r="J42" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="26">
-        <f t="shared" si="3"/>
+      <c r="J42" s="25">
+        <f>(C42)/I42</f>
+        <v>0</v>
+      </c>
+      <c r="K42" s="25">
+        <f>(E42)/I42</f>
         <v>0</v>
       </c>
       <c r="M42" s="17">
@@ -5567,37 +5550,37 @@
       <c r="N42" s="17">
         <v>10</v>
       </c>
-      <c r="O42" s="34">
-        <f t="shared" si="4"/>
+      <c r="O42" s="33">
+        <f>M42+N42</f>
         <v>36.57</v>
       </c>
-      <c r="Q42" s="35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R42" s="35">
-        <f t="shared" si="6"/>
+      <c r="Q42" s="34">
+        <f>M42*C42</f>
+        <v>0</v>
+      </c>
+      <c r="R42" s="34">
+        <f>M42*D42</f>
         <v>0</v>
       </c>
       <c r="T42" s="7">
         <v>16</v>
       </c>
-      <c r="U42" s="38">
+      <c r="U42" s="37">
         <f t="shared" si="12"/>
         <v>32</v>
       </c>
-      <c r="V42" s="37"/>
-      <c r="W42" s="37"/>
-      <c r="X42" s="38">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y42" s="37"/>
-      <c r="Z42" s="37"/>
-      <c r="AD42" s="24" t="s">
+      <c r="V42" s="36"/>
+      <c r="W42" s="36"/>
+      <c r="X42" s="37">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y42" s="36"/>
+      <c r="Z42" s="36"/>
+      <c r="AD42" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="AE42" s="24" t="s">
+      <c r="AE42" s="7" t="s">
         <v>197</v>
       </c>
       <c r="AF42" s="7">
@@ -5614,7 +5597,7 @@
       <c r="A43" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="7" t="s">
         <v>199</v>
       </c>
       <c r="C43" s="9">
@@ -5623,8 +5606,8 @@
       <c r="D43" s="9">
         <v>0</v>
       </c>
-      <c r="E43" s="27">
-        <f t="shared" si="0"/>
+      <c r="E43" s="26">
+        <f>C43+D43</f>
         <v>0</v>
       </c>
       <c r="F43" s="7">
@@ -5633,58 +5616,58 @@
       <c r="G43" s="7">
         <v>0</v>
       </c>
-      <c r="H43" s="26">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="26">
+      <c r="H43" s="25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="25">
         <v>1</v>
       </c>
-      <c r="J43" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M43" s="17">
-        <v>26.57</v>
-      </c>
-      <c r="N43" s="17">
-        <v>10</v>
-      </c>
-      <c r="O43" s="34">
-        <f t="shared" si="4"/>
-        <v>36.57</v>
-      </c>
-      <c r="Q43" s="35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R43" s="35">
-        <f t="shared" si="6"/>
+      <c r="J43" s="25">
+        <f>(C43)/I43</f>
+        <v>0</v>
+      </c>
+      <c r="K43" s="25">
+        <f>(E43)/I43</f>
+        <v>0</v>
+      </c>
+      <c r="M43" s="7">
+        <v>13.3</v>
+      </c>
+      <c r="N43" s="7">
+        <v>5</v>
+      </c>
+      <c r="O43" s="33">
+        <f>M43+N43</f>
+        <v>18.3</v>
+      </c>
+      <c r="Q43" s="34">
+        <f>M43*C43</f>
+        <v>0</v>
+      </c>
+      <c r="R43" s="34">
+        <f>M43*D43</f>
         <v>0</v>
       </c>
       <c r="T43" s="7">
-        <v>16</v>
-      </c>
-      <c r="U43" s="38">
+        <v>32</v>
+      </c>
+      <c r="U43" s="37">
         <f t="shared" si="12"/>
         <v>32</v>
       </c>
-      <c r="V43" s="37"/>
-      <c r="W43" s="37"/>
-      <c r="X43" s="38">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y43" s="37"/>
-      <c r="Z43" s="37"/>
-      <c r="AD43" s="24" t="s">
+      <c r="V43" s="36"/>
+      <c r="W43" s="36"/>
+      <c r="X43" s="37">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y43" s="36"/>
+      <c r="Z43" s="36"/>
+      <c r="AD43" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="AE43" s="24" t="s">
+      <c r="AE43" s="7" t="s">
         <v>201</v>
       </c>
       <c r="AF43" s="7">
@@ -5698,10 +5681,10 @@
       </c>
     </row>
     <row r="44" ht="25" customHeight="1" spans="1:34">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="7" t="s">
         <v>203</v>
       </c>
       <c r="C44" s="9">
@@ -5710,8 +5693,8 @@
       <c r="D44" s="9">
         <v>0</v>
       </c>
-      <c r="E44" s="27">
-        <f t="shared" si="0"/>
+      <c r="E44" s="26">
+        <f>C44+D44</f>
         <v>0</v>
       </c>
       <c r="F44" s="7">
@@ -5720,157 +5703,71 @@
       <c r="G44" s="7">
         <v>0</v>
       </c>
-      <c r="H44" s="26">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="26">
+      <c r="H44" s="25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="25">
         <v>1</v>
       </c>
-      <c r="J44" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M44" s="24">
-        <v>13.3</v>
-      </c>
-      <c r="N44" s="24">
-        <v>5</v>
-      </c>
-      <c r="O44" s="34">
+      <c r="J44" s="25">
+        <f>(C44)/I44</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="25">
+        <f>(E44)/I44</f>
+        <v>0</v>
+      </c>
+      <c r="M44" s="7">
+        <v>10</v>
+      </c>
+      <c r="N44" s="7">
+        <v>3</v>
+      </c>
+      <c r="O44" s="33">
         <f>M44+N44</f>
-        <v>18.3</v>
-      </c>
-      <c r="Q44" s="35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R44" s="35">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T44" s="24">
-        <v>32</v>
-      </c>
-      <c r="U44" s="38">
-        <f>CEILING(MAX(0,90-MAX(K44,60))*I44/T44,1)*T44</f>
-        <v>32</v>
-      </c>
-      <c r="V44" s="37"/>
-      <c r="W44" s="37"/>
-      <c r="X44" s="38">
-        <f>MIN(CEILING(MAX(0,70-MAX(J44,30))*I44/T44,1)*T44,D44)</f>
-        <v>0</v>
-      </c>
-      <c r="Y44" s="37"/>
-      <c r="Z44" s="37"/>
-      <c r="AD44" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q44" s="34">
+        <f>M44*C44</f>
+        <v>0</v>
+      </c>
+      <c r="R44" s="34">
+        <f>M44*D44</f>
+        <v>0</v>
+      </c>
+      <c r="T44" s="7">
+        <v>40</v>
+      </c>
+      <c r="U44" s="37">
+        <f t="shared" si="12"/>
+        <v>40</v>
+      </c>
+      <c r="V44" s="36"/>
+      <c r="W44" s="36"/>
+      <c r="X44" s="37">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y44" s="36"/>
+      <c r="Z44" s="36"/>
+      <c r="AD44" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="AE44" s="24" t="s">
+      <c r="AE44" s="7" t="s">
         <v>205</v>
       </c>
       <c r="AF44" s="7">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AG44" s="7">
+        <v>37</v>
+      </c>
+      <c r="AH44" s="7">
         <v>40</v>
       </c>
-      <c r="AH44" s="7">
-        <v>45</v>
-      </c>
     </row>
-    <row r="45" ht="25" customHeight="1" spans="1:34">
-      <c r="A45" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="B45" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="C45" s="9">
-        <v>0</v>
-      </c>
-      <c r="D45" s="9">
-        <v>0</v>
-      </c>
-      <c r="E45" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="7">
-        <v>0</v>
-      </c>
-      <c r="G45" s="7">
-        <v>0</v>
-      </c>
-      <c r="H45" s="26">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="26">
-        <v>1</v>
-      </c>
-      <c r="J45" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M45" s="24">
-        <v>10</v>
-      </c>
-      <c r="N45" s="24">
-        <v>3</v>
-      </c>
-      <c r="O45" s="34">
-        <f>M45+N45</f>
-        <v>13</v>
-      </c>
-      <c r="Q45" s="35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R45" s="35">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T45" s="24">
-        <v>40</v>
-      </c>
-      <c r="U45" s="38">
-        <f>CEILING(MAX(0,90-MAX(K45,60))*I45/T45,1)*T45</f>
-        <v>40</v>
-      </c>
-      <c r="V45" s="37"/>
-      <c r="W45" s="37"/>
-      <c r="X45" s="38">
-        <f>MIN(CEILING(MAX(0,70-MAX(J45,30))*I45/T45,1)*T45,D45)</f>
-        <v>0</v>
-      </c>
-      <c r="Y45" s="37"/>
-      <c r="Z45" s="37"/>
-      <c r="AD45" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="AE45" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="AF45" s="7">
-        <v>25</v>
-      </c>
-      <c r="AG45" s="7">
-        <v>37</v>
-      </c>
-      <c r="AH45" s="7">
-        <v>40</v>
-      </c>
-    </row>
+    <row r="45" ht="25" customHeight="1"/>
     <row r="46" ht="25" customHeight="1"/>
     <row r="47" ht="25" customHeight="1"/>
     <row r="48" ht="25" customHeight="1"/>
@@ -5897,12 +5794,11 @@
     <row r="69" ht="25" customHeight="1"/>
     <row r="70" ht="25" customHeight="1"/>
     <row r="71" ht="25" customHeight="1"/>
-    <row r="72" ht="25" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:AH45">
+  <autoFilter ref="A1:AH44">
     <extLst/>
   </autoFilter>
-  <conditionalFormatting sqref="J2:J30">
+  <conditionalFormatting sqref="J2:J29">
     <cfRule type="cellIs" dxfId="0" priority="13" operator="greaterThanOrEqual">
       <formula>105</formula>
     </cfRule>
@@ -5913,7 +5809,7 @@
       <formula>70</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J31:J45">
+  <conditionalFormatting sqref="J30:J44">
     <cfRule type="cellIs" dxfId="0" priority="7" operator="greaterThanOrEqual">
       <formula>105</formula>
     </cfRule>
@@ -5924,26 +5820,26 @@
       <formula>70</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K30">
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="lessThanOrEqual">
-      <formula>70</formula>
+  <conditionalFormatting sqref="K2:K29">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThanOrEqual">
+      <formula>105</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="5" operator="lessThanOrEqual">
       <formula>60</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThanOrEqual">
-      <formula>105</formula>
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="lessThanOrEqual">
+      <formula>70</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K31:K45">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThanOrEqual">
-      <formula>70</formula>
+  <conditionalFormatting sqref="K30:K44">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+      <formula>105</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThanOrEqual">
       <formula>60</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
-      <formula>105</formula>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThanOrEqual">
+      <formula>70</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dist/产品库存及周转统计.xlsx
+++ b/dist/产品库存及周转统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="15860"/>
+    <workbookView windowWidth="28000" windowHeight="15800"/>
   </bookViews>
   <sheets>
     <sheet name="产品库存" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="234">
   <si>
     <t>名称</t>
   </si>
@@ -649,6 +649,90 @@
   </si>
   <si>
     <t>X004N2F68N</t>
+  </si>
+  <si>
+    <t>【小】灰色(4p)</t>
+  </si>
+  <si>
+    <t>B0FHHZ48XH</t>
+  </si>
+  <si>
+    <t>WallHangingBagSmallGray_4P</t>
+  </si>
+  <si>
+    <t>X004RFE187</t>
+  </si>
+  <si>
+    <t>【小】粉色(2p)</t>
+  </si>
+  <si>
+    <t>B0FGYGWY76</t>
+  </si>
+  <si>
+    <t>WallHangingBagSmallPink_2p</t>
+  </si>
+  <si>
+    <t>X004R39E5T</t>
+  </si>
+  <si>
+    <t>【小】黑色(2p)</t>
+  </si>
+  <si>
+    <t>B0FGYHX5PS</t>
+  </si>
+  <si>
+    <t>WallHangingBagSmallBlack_2p</t>
+  </si>
+  <si>
+    <t>X004R34BAR</t>
+  </si>
+  <si>
+    <t>【小】深卡其(2p)</t>
+  </si>
+  <si>
+    <t>B0FGYGCCTX</t>
+  </si>
+  <si>
+    <t>WallHangingBagSmallkhaki_2p</t>
+  </si>
+  <si>
+    <t>X004R3QFS3</t>
+  </si>
+  <si>
+    <t>【大】黑色格子(2p)</t>
+  </si>
+  <si>
+    <t>B09MJG26BX</t>
+  </si>
+  <si>
+    <t>F6-FGWG-65C8</t>
+  </si>
+  <si>
+    <t>X0037SDP3H</t>
+  </si>
+  <si>
+    <t>【大】白色三角(2p)</t>
+  </si>
+  <si>
+    <t>B0B536VNTZ</t>
+  </si>
+  <si>
+    <t>hanging_storage_bag_tent_2p</t>
+  </si>
+  <si>
+    <t>X003ANHLEN</t>
+  </si>
+  <si>
+    <t>【大】床边纯灰色(1p)</t>
+  </si>
+  <si>
+    <t>B0FHHYFYZP</t>
+  </si>
+  <si>
+    <t>BedSide-Storage-Bag-Gray-1</t>
+  </si>
+  <si>
+    <t>X004RF6SC9</t>
   </si>
 </sst>
 </file>
@@ -1376,7 +1460,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1448,6 +1532,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1547,7 +1634,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFEFFF82"/>
+          <bgColor rgb="FFFFEBEB"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1561,7 +1648,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFEBEB"/>
+          <bgColor rgb="FFEFFF82"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1850,11 +1937,11 @@
   <dimension ref="A1:AH71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S33" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomRight" activeCell="AA51" sqref="AA51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1900,16 +1987,16 @@
       <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="33" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="8" t="s">
@@ -1925,34 +2012,34 @@
       <c r="N1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="O1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="Q1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="R1" s="35" t="s">
         <v>15</v>
       </c>
       <c r="T1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="35" t="s">
+      <c r="U1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="35" t="s">
+      <c r="V1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="35" t="s">
+      <c r="W1" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="35" t="s">
+      <c r="X1" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="35" t="s">
+      <c r="Y1" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="35" t="s">
+      <c r="Z1" s="36" t="s">
         <v>22</v>
       </c>
       <c r="AD1" s="7" t="s">
@@ -1984,29 +2071,29 @@
       <c r="D2" s="9">
         <v>0</v>
       </c>
-      <c r="E2" s="26">
-        <f t="shared" ref="E2:E45" si="0">C2+D2</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="27">
+      <c r="E2" s="27">
+        <f t="shared" ref="E2:E51" si="0">C2+D2</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="28">
         <v>16.4</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="29">
         <v>13.8</v>
       </c>
-      <c r="H2" s="25">
+      <c r="H2" s="26">
         <v>20.5</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="26">
         <f t="shared" ref="I2:I19" si="1">MAX(F2,G2)*1.375</f>
         <v>22.55</v>
       </c>
-      <c r="J2" s="25">
-        <f t="shared" ref="J2:J45" si="2">(C2)/I2</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="25">
-        <f t="shared" ref="K2:K45" si="3">(E2)/I2</f>
+      <c r="J2" s="26">
+        <f t="shared" ref="J2:J51" si="2">(C2)/I2</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="26">
+        <f t="shared" ref="K2:K51" si="3">(E2)/I2</f>
         <v>0</v>
       </c>
       <c r="L2" s="17"/>
@@ -2016,30 +2103,30 @@
       <c r="N2" s="17">
         <v>6</v>
       </c>
-      <c r="O2" s="33">
+      <c r="O2" s="34">
         <f t="shared" ref="O2:O45" si="4">M2+N2</f>
         <v>25.43</v>
       </c>
-      <c r="Q2" s="34">
+      <c r="Q2" s="35">
         <f t="shared" ref="Q2:Q45" si="5">M2*C2</f>
         <v>0</v>
       </c>
-      <c r="R2" s="34">
+      <c r="R2" s="35">
         <f t="shared" ref="R2:R45" si="6">M2*D2</f>
         <v>0</v>
       </c>
       <c r="T2" s="7">
         <v>36</v>
       </c>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="37">
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="38">
         <f>CEILING(MAX(0,135-MAX(K2,60))*I2/T2,1)*T2</f>
         <v>1692</v>
       </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="37">
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="38">
         <f>MIN(CEILING(MAX(0,115-MAX(J2,30))*I2/T2,1)*T2,D2)</f>
         <v>0</v>
       </c>
@@ -2072,28 +2159,28 @@
       <c r="D3" s="9">
         <v>0</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="28">
         <v>5.7</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="29">
         <v>5.3</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="26">
         <v>8</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="26">
         <f t="shared" si="1"/>
         <v>7.8375</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K3" s="25">
+      <c r="K3" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2104,30 +2191,30 @@
       <c r="N3" s="17">
         <v>10</v>
       </c>
-      <c r="O3" s="33">
+      <c r="O3" s="34">
         <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q3" s="34">
+      <c r="Q3" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R3" s="34">
+      <c r="R3" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T3" s="7">
         <v>32</v>
       </c>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="37">
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="38">
         <f>CEILING(MAX(0,135-MAX(K3,60))*I3/T3,1)*T3</f>
         <v>608</v>
       </c>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="37">
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="38">
         <f>MIN(CEILING(MAX(0,115-MAX(J3,30))*I3/T3,1)*T3,D3)</f>
         <v>0</v>
       </c>
@@ -2160,28 +2247,28 @@
       <c r="D4" s="9">
         <v>0</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="28">
         <v>5.4</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="29">
         <v>6.1</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="26">
         <v>8</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="26">
         <f t="shared" si="1"/>
         <v>8.3875</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2192,30 +2279,30 @@
       <c r="N4" s="17">
         <v>6.98</v>
       </c>
-      <c r="O4" s="33">
+      <c r="O4" s="34">
         <f t="shared" si="4"/>
         <v>29.72</v>
       </c>
-      <c r="Q4" s="34">
+      <c r="Q4" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R4" s="34">
+      <c r="R4" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T4" s="7">
         <v>42</v>
       </c>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="37">
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="38">
         <f>CEILING(MAX(0,135-MAX(K4,60))*I4/T4,1)*T4</f>
         <v>630</v>
       </c>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="37">
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="38">
         <f>MIN(CEILING(MAX(0,115-MAX(J4,30))*I4/T4,1)*T4,D4)</f>
         <v>0</v>
       </c>
@@ -2248,28 +2335,28 @@
       <c r="D5" s="9">
         <v>0</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="28">
         <v>10</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="29">
         <v>11.5</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="26">
         <v>17</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="26">
         <f t="shared" si="1"/>
         <v>15.8125</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2280,30 +2367,30 @@
       <c r="N5" s="17">
         <v>10</v>
       </c>
-      <c r="O5" s="33">
+      <c r="O5" s="34">
         <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q5" s="34">
+      <c r="Q5" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R5" s="34">
+      <c r="R5" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T5" s="7">
         <v>32</v>
       </c>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="37">
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="38">
         <f>CEILING(MAX(0,135-MAX(K5,60))*I5/T5,1)*T5</f>
         <v>1216</v>
       </c>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="37">
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="38">
         <f>MIN(CEILING(MAX(0,115-MAX(J5,30))*I5/T5,1)*T5,D5)</f>
         <v>0</v>
       </c>
@@ -2336,28 +2423,28 @@
       <c r="D6" s="9">
         <v>0</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="28">
         <v>9.2</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="29">
         <v>9.4</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="26">
         <v>13.5</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="26">
         <f t="shared" si="1"/>
         <v>12.925</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2368,30 +2455,30 @@
       <c r="N6" s="17">
         <v>10</v>
       </c>
-      <c r="O6" s="33">
+      <c r="O6" s="34">
         <f t="shared" si="4"/>
         <v>36.57</v>
       </c>
-      <c r="Q6" s="34">
+      <c r="Q6" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R6" s="34">
+      <c r="R6" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T6" s="7">
         <v>32</v>
       </c>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="37">
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="38">
         <f>CEILING(MAX(0,135-MAX(K6,60))*I6/T6,1)*T6</f>
         <v>992</v>
       </c>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="37">
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="38">
         <f>MIN(CEILING(MAX(0,115-MAX(J6,30))*I6/T6,1)*T6,D6)</f>
         <v>0</v>
       </c>
@@ -2424,28 +2511,28 @@
       <c r="D7" s="9">
         <v>0</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="28">
         <v>1</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="29">
         <v>1.3</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="26">
         <v>2.5</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="26">
         <f t="shared" si="1"/>
         <v>1.7875</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2456,33 +2543,33 @@
       <c r="N7" s="17">
         <v>13.38</v>
       </c>
-      <c r="O7" s="33">
+      <c r="O7" s="34">
         <f t="shared" si="4"/>
         <v>49.49</v>
       </c>
-      <c r="Q7" s="34">
+      <c r="Q7" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R7" s="34">
+      <c r="R7" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T7" s="7">
         <v>12</v>
       </c>
-      <c r="U7" s="36"/>
-      <c r="V7" s="37">
+      <c r="U7" s="37"/>
+      <c r="V7" s="38">
         <f>CEILING(MAX(0,120-MAX(K7,60))*I7/T7,1)*T7</f>
         <v>108</v>
       </c>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="37">
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="38">
         <f>MIN(CEILING(MAX(0,100-MAX(J7,30))*I7/T7,1)*T7,D7)</f>
         <v>0</v>
       </c>
-      <c r="Z7" s="36"/>
+      <c r="Z7" s="37"/>
       <c r="AD7" s="7" t="s">
         <v>50</v>
       </c>
@@ -2512,29 +2599,29 @@
       <c r="D8" s="9">
         <v>0</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="28">
         <v>1.7</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="29">
         <v>1.6</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="26">
         <f t="shared" ref="H8:H14" si="7">MAX(E8,F8)*1.375</f>
         <v>2.3375</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="26">
         <f t="shared" si="1"/>
         <v>2.3375</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K8" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2545,33 +2632,33 @@
       <c r="N8" s="17">
         <v>10.47</v>
       </c>
-      <c r="O8" s="33">
+      <c r="O8" s="34">
         <f t="shared" si="4"/>
         <v>44.18</v>
       </c>
-      <c r="Q8" s="34">
+      <c r="Q8" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R8" s="34">
+      <c r="R8" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T8" s="7">
         <v>15</v>
       </c>
-      <c r="U8" s="36"/>
-      <c r="V8" s="37">
+      <c r="U8" s="37"/>
+      <c r="V8" s="38">
         <f t="shared" ref="V8:V15" si="8">CEILING(MAX(0,120-MAX(K8,60))*I8/T8,1)*T8</f>
         <v>150</v>
       </c>
-      <c r="W8" s="36"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="37">
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="38">
         <f t="shared" ref="Y8:Y15" si="9">MIN(CEILING(MAX(0,100-MAX(J8,30))*I8/T8,1)*T8,D8)</f>
         <v>0</v>
       </c>
-      <c r="Z8" s="36"/>
+      <c r="Z8" s="37"/>
       <c r="AD8" s="7" t="s">
         <v>54</v>
       </c>
@@ -2601,28 +2688,28 @@
       <c r="D9" s="9">
         <v>0</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="28">
         <v>1.7</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="29">
         <v>1.3</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="26">
         <v>5</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="26">
         <f t="shared" si="1"/>
         <v>2.3375</v>
       </c>
-      <c r="J9" s="25">
+      <c r="J9" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="25">
+      <c r="K9" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2633,33 +2720,33 @@
       <c r="N9" s="17">
         <v>9</v>
       </c>
-      <c r="O9" s="33">
+      <c r="O9" s="34">
         <f t="shared" si="4"/>
         <v>37.52</v>
       </c>
-      <c r="Q9" s="34">
+      <c r="Q9" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R9" s="34">
+      <c r="R9" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T9" s="7">
         <v>28</v>
       </c>
-      <c r="U9" s="36"/>
-      <c r="V9" s="37">
+      <c r="U9" s="37"/>
+      <c r="V9" s="38">
         <f t="shared" si="8"/>
         <v>168</v>
       </c>
-      <c r="W9" s="36"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="37">
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="38">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z9" s="36"/>
+      <c r="Z9" s="37"/>
       <c r="AD9" s="7" t="s">
         <v>58</v>
       </c>
@@ -2689,28 +2776,28 @@
       <c r="D10" s="9">
         <v>0</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="28">
         <v>0.2</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="29">
         <v>0.8</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="26">
         <v>5</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="26">
         <f t="shared" si="1"/>
         <v>1.1</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="25">
+      <c r="K10" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2721,33 +2808,33 @@
       <c r="N10" s="17">
         <v>10</v>
       </c>
-      <c r="O10" s="33">
+      <c r="O10" s="34">
         <f t="shared" si="4"/>
         <v>36.57</v>
       </c>
-      <c r="Q10" s="34">
+      <c r="Q10" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R10" s="34">
+      <c r="R10" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T10" s="7">
         <v>32</v>
       </c>
-      <c r="U10" s="36"/>
-      <c r="V10" s="37">
+      <c r="U10" s="37"/>
+      <c r="V10" s="38">
         <f t="shared" si="8"/>
         <v>96</v>
       </c>
-      <c r="W10" s="36"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="37">
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="38">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z10" s="36"/>
+      <c r="Z10" s="37"/>
       <c r="AD10" s="7" t="s">
         <v>62</v>
       </c>
@@ -2777,28 +2864,28 @@
       <c r="D11" s="9">
         <v>0</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="28">
         <v>3.7</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="29">
         <v>4.2</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="26">
         <v>5.5</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="26">
         <f t="shared" si="1"/>
         <v>5.775</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="25">
+      <c r="K11" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2809,33 +2896,33 @@
       <c r="N11" s="17">
         <v>13.38</v>
       </c>
-      <c r="O11" s="33">
+      <c r="O11" s="34">
         <f t="shared" si="4"/>
         <v>49.49</v>
       </c>
-      <c r="Q11" s="34">
+      <c r="Q11" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R11" s="34">
+      <c r="R11" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T11" s="7">
         <v>24</v>
       </c>
-      <c r="U11" s="36"/>
-      <c r="V11" s="37">
+      <c r="U11" s="37"/>
+      <c r="V11" s="38">
         <f t="shared" si="8"/>
         <v>360</v>
       </c>
-      <c r="W11" s="36"/>
-      <c r="X11" s="36"/>
-      <c r="Y11" s="37">
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="38">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z11" s="36"/>
+      <c r="Z11" s="37"/>
       <c r="AD11" s="7" t="s">
         <v>66</v>
       </c>
@@ -2865,29 +2952,29 @@
       <c r="D12" s="9">
         <v>0</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="28">
         <v>0.1</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="29">
         <v>0.2</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="26">
         <f t="shared" si="7"/>
         <v>0.1375</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12" s="26">
         <f t="shared" si="1"/>
         <v>0.275</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K12" s="25">
+      <c r="K12" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2898,33 +2985,33 @@
       <c r="N12" s="17">
         <v>13.38</v>
       </c>
-      <c r="O12" s="33">
+      <c r="O12" s="34">
         <f t="shared" si="4"/>
         <v>53.18</v>
       </c>
-      <c r="Q12" s="34">
+      <c r="Q12" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R12" s="34">
+      <c r="R12" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T12" s="7">
         <v>12</v>
       </c>
-      <c r="U12" s="36"/>
-      <c r="V12" s="37">
+      <c r="U12" s="37"/>
+      <c r="V12" s="38">
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="W12" s="36"/>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="37">
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="38">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="36"/>
+      <c r="Z12" s="37"/>
       <c r="AD12" s="7" t="s">
         <v>70</v>
       </c>
@@ -2954,29 +3041,29 @@
       <c r="D13" s="9">
         <v>0</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="28">
         <v>0.8</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="29">
         <v>1.1</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="26">
         <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
-      <c r="I13" s="25">
+      <c r="I13" s="26">
         <f t="shared" si="1"/>
         <v>1.5125</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J13" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K13" s="25">
+      <c r="K13" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2987,33 +3074,33 @@
       <c r="N13" s="17">
         <v>10.47</v>
       </c>
-      <c r="O13" s="33">
+      <c r="O13" s="34">
         <f t="shared" si="4"/>
         <v>44.18</v>
       </c>
-      <c r="Q13" s="34">
+      <c r="Q13" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R13" s="34">
+      <c r="R13" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T13" s="7">
         <v>15</v>
       </c>
-      <c r="U13" s="36"/>
-      <c r="V13" s="37">
+      <c r="U13" s="37"/>
+      <c r="V13" s="38">
         <f t="shared" si="8"/>
         <v>105</v>
       </c>
-      <c r="W13" s="36"/>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="37">
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="38">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="36"/>
+      <c r="Z13" s="37"/>
       <c r="AD13" s="7" t="s">
         <v>74</v>
       </c>
@@ -3043,29 +3130,29 @@
       <c r="D14" s="9">
         <v>0</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="28">
         <v>2.5</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="29">
         <v>2</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="26">
         <f t="shared" si="7"/>
         <v>3.4375</v>
       </c>
-      <c r="I14" s="25">
+      <c r="I14" s="26">
         <f t="shared" si="1"/>
         <v>3.4375</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J14" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K14" s="25">
+      <c r="K14" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3076,33 +3163,33 @@
       <c r="N14" s="17">
         <v>13.38</v>
       </c>
-      <c r="O14" s="33">
+      <c r="O14" s="34">
         <f t="shared" si="4"/>
         <v>53.18</v>
       </c>
-      <c r="Q14" s="34">
+      <c r="Q14" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R14" s="34">
+      <c r="R14" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T14" s="7">
         <v>12</v>
       </c>
-      <c r="U14" s="36"/>
-      <c r="V14" s="37">
+      <c r="U14" s="37"/>
+      <c r="V14" s="38">
         <f t="shared" si="8"/>
         <v>216</v>
       </c>
-      <c r="W14" s="36"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="37">
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="38">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="36"/>
+      <c r="Z14" s="37"/>
       <c r="AD14" s="7" t="s">
         <v>78</v>
       </c>
@@ -3132,7 +3219,7 @@
       <c r="D15" s="9">
         <v>0</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3142,18 +3229,18 @@
       <c r="G15" s="7">
         <v>0.1</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="26">
         <v>3</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I15" s="26">
         <f t="shared" si="1"/>
         <v>0.55</v>
       </c>
-      <c r="J15" s="25">
+      <c r="J15" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K15" s="25">
+      <c r="K15" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3164,33 +3251,33 @@
       <c r="N15" s="17">
         <v>10</v>
       </c>
-      <c r="O15" s="33">
+      <c r="O15" s="34">
         <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q15" s="34">
+      <c r="Q15" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R15" s="34">
+      <c r="R15" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T15" s="7">
         <v>16</v>
       </c>
-      <c r="U15" s="36"/>
-      <c r="V15" s="37">
+      <c r="U15" s="37"/>
+      <c r="V15" s="38">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
-      <c r="W15" s="36"/>
-      <c r="X15" s="36"/>
-      <c r="Y15" s="37">
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="38">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z15" s="36"/>
+      <c r="Z15" s="37"/>
       <c r="AD15" s="7" t="s">
         <v>82</v>
       </c>
@@ -3220,28 +3307,28 @@
       <c r="D16" s="9">
         <v>0</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="28">
         <v>1.4</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="29">
         <v>1.4</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16" s="26">
         <v>1.9</v>
       </c>
-      <c r="I16" s="25">
+      <c r="I16" s="26">
         <f t="shared" si="1"/>
         <v>1.925</v>
       </c>
-      <c r="J16" s="25">
+      <c r="J16" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K16" s="25">
+      <c r="K16" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3252,33 +3339,33 @@
       <c r="N16" s="17">
         <v>10</v>
       </c>
-      <c r="O16" s="33">
+      <c r="O16" s="34">
         <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q16" s="34">
+      <c r="Q16" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R16" s="34">
+      <c r="R16" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T16" s="7">
         <v>16</v>
       </c>
-      <c r="U16" s="37">
-        <f>CEILING(MAX(0,90-MAX(K16,60))*I16/T16,1)*T16</f>
+      <c r="U16" s="38">
+        <f t="shared" ref="U16:U29" si="10">CEILING(MAX(0,90-MAX(K16,60))*I16/T16,1)*T16</f>
         <v>64</v>
       </c>
-      <c r="V16" s="36"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="37">
-        <f>MIN(CEILING(MAX(0,70-MAX(J16,30))*I16/T16,1)*T16,D16)</f>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="36"/>
-      <c r="Z16" s="36"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="38">
+        <f t="shared" ref="X16:X29" si="11">MIN(CEILING(MAX(0,70-MAX(J16,30))*I16/T16,1)*T16,D16)</f>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="37"/>
       <c r="AD16" s="7" t="s">
         <v>86</v>
       </c>
@@ -3308,28 +3395,28 @@
       <c r="D17" s="9">
         <v>0</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="28">
         <v>1</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="29">
         <v>0.4</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H17" s="26">
         <v>6</v>
       </c>
-      <c r="I17" s="25">
+      <c r="I17" s="26">
         <f t="shared" si="1"/>
         <v>1.375</v>
       </c>
-      <c r="J17" s="25">
+      <c r="J17" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K17" s="25">
+      <c r="K17" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3340,33 +3427,33 @@
       <c r="N17" s="17">
         <v>6</v>
       </c>
-      <c r="O17" s="33">
+      <c r="O17" s="34">
         <f t="shared" si="4"/>
         <v>25.43</v>
       </c>
-      <c r="Q17" s="34">
+      <c r="Q17" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R17" s="34">
+      <c r="R17" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T17" s="7">
         <v>20</v>
       </c>
-      <c r="U17" s="37">
-        <f>CEILING(MAX(0,90-MAX(K17,60))*I17/T17,1)*T17</f>
+      <c r="U17" s="38">
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
-      <c r="V17" s="36"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="37">
-        <f>MIN(CEILING(MAX(0,70-MAX(J17,30))*I17/T17,1)*T17,D17)</f>
-        <v>0</v>
-      </c>
-      <c r="Y17" s="36"/>
-      <c r="Z17" s="36"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="38">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="37"/>
       <c r="AD17" s="7" t="s">
         <v>90</v>
       </c>
@@ -3396,29 +3483,29 @@
       <c r="D18" s="9">
         <v>0</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="28">
         <v>1</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="29">
         <v>0.3</v>
       </c>
-      <c r="H18" s="25">
-        <f t="shared" ref="H18:H21" si="10">MAX(E18,F18)*1.375</f>
+      <c r="H18" s="26">
+        <f t="shared" ref="H18:H21" si="12">MAX(E18,F18)*1.375</f>
         <v>1.375</v>
       </c>
-      <c r="I18" s="25">
+      <c r="I18" s="26">
         <f t="shared" si="1"/>
         <v>1.375</v>
       </c>
-      <c r="J18" s="25">
+      <c r="J18" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K18" s="25">
+      <c r="K18" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3429,33 +3516,33 @@
       <c r="N18" s="17">
         <v>13.38</v>
       </c>
-      <c r="O18" s="33">
+      <c r="O18" s="34">
         <f t="shared" si="4"/>
         <v>49.49</v>
       </c>
-      <c r="Q18" s="34">
+      <c r="Q18" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R18" s="34">
+      <c r="R18" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T18" s="7">
         <v>12</v>
       </c>
-      <c r="U18" s="37">
-        <f>CEILING(MAX(0,90-MAX(K18,60))*I18/T18,1)*T18</f>
+      <c r="U18" s="38">
+        <f t="shared" si="10"/>
         <v>48</v>
       </c>
-      <c r="V18" s="36"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="37">
-        <f>MIN(CEILING(MAX(0,70-MAX(J18,30))*I18/T18,1)*T18,D18)</f>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="36"/>
-      <c r="Z18" s="36"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="38">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="37"/>
       <c r="AD18" s="7" t="s">
         <v>94</v>
       </c>
@@ -3485,28 +3572,28 @@
       <c r="D19" s="9">
         <v>0</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="27">
+      <c r="F19" s="28">
         <v>0.5</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="29">
         <v>0.9</v>
       </c>
-      <c r="H19" s="25">
+      <c r="H19" s="26">
         <v>1.4</v>
       </c>
-      <c r="I19" s="25">
-        <f t="shared" ref="I19:I41" si="11">MAX(F19,G19)*1.375</f>
+      <c r="I19" s="26">
+        <f t="shared" ref="I19:I41" si="13">MAX(F19,G19)*1.375</f>
         <v>1.2375</v>
       </c>
-      <c r="J19" s="25">
+      <c r="J19" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K19" s="25">
+      <c r="K19" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3517,33 +3604,33 @@
       <c r="N19" s="17">
         <v>10</v>
       </c>
-      <c r="O19" s="33">
+      <c r="O19" s="34">
         <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q19" s="34">
+      <c r="Q19" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R19" s="34">
+      <c r="R19" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T19" s="7">
         <v>16</v>
       </c>
-      <c r="U19" s="37">
-        <f>CEILING(MAX(0,90-MAX(K19,60))*I19/T19,1)*T19</f>
+      <c r="U19" s="38">
+        <f t="shared" si="10"/>
         <v>48</v>
       </c>
-      <c r="V19" s="36"/>
-      <c r="W19" s="36"/>
-      <c r="X19" s="37">
-        <f>MIN(CEILING(MAX(0,70-MAX(J19,30))*I19/T19,1)*T19,D19)</f>
-        <v>0</v>
-      </c>
-      <c r="Y19" s="36"/>
-      <c r="Z19" s="36"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="38">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="37"/>
       <c r="AD19" s="7" t="s">
         <v>98</v>
       </c>
@@ -3573,29 +3660,29 @@
       <c r="D20" s="9">
         <v>0</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="27">
-        <v>0</v>
-      </c>
-      <c r="G20" s="28">
+      <c r="F20" s="28">
+        <v>0</v>
+      </c>
+      <c r="G20" s="29">
         <v>0.4</v>
       </c>
-      <c r="H20" s="25">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="25">
-        <f t="shared" si="11"/>
+      <c r="H20" s="26">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="26">
+        <f t="shared" si="13"/>
         <v>0.55</v>
       </c>
-      <c r="J20" s="25">
+      <c r="J20" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K20" s="25">
+      <c r="K20" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3606,33 +3693,33 @@
       <c r="N20" s="17">
         <v>13.38</v>
       </c>
-      <c r="O20" s="33">
+      <c r="O20" s="34">
         <f t="shared" si="4"/>
         <v>49.49</v>
       </c>
-      <c r="Q20" s="34">
+      <c r="Q20" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R20" s="34">
+      <c r="R20" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T20" s="7">
         <v>12</v>
       </c>
-      <c r="U20" s="37">
-        <f>CEILING(MAX(0,90-MAX(K20,60))*I20/T20,1)*T20</f>
+      <c r="U20" s="38">
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="V20" s="36"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="37">
-        <f>MIN(CEILING(MAX(0,70-MAX(J20,30))*I20/T20,1)*T20,D20)</f>
-        <v>0</v>
-      </c>
-      <c r="Y20" s="36"/>
-      <c r="Z20" s="36"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="38">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="37"/>
       <c r="AD20" s="7" t="s">
         <v>102</v>
       </c>
@@ -3662,29 +3749,29 @@
       <c r="D21" s="9">
         <v>0</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="28">
         <v>1.7</v>
       </c>
-      <c r="G21" s="28">
+      <c r="G21" s="29">
         <v>1.8</v>
       </c>
-      <c r="H21" s="25">
-        <f t="shared" si="10"/>
+      <c r="H21" s="26">
+        <f t="shared" si="12"/>
         <v>2.3375</v>
       </c>
-      <c r="I21" s="25">
-        <f t="shared" si="11"/>
+      <c r="I21" s="26">
+        <f t="shared" si="13"/>
         <v>2.475</v>
       </c>
-      <c r="J21" s="25">
+      <c r="J21" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K21" s="25">
+      <c r="K21" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3695,33 +3782,33 @@
       <c r="N21" s="17">
         <v>6.98</v>
       </c>
-      <c r="O21" s="33">
+      <c r="O21" s="34">
         <f t="shared" si="4"/>
         <v>29.72</v>
       </c>
-      <c r="Q21" s="34">
+      <c r="Q21" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R21" s="34">
+      <c r="R21" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T21" s="7">
         <v>21</v>
       </c>
-      <c r="U21" s="37">
-        <f>CEILING(MAX(0,90-MAX(K21,60))*I21/T21,1)*T21</f>
+      <c r="U21" s="38">
+        <f t="shared" si="10"/>
         <v>84</v>
       </c>
-      <c r="V21" s="36"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="37">
-        <f>MIN(CEILING(MAX(0,70-MAX(J21,30))*I21/T21,1)*T21,D21)</f>
-        <v>0</v>
-      </c>
-      <c r="Y21" s="36"/>
-      <c r="Z21" s="36"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="38">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="37"/>
       <c r="AD21" s="7" t="s">
         <v>106</v>
       </c>
@@ -3751,28 +3838,28 @@
       <c r="D22" s="9">
         <v>0</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="27">
+      <c r="F22" s="28">
         <v>0.5</v>
       </c>
-      <c r="G22" s="28">
+      <c r="G22" s="29">
         <v>0.5</v>
       </c>
-      <c r="H22" s="25">
+      <c r="H22" s="26">
         <v>2</v>
       </c>
-      <c r="I22" s="25">
-        <f t="shared" si="11"/>
+      <c r="I22" s="26">
+        <f t="shared" si="13"/>
         <v>0.6875</v>
       </c>
-      <c r="J22" s="25">
+      <c r="J22" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K22" s="25">
+      <c r="K22" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3783,33 +3870,33 @@
       <c r="N22" s="17">
         <v>9</v>
       </c>
-      <c r="O22" s="33">
+      <c r="O22" s="34">
         <f t="shared" si="4"/>
         <v>37.52</v>
       </c>
-      <c r="Q22" s="34">
+      <c r="Q22" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R22" s="34">
+      <c r="R22" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T22" s="7">
         <v>14</v>
       </c>
-      <c r="U22" s="37">
-        <f>CEILING(MAX(0,90-MAX(K22,60))*I22/T22,1)*T22</f>
+      <c r="U22" s="38">
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
-      <c r="V22" s="36"/>
-      <c r="W22" s="36"/>
-      <c r="X22" s="37">
-        <f>MIN(CEILING(MAX(0,70-MAX(J22,30))*I22/T22,1)*T22,D22)</f>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="36"/>
-      <c r="Z22" s="36"/>
+      <c r="V22" s="37"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="38">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="37"/>
       <c r="AD22" s="7" t="s">
         <v>110</v>
       </c>
@@ -3839,29 +3926,29 @@
       <c r="D23" s="9">
         <v>0</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F23" s="27">
+      <c r="F23" s="28">
         <v>0.5</v>
       </c>
-      <c r="G23" s="28">
+      <c r="G23" s="29">
         <v>0.7</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23" s="26">
         <f>MAX(E23,F23)*1.375</f>
         <v>0.6875</v>
       </c>
-      <c r="I23" s="25">
-        <f t="shared" si="11"/>
+      <c r="I23" s="26">
+        <f t="shared" si="13"/>
         <v>0.9625</v>
       </c>
-      <c r="J23" s="25">
+      <c r="J23" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K23" s="25">
+      <c r="K23" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3872,33 +3959,33 @@
       <c r="N23" s="17">
         <v>10</v>
       </c>
-      <c r="O23" s="33">
+      <c r="O23" s="34">
         <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q23" s="34">
+      <c r="Q23" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R23" s="34">
+      <c r="R23" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T23" s="7">
         <v>16</v>
       </c>
-      <c r="U23" s="37">
-        <f>CEILING(MAX(0,90-MAX(K23,60))*I23/T23,1)*T23</f>
+      <c r="U23" s="38">
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
-      <c r="V23" s="36"/>
-      <c r="W23" s="36"/>
-      <c r="X23" s="37">
-        <f>MIN(CEILING(MAX(0,70-MAX(J23,30))*I23/T23,1)*T23,D23)</f>
-        <v>0</v>
-      </c>
-      <c r="Y23" s="36"/>
-      <c r="Z23" s="36"/>
+      <c r="V23" s="37"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="38">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="37"/>
+      <c r="Z23" s="37"/>
       <c r="AD23" s="7" t="s">
         <v>114</v>
       </c>
@@ -3928,29 +4015,29 @@
       <c r="D24" s="9">
         <v>0</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E24" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="29">
         <v>0.7</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="29">
         <v>1</v>
       </c>
-      <c r="H24" s="25">
+      <c r="H24" s="26">
         <f>MAX(E24,F24)*1.375</f>
         <v>0.9625</v>
       </c>
-      <c r="I24" s="25">
-        <f t="shared" si="11"/>
+      <c r="I24" s="26">
+        <f t="shared" si="13"/>
         <v>1.375</v>
       </c>
-      <c r="J24" s="25">
+      <c r="J24" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K24" s="25">
+      <c r="K24" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3961,33 +4048,33 @@
       <c r="N24" s="17">
         <v>10</v>
       </c>
-      <c r="O24" s="33">
+      <c r="O24" s="34">
         <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q24" s="34">
+      <c r="Q24" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R24" s="34">
+      <c r="R24" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T24" s="7">
         <v>16</v>
       </c>
-      <c r="U24" s="37">
-        <f>CEILING(MAX(0,90-MAX(K24,60))*I24/T24,1)*T24</f>
+      <c r="U24" s="38">
+        <f t="shared" si="10"/>
         <v>48</v>
       </c>
-      <c r="V24" s="36"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="37">
-        <f>MIN(CEILING(MAX(0,70-MAX(J24,30))*I24/T24,1)*T24,D24)</f>
-        <v>0</v>
-      </c>
-      <c r="Y24" s="36"/>
-      <c r="Z24" s="36"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="38">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="37"/>
       <c r="AD24" s="7" t="s">
         <v>118</v>
       </c>
@@ -4017,28 +4104,28 @@
       <c r="D25" s="9">
         <v>0</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E25" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F25" s="28">
+      <c r="F25" s="29">
         <v>1.2</v>
       </c>
-      <c r="G25" s="28">
+      <c r="G25" s="29">
         <v>1.4</v>
       </c>
-      <c r="H25" s="25">
+      <c r="H25" s="26">
         <v>2.5</v>
       </c>
-      <c r="I25" s="25">
-        <f t="shared" si="11"/>
+      <c r="I25" s="26">
+        <f t="shared" si="13"/>
         <v>1.925</v>
       </c>
-      <c r="J25" s="25">
+      <c r="J25" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K25" s="25">
+      <c r="K25" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4049,33 +4136,33 @@
       <c r="N25" s="17">
         <v>6</v>
       </c>
-      <c r="O25" s="33">
+      <c r="O25" s="34">
         <f t="shared" si="4"/>
         <v>25.43</v>
       </c>
-      <c r="Q25" s="34">
+      <c r="Q25" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R25" s="34">
+      <c r="R25" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T25" s="7">
         <v>20</v>
       </c>
-      <c r="U25" s="37">
-        <f>CEILING(MAX(0,90-MAX(K25,60))*I25/T25,1)*T25</f>
+      <c r="U25" s="38">
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
-      <c r="V25" s="36"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="37">
-        <f>MIN(CEILING(MAX(0,70-MAX(J25,30))*I25/T25,1)*T25,D25)</f>
-        <v>0</v>
-      </c>
-      <c r="Y25" s="36"/>
-      <c r="Z25" s="36"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="38">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="37"/>
       <c r="AD25" s="7" t="s">
         <v>122</v>
       </c>
@@ -4105,28 +4192,28 @@
       <c r="D26" s="9">
         <v>0</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="29">
         <v>0.7</v>
       </c>
-      <c r="G26" s="28">
+      <c r="G26" s="29">
         <v>0.7</v>
       </c>
-      <c r="H26" s="25">
+      <c r="H26" s="26">
         <v>4</v>
       </c>
-      <c r="I26" s="25">
-        <f t="shared" si="11"/>
+      <c r="I26" s="26">
+        <f t="shared" si="13"/>
         <v>0.9625</v>
       </c>
-      <c r="J26" s="25">
+      <c r="J26" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K26" s="25">
+      <c r="K26" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4137,33 +4224,33 @@
       <c r="N26" s="17">
         <v>6.98</v>
       </c>
-      <c r="O26" s="33">
+      <c r="O26" s="34">
         <f t="shared" si="4"/>
         <v>29.72</v>
       </c>
-      <c r="Q26" s="34">
+      <c r="Q26" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R26" s="34">
+      <c r="R26" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T26" s="7">
         <v>21</v>
       </c>
-      <c r="U26" s="37">
-        <f>CEILING(MAX(0,90-MAX(K26,60))*I26/T26,1)*T26</f>
+      <c r="U26" s="38">
+        <f t="shared" si="10"/>
         <v>42</v>
       </c>
-      <c r="V26" s="36"/>
-      <c r="W26" s="36"/>
-      <c r="X26" s="37">
-        <f>MIN(CEILING(MAX(0,70-MAX(J26,30))*I26/T26,1)*T26,D26)</f>
-        <v>0</v>
-      </c>
-      <c r="Y26" s="36"/>
-      <c r="Z26" s="36"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="38">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="37"/>
       <c r="AD26" s="7" t="s">
         <v>126</v>
       </c>
@@ -4193,29 +4280,29 @@
       <c r="D27" s="9">
         <v>0</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E27" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F27" s="28">
+      <c r="F27" s="29">
         <v>1.5</v>
       </c>
-      <c r="G27" s="28">
+      <c r="G27" s="29">
         <v>1.2</v>
       </c>
-      <c r="H27" s="25">
+      <c r="H27" s="26">
         <f>MAX(E27,F27)*1.375</f>
         <v>2.0625</v>
       </c>
-      <c r="I27" s="25">
-        <f t="shared" si="11"/>
+      <c r="I27" s="26">
+        <f t="shared" si="13"/>
         <v>2.0625</v>
       </c>
-      <c r="J27" s="25">
+      <c r="J27" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K27" s="25">
+      <c r="K27" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4226,33 +4313,33 @@
       <c r="N27" s="17">
         <v>10</v>
       </c>
-      <c r="O27" s="33">
+      <c r="O27" s="34">
         <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q27" s="34">
+      <c r="Q27" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R27" s="34">
+      <c r="R27" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T27" s="7">
         <v>16</v>
       </c>
-      <c r="U27" s="37">
-        <f>CEILING(MAX(0,90-MAX(K27,60))*I27/T27,1)*T27</f>
+      <c r="U27" s="38">
+        <f t="shared" si="10"/>
         <v>64</v>
       </c>
-      <c r="V27" s="36"/>
-      <c r="W27" s="36"/>
-      <c r="X27" s="37">
-        <f>MIN(CEILING(MAX(0,70-MAX(J27,30))*I27/T27,1)*T27,D27)</f>
-        <v>0</v>
-      </c>
-      <c r="Y27" s="36"/>
-      <c r="Z27" s="36"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="38">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="37"/>
       <c r="AD27" s="7" t="s">
         <v>130</v>
       </c>
@@ -4282,29 +4369,29 @@
       <c r="D28" s="9">
         <v>0</v>
       </c>
-      <c r="E28" s="26">
+      <c r="E28" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F28" s="27">
+      <c r="F28" s="28">
         <v>1.1</v>
       </c>
-      <c r="G28" s="28">
+      <c r="G28" s="29">
         <v>0.5</v>
       </c>
-      <c r="H28" s="25">
+      <c r="H28" s="26">
         <f>MAX(E28,F28)*1.375</f>
         <v>1.5125</v>
       </c>
-      <c r="I28" s="25">
-        <f t="shared" si="11"/>
+      <c r="I28" s="26">
+        <f t="shared" si="13"/>
         <v>1.5125</v>
       </c>
-      <c r="J28" s="25">
+      <c r="J28" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K28" s="25">
+      <c r="K28" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4315,33 +4402,33 @@
       <c r="N28" s="17">
         <v>13.38</v>
       </c>
-      <c r="O28" s="33">
+      <c r="O28" s="34">
         <f t="shared" si="4"/>
         <v>49.49</v>
       </c>
-      <c r="Q28" s="34">
+      <c r="Q28" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R28" s="34">
+      <c r="R28" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T28" s="7">
         <v>12</v>
       </c>
-      <c r="U28" s="37">
-        <f>CEILING(MAX(0,90-MAX(K28,60))*I28/T28,1)*T28</f>
+      <c r="U28" s="38">
+        <f t="shared" si="10"/>
         <v>48</v>
       </c>
-      <c r="V28" s="36"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="37">
-        <f>MIN(CEILING(MAX(0,70-MAX(J28,30))*I28/T28,1)*T28,D28)</f>
-        <v>0</v>
-      </c>
-      <c r="Y28" s="36"/>
-      <c r="Z28" s="36"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="38">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="37"/>
       <c r="AD28" s="7" t="s">
         <v>134</v>
       </c>
@@ -4371,29 +4458,29 @@
       <c r="D29" s="9">
         <v>0</v>
       </c>
-      <c r="E29" s="26">
+      <c r="E29" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F29" s="27">
+      <c r="F29" s="28">
         <v>0.8</v>
       </c>
-      <c r="G29" s="28">
+      <c r="G29" s="29">
         <v>1</v>
       </c>
-      <c r="H29" s="25">
+      <c r="H29" s="26">
         <f>MAX(E29,F29)*1.375</f>
         <v>1.1</v>
       </c>
-      <c r="I29" s="25">
-        <f t="shared" si="11"/>
+      <c r="I29" s="26">
+        <f t="shared" si="13"/>
         <v>1.375</v>
       </c>
-      <c r="J29" s="25">
+      <c r="J29" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K29" s="25">
+      <c r="K29" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4404,33 +4491,33 @@
       <c r="N29" s="17">
         <v>10</v>
       </c>
-      <c r="O29" s="33">
+      <c r="O29" s="34">
         <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q29" s="34">
+      <c r="Q29" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R29" s="34">
+      <c r="R29" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T29" s="7">
         <v>16</v>
       </c>
-      <c r="U29" s="37">
-        <f>CEILING(MAX(0,90-MAX(K29,60))*I29/T29,1)*T29</f>
+      <c r="U29" s="38">
+        <f t="shared" si="10"/>
         <v>48</v>
       </c>
-      <c r="V29" s="36"/>
-      <c r="W29" s="36"/>
-      <c r="X29" s="37">
-        <f>MIN(CEILING(MAX(0,70-MAX(J29,30))*I29/T29,1)*T29,D29)</f>
-        <v>0</v>
-      </c>
-      <c r="Y29" s="36"/>
-      <c r="Z29" s="36"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="38">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="37"/>
       <c r="AD29" s="7" t="s">
         <v>138</v>
       </c>
@@ -4460,30 +4547,30 @@
       <c r="D30" s="9">
         <v>0</v>
       </c>
-      <c r="E30" s="29">
-        <f>C30+D30</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="30">
+      <c r="E30" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="31">
         <v>0.1</v>
       </c>
-      <c r="G30" s="31">
-        <v>0</v>
-      </c>
-      <c r="H30" s="25">
+      <c r="G30" s="32">
+        <v>0</v>
+      </c>
+      <c r="H30" s="26">
         <f>MAX(E30,F30)*1.375</f>
         <v>0.1375</v>
       </c>
-      <c r="I30" s="25">
-        <f>MAX(F30,G30)*1.375</f>
+      <c r="I30" s="26">
+        <f t="shared" si="13"/>
         <v>0.1375</v>
       </c>
-      <c r="J30" s="25">
-        <f>(C30)/I30</f>
-        <v>0</v>
-      </c>
-      <c r="K30" s="25">
-        <f>(E30)/I30</f>
+      <c r="J30" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="26">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L30" s="17"/>
@@ -4493,33 +4580,33 @@
       <c r="N30" s="17">
         <v>10</v>
       </c>
-      <c r="O30" s="33">
-        <f>M30+N30</f>
+      <c r="O30" s="34">
+        <f t="shared" si="4"/>
         <v>36.57</v>
       </c>
-      <c r="Q30" s="34">
-        <f>M30*C30</f>
-        <v>0</v>
-      </c>
-      <c r="R30" s="34">
-        <f>M30*D30</f>
+      <c r="Q30" s="35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="35">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T30" s="7">
         <v>16</v>
       </c>
-      <c r="U30" s="37">
-        <f t="shared" ref="U30:U44" si="12">CEILING(MAX(0,90-MAX(K30,60))*I30/T30,1)*T30</f>
+      <c r="U30" s="38">
+        <f t="shared" ref="U30:U44" si="14">CEILING(MAX(0,90-MAX(K30,60))*I30/T30,1)*T30</f>
         <v>16</v>
       </c>
-      <c r="V30" s="36"/>
-      <c r="W30" s="36"/>
-      <c r="X30" s="37">
-        <f t="shared" ref="X30:X44" si="13">MIN(CEILING(MAX(0,70-MAX(J30,30))*I30/T30,1)*T30,D30)</f>
-        <v>0</v>
-      </c>
-      <c r="Y30" s="36"/>
-      <c r="Z30" s="36"/>
+      <c r="V30" s="37"/>
+      <c r="W30" s="37"/>
+      <c r="X30" s="38">
+        <f t="shared" ref="X30:X44" si="15">MIN(CEILING(MAX(0,70-MAX(J30,30))*I30/T30,1)*T30,D30)</f>
+        <v>0</v>
+      </c>
+      <c r="Y30" s="37"/>
+      <c r="Z30" s="37"/>
       <c r="AD30" s="7" t="s">
         <v>142</v>
       </c>
@@ -4549,30 +4636,30 @@
       <c r="D31" s="9">
         <v>0</v>
       </c>
-      <c r="E31" s="29">
-        <f>C31+D31</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="27">
+      <c r="E31" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="28">
         <v>0.1</v>
       </c>
-      <c r="G31" s="28">
+      <c r="G31" s="29">
         <v>0.1</v>
       </c>
-      <c r="H31" s="25">
+      <c r="H31" s="26">
         <f>MAX(E31,F31)*1.375</f>
         <v>0.1375</v>
       </c>
-      <c r="I31" s="25">
-        <f>MAX(F31,G31)*1.375</f>
+      <c r="I31" s="26">
+        <f t="shared" si="13"/>
         <v>0.1375</v>
       </c>
-      <c r="J31" s="25">
-        <f>(C31)/I31</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="25">
-        <f>(E31)/I31</f>
+      <c r="J31" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="26">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L31" s="17"/>
@@ -4582,33 +4669,33 @@
       <c r="N31" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="O31" s="33">
-        <f>M31+N31</f>
+      <c r="O31" s="34">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="Q31" s="34">
-        <f>M31*C31</f>
-        <v>0</v>
-      </c>
-      <c r="R31" s="34">
-        <f>M31*D31</f>
+      <c r="Q31" s="35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="35">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T31" s="7">
         <v>30</v>
       </c>
-      <c r="U31" s="37">
-        <f t="shared" si="12"/>
+      <c r="U31" s="38">
+        <f t="shared" si="14"/>
         <v>30</v>
       </c>
-      <c r="V31" s="36"/>
-      <c r="W31" s="36"/>
-      <c r="X31" s="37">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Y31" s="36"/>
-      <c r="Z31" s="36"/>
+      <c r="V31" s="37"/>
+      <c r="W31" s="37"/>
+      <c r="X31" s="38">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y31" s="37"/>
+      <c r="Z31" s="37"/>
       <c r="AD31" s="7" t="s">
         <v>148</v>
       </c>
@@ -4638,8 +4725,8 @@
       <c r="D32" s="9">
         <v>0</v>
       </c>
-      <c r="E32" s="29">
-        <f>C32+D32</f>
+      <c r="E32" s="30">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F32" s="7">
@@ -4648,19 +4735,19 @@
       <c r="G32" s="7">
         <v>2.5</v>
       </c>
-      <c r="H32" s="25">
+      <c r="H32" s="26">
         <v>3.5</v>
       </c>
-      <c r="I32" s="25">
-        <f>MAX(F32,G32)*1.375</f>
+      <c r="I32" s="26">
+        <f t="shared" si="13"/>
         <v>3.85</v>
       </c>
-      <c r="J32" s="25">
-        <f>(C32)/I32</f>
-        <v>0</v>
-      </c>
-      <c r="K32" s="25">
-        <f>(E32)/I32</f>
+      <c r="J32" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="26">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L32" s="17"/>
@@ -4670,33 +4757,33 @@
       <c r="N32" s="17">
         <v>10</v>
       </c>
-      <c r="O32" s="33">
-        <f>M32+N32</f>
+      <c r="O32" s="34">
+        <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q32" s="34">
-        <f>M32*C32</f>
-        <v>0</v>
-      </c>
-      <c r="R32" s="34">
-        <f>M32*D32</f>
+      <c r="Q32" s="35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="35">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T32" s="7">
         <v>16</v>
       </c>
-      <c r="U32" s="37">
-        <f t="shared" si="12"/>
+      <c r="U32" s="38">
+        <f t="shared" si="14"/>
         <v>128</v>
       </c>
-      <c r="V32" s="36"/>
-      <c r="W32" s="36"/>
-      <c r="X32" s="37">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Y32" s="36"/>
-      <c r="Z32" s="36"/>
+      <c r="V32" s="37"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="38">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y32" s="37"/>
+      <c r="Z32" s="37"/>
       <c r="AD32" s="7" t="s">
         <v>152</v>
       </c>
@@ -4726,8 +4813,8 @@
       <c r="D33" s="9">
         <v>0</v>
       </c>
-      <c r="E33" s="29">
-        <f>C33+D33</f>
+      <c r="E33" s="30">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F33" s="7">
@@ -4736,19 +4823,19 @@
       <c r="G33" s="7">
         <v>0.4</v>
       </c>
-      <c r="H33" s="25">
+      <c r="H33" s="26">
         <v>2</v>
       </c>
-      <c r="I33" s="25">
-        <f>MAX(F33,G33)*1.375</f>
+      <c r="I33" s="26">
+        <f t="shared" si="13"/>
         <v>1.1</v>
       </c>
-      <c r="J33" s="25">
-        <f>(C33)/I33</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="25">
-        <f>(E33)/I33</f>
+      <c r="J33" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="26">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L33" s="17"/>
@@ -4758,33 +4845,33 @@
       <c r="N33" s="17">
         <v>10</v>
       </c>
-      <c r="O33" s="33">
-        <f>M33+N33</f>
+      <c r="O33" s="34">
+        <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q33" s="34">
-        <f>M33*C33</f>
-        <v>0</v>
-      </c>
-      <c r="R33" s="34">
-        <f>M33*D33</f>
+      <c r="Q33" s="35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="35">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T33" s="7">
         <v>16</v>
       </c>
-      <c r="U33" s="37">
-        <f t="shared" si="12"/>
+      <c r="U33" s="38">
+        <f t="shared" si="14"/>
         <v>48</v>
       </c>
-      <c r="V33" s="36"/>
-      <c r="W33" s="36"/>
-      <c r="X33" s="37">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Y33" s="36"/>
-      <c r="Z33" s="36"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="37"/>
+      <c r="X33" s="38">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="37"/>
+      <c r="Z33" s="37"/>
       <c r="AD33" s="8" t="s">
         <v>156</v>
       </c>
@@ -4814,8 +4901,8 @@
       <c r="D34" s="9">
         <v>0</v>
       </c>
-      <c r="E34" s="29">
-        <f>C34+D34</f>
+      <c r="E34" s="30">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F34" s="7">
@@ -4824,19 +4911,19 @@
       <c r="G34" s="7">
         <v>1.1</v>
       </c>
-      <c r="H34" s="25">
+      <c r="H34" s="26">
         <v>3</v>
       </c>
-      <c r="I34" s="25">
-        <f>MAX(F34,G34)*1.375</f>
+      <c r="I34" s="26">
+        <f t="shared" si="13"/>
         <v>1.5125</v>
       </c>
-      <c r="J34" s="25">
-        <f>(C34)/I34</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="25">
-        <f>(E34)/I34</f>
+      <c r="J34" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="26">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L34" s="17"/>
@@ -4846,33 +4933,33 @@
       <c r="N34" s="17">
         <v>10</v>
       </c>
-      <c r="O34" s="33">
-        <f>M34+N34</f>
+      <c r="O34" s="34">
+        <f t="shared" si="4"/>
         <v>36.57</v>
       </c>
-      <c r="Q34" s="34">
-        <f>M34*C34</f>
-        <v>0</v>
-      </c>
-      <c r="R34" s="34">
-        <f>M34*D34</f>
+      <c r="Q34" s="35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="35">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T34" s="7">
         <v>32</v>
       </c>
-      <c r="U34" s="37">
-        <f t="shared" si="12"/>
+      <c r="U34" s="38">
+        <f t="shared" si="14"/>
         <v>64</v>
       </c>
-      <c r="V34" s="36"/>
-      <c r="W34" s="36"/>
-      <c r="X34" s="37">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Y34" s="36"/>
-      <c r="Z34" s="36"/>
+      <c r="V34" s="37"/>
+      <c r="W34" s="37"/>
+      <c r="X34" s="38">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y34" s="37"/>
+      <c r="Z34" s="37"/>
       <c r="AD34" s="7" t="s">
         <v>160</v>
       </c>
@@ -4902,8 +4989,8 @@
       <c r="D35" s="9">
         <v>0</v>
       </c>
-      <c r="E35" s="29">
-        <f>C35+D35</f>
+      <c r="E35" s="30">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F35" s="7">
@@ -4912,19 +4999,19 @@
       <c r="G35" s="7">
         <v>2.2</v>
       </c>
-      <c r="H35" s="25">
+      <c r="H35" s="26">
         <v>4.5</v>
       </c>
-      <c r="I35" s="25">
-        <f>MAX(F35,G35)*1.375</f>
+      <c r="I35" s="26">
+        <f t="shared" si="13"/>
         <v>3.025</v>
       </c>
-      <c r="J35" s="25">
-        <f>(C35)/I35</f>
-        <v>0</v>
-      </c>
-      <c r="K35" s="25">
-        <f>(E35)/I35</f>
+      <c r="J35" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="26">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L35" s="17"/>
@@ -4934,33 +5021,33 @@
       <c r="N35" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="O35" s="33">
-        <f>M35+N35</f>
+      <c r="O35" s="34">
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="Q35" s="34">
-        <f>M35*C35</f>
-        <v>0</v>
-      </c>
-      <c r="R35" s="34">
-        <f>M35*D35</f>
+      <c r="Q35" s="35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="35">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T35" s="7">
         <v>32</v>
       </c>
-      <c r="U35" s="37">
-        <f t="shared" si="12"/>
+      <c r="U35" s="38">
+        <f t="shared" si="14"/>
         <v>96</v>
       </c>
-      <c r="V35" s="36"/>
-      <c r="W35" s="36"/>
-      <c r="X35" s="37">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Y35" s="36"/>
-      <c r="Z35" s="36"/>
+      <c r="V35" s="37"/>
+      <c r="W35" s="37"/>
+      <c r="X35" s="38">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y35" s="37"/>
+      <c r="Z35" s="37"/>
       <c r="AD35" s="7" t="s">
         <v>166</v>
       </c>
@@ -4990,8 +5077,8 @@
       <c r="D36" s="9">
         <v>0</v>
       </c>
-      <c r="E36" s="29">
-        <f>C36+D36</f>
+      <c r="E36" s="30">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F36" s="7">
@@ -5000,19 +5087,19 @@
       <c r="G36" s="7">
         <v>0.6</v>
       </c>
-      <c r="H36" s="25">
+      <c r="H36" s="26">
         <v>1</v>
       </c>
-      <c r="I36" s="25">
-        <f>MAX(F36,G36)*1.375</f>
+      <c r="I36" s="26">
+        <f t="shared" si="13"/>
         <v>0.9625</v>
       </c>
-      <c r="J36" s="25">
-        <f>(C36)/I36</f>
-        <v>0</v>
-      </c>
-      <c r="K36" s="25">
-        <f>(E36)/I36</f>
+      <c r="J36" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="26">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L36" s="17"/>
@@ -5022,33 +5109,33 @@
       <c r="N36" s="17">
         <v>10</v>
       </c>
-      <c r="O36" s="33">
-        <f>M36+N36</f>
+      <c r="O36" s="34">
+        <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q36" s="34">
-        <f>M36*C36</f>
-        <v>0</v>
-      </c>
-      <c r="R36" s="34">
-        <f>M36*D36</f>
+      <c r="Q36" s="35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="35">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T36" s="7">
         <v>16</v>
       </c>
-      <c r="U36" s="37">
-        <f t="shared" si="12"/>
+      <c r="U36" s="38">
+        <f t="shared" si="14"/>
         <v>32</v>
       </c>
-      <c r="V36" s="36"/>
-      <c r="W36" s="36"/>
-      <c r="X36" s="37">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Y36" s="36"/>
-      <c r="Z36" s="36"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="38">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y36" s="37"/>
+      <c r="Z36" s="37"/>
       <c r="AD36" s="7" t="s">
         <v>170</v>
       </c>
@@ -5078,8 +5165,8 @@
       <c r="D37" s="9">
         <v>0</v>
       </c>
-      <c r="E37" s="29">
-        <f>C37+D37</f>
+      <c r="E37" s="30">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F37" s="7">
@@ -5088,19 +5175,19 @@
       <c r="G37" s="7">
         <v>0.5</v>
       </c>
-      <c r="H37" s="25">
+      <c r="H37" s="26">
         <v>1</v>
       </c>
-      <c r="I37" s="25">
-        <f>MAX(F37,G37)*1.375</f>
+      <c r="I37" s="26">
+        <f t="shared" si="13"/>
         <v>0.6875</v>
       </c>
-      <c r="J37" s="25">
-        <f>(C37)/I37</f>
-        <v>0</v>
-      </c>
-      <c r="K37" s="25">
-        <f>(E37)/I37</f>
+      <c r="J37" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="26">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L37" s="17"/>
@@ -5110,33 +5197,33 @@
       <c r="N37" s="17">
         <v>10</v>
       </c>
-      <c r="O37" s="33">
-        <f>M37+N37</f>
+      <c r="O37" s="34">
+        <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q37" s="34">
-        <f>M37*C37</f>
-        <v>0</v>
-      </c>
-      <c r="R37" s="34">
-        <f>M37*D37</f>
+      <c r="Q37" s="35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="35">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T37" s="7">
         <v>16</v>
       </c>
-      <c r="U37" s="37">
-        <f t="shared" si="12"/>
+      <c r="U37" s="38">
+        <f t="shared" si="14"/>
         <v>32</v>
       </c>
-      <c r="V37" s="36"/>
-      <c r="W37" s="36"/>
-      <c r="X37" s="37">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Y37" s="36"/>
-      <c r="Z37" s="36"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="38">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y37" s="37"/>
+      <c r="Z37" s="37"/>
       <c r="AD37" s="8" t="s">
         <v>174</v>
       </c>
@@ -5166,8 +5253,8 @@
       <c r="D38" s="9">
         <v>0</v>
       </c>
-      <c r="E38" s="26">
-        <f>C38+D38</f>
+      <c r="E38" s="27">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F38" s="7">
@@ -5176,19 +5263,19 @@
       <c r="G38" s="7">
         <v>1</v>
       </c>
-      <c r="H38" s="25">
+      <c r="H38" s="26">
         <v>3.5</v>
       </c>
-      <c r="I38" s="25">
-        <f>MAX(F38,G38)*1.375</f>
+      <c r="I38" s="26">
+        <f t="shared" si="13"/>
         <v>3.4375</v>
       </c>
-      <c r="J38" s="25">
-        <f>(C38)/I38</f>
-        <v>0</v>
-      </c>
-      <c r="K38" s="25">
-        <f>(E38)/I38</f>
+      <c r="J38" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="26">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L38" s="17"/>
@@ -5198,33 +5285,33 @@
       <c r="N38" s="17">
         <v>10</v>
       </c>
-      <c r="O38" s="33">
-        <f>M38+N38</f>
+      <c r="O38" s="34">
+        <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q38" s="34">
-        <f>M38*C38</f>
-        <v>0</v>
-      </c>
-      <c r="R38" s="34">
-        <f>M38*D38</f>
+      <c r="Q38" s="35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="35">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T38" s="7">
         <v>16</v>
       </c>
-      <c r="U38" s="37">
-        <f t="shared" si="12"/>
+      <c r="U38" s="38">
+        <f t="shared" si="14"/>
         <v>112</v>
       </c>
-      <c r="V38" s="36"/>
-      <c r="W38" s="36"/>
-      <c r="X38" s="37">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Y38" s="36"/>
-      <c r="Z38" s="36"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="38">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y38" s="37"/>
+      <c r="Z38" s="37"/>
       <c r="AD38" s="7" t="s">
         <v>178</v>
       </c>
@@ -5254,8 +5341,8 @@
       <c r="D39" s="9">
         <v>0</v>
       </c>
-      <c r="E39" s="26">
-        <f>C39+D39</f>
+      <c r="E39" s="27">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F39" s="7">
@@ -5264,20 +5351,20 @@
       <c r="G39" s="7">
         <v>0.3</v>
       </c>
-      <c r="H39" s="25">
-        <f t="shared" ref="H39:H44" si="14">MAX(E39,F39)*1.375</f>
+      <c r="H39" s="26">
+        <f t="shared" ref="H39:H51" si="16">MAX(E39,F39)*1.375</f>
         <v>0.55</v>
       </c>
-      <c r="I39" s="25">
-        <f>MAX(F39,G39)*1.375</f>
+      <c r="I39" s="26">
+        <f t="shared" si="13"/>
         <v>0.55</v>
       </c>
-      <c r="J39" s="25">
-        <f>(C39)/I39</f>
-        <v>0</v>
-      </c>
-      <c r="K39" s="25">
-        <f>(E39)/I39</f>
+      <c r="J39" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="26">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L39" s="17"/>
@@ -5287,33 +5374,33 @@
       <c r="N39" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="O39" s="33">
-        <f>M39+N39</f>
+      <c r="O39" s="34">
+        <f t="shared" si="4"/>
         <v>30.8</v>
       </c>
-      <c r="Q39" s="34">
-        <f>M39*C39</f>
-        <v>0</v>
-      </c>
-      <c r="R39" s="34">
-        <f>M39*D39</f>
+      <c r="Q39" s="35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="35">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T39" s="7">
         <v>20</v>
       </c>
-      <c r="U39" s="37">
-        <f t="shared" si="12"/>
+      <c r="U39" s="38">
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
-      <c r="V39" s="36"/>
-      <c r="W39" s="36"/>
-      <c r="X39" s="37">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Y39" s="36"/>
-      <c r="Z39" s="36"/>
+      <c r="V39" s="37"/>
+      <c r="W39" s="37"/>
+      <c r="X39" s="38">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y39" s="37"/>
+      <c r="Z39" s="37"/>
       <c r="AD39" s="7" t="s">
         <v>184</v>
       </c>
@@ -5343,8 +5430,8 @@
       <c r="D40" s="9">
         <v>0</v>
       </c>
-      <c r="E40" s="26">
-        <f>C40+D40</f>
+      <c r="E40" s="27">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F40" s="7">
@@ -5353,20 +5440,20 @@
       <c r="G40" s="7">
         <v>0.1</v>
       </c>
-      <c r="H40" s="25">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="25">
-        <f>MAX(F40,G40)*1.375</f>
+      <c r="H40" s="26">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="26">
+        <f t="shared" si="13"/>
         <v>0.1375</v>
       </c>
-      <c r="J40" s="25">
-        <f>(C40)/I40</f>
-        <v>0</v>
-      </c>
-      <c r="K40" s="25">
-        <f>(E40)/I40</f>
+      <c r="J40" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="26">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L40" s="17"/>
@@ -5376,33 +5463,33 @@
       <c r="N40" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="O40" s="33">
-        <f>M40+N40</f>
+      <c r="O40" s="34">
+        <f t="shared" si="4"/>
         <v>32.8</v>
       </c>
-      <c r="Q40" s="34">
-        <f>M40*C40</f>
-        <v>0</v>
-      </c>
-      <c r="R40" s="34">
-        <f>M40*D40</f>
+      <c r="Q40" s="35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="35">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T40" s="7">
         <v>20</v>
       </c>
-      <c r="U40" s="37">
-        <f t="shared" si="12"/>
+      <c r="U40" s="38">
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
-      <c r="V40" s="36"/>
-      <c r="W40" s="36"/>
-      <c r="X40" s="37">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Y40" s="36"/>
-      <c r="Z40" s="36"/>
+      <c r="V40" s="37"/>
+      <c r="W40" s="37"/>
+      <c r="X40" s="38">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y40" s="37"/>
+      <c r="Z40" s="37"/>
       <c r="AD40" s="7" t="s">
         <v>188</v>
       </c>
@@ -5432,8 +5519,8 @@
       <c r="D41" s="9">
         <v>0</v>
       </c>
-      <c r="E41" s="26">
-        <f>C41+D41</f>
+      <c r="E41" s="27">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F41" s="7">
@@ -5442,19 +5529,19 @@
       <c r="G41" s="7">
         <v>0</v>
       </c>
-      <c r="H41" s="25">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="25">
+      <c r="H41" s="26">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="26">
         <v>1</v>
       </c>
-      <c r="J41" s="25">
-        <f>(C41)/I41</f>
-        <v>0</v>
-      </c>
-      <c r="K41" s="25">
-        <f>(E41)/I41</f>
+      <c r="J41" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="26">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M41" s="17">
@@ -5463,33 +5550,33 @@
       <c r="N41" s="17">
         <v>10</v>
       </c>
-      <c r="O41" s="33">
-        <f>M41+N41</f>
+      <c r="O41" s="34">
+        <f t="shared" si="4"/>
         <v>36.57</v>
       </c>
-      <c r="Q41" s="34">
-        <f>M41*C41</f>
-        <v>0</v>
-      </c>
-      <c r="R41" s="34">
-        <f>M41*D41</f>
+      <c r="Q41" s="35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="35">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T41" s="7">
         <v>16</v>
       </c>
-      <c r="U41" s="37">
-        <f t="shared" si="12"/>
+      <c r="U41" s="38">
+        <f t="shared" si="14"/>
         <v>32</v>
       </c>
-      <c r="V41" s="36"/>
-      <c r="W41" s="36"/>
-      <c r="X41" s="37">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Y41" s="36"/>
-      <c r="Z41" s="36"/>
+      <c r="V41" s="37"/>
+      <c r="W41" s="37"/>
+      <c r="X41" s="38">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y41" s="37"/>
+      <c r="Z41" s="37"/>
       <c r="AD41" s="7" t="s">
         <v>192</v>
       </c>
@@ -5519,8 +5606,8 @@
       <c r="D42" s="9">
         <v>0</v>
       </c>
-      <c r="E42" s="26">
-        <f>C42+D42</f>
+      <c r="E42" s="27">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F42" s="7">
@@ -5529,19 +5616,19 @@
       <c r="G42" s="7">
         <v>0</v>
       </c>
-      <c r="H42" s="25">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="25">
+      <c r="H42" s="26">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="26">
         <v>1</v>
       </c>
-      <c r="J42" s="25">
-        <f>(C42)/I42</f>
-        <v>0</v>
-      </c>
-      <c r="K42" s="25">
-        <f>(E42)/I42</f>
+      <c r="J42" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="26">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M42" s="17">
@@ -5550,33 +5637,33 @@
       <c r="N42" s="17">
         <v>10</v>
       </c>
-      <c r="O42" s="33">
-        <f>M42+N42</f>
+      <c r="O42" s="34">
+        <f t="shared" si="4"/>
         <v>36.57</v>
       </c>
-      <c r="Q42" s="34">
-        <f>M42*C42</f>
-        <v>0</v>
-      </c>
-      <c r="R42" s="34">
-        <f>M42*D42</f>
+      <c r="Q42" s="35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="35">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T42" s="7">
         <v>16</v>
       </c>
-      <c r="U42" s="37">
-        <f t="shared" si="12"/>
+      <c r="U42" s="38">
+        <f t="shared" si="14"/>
         <v>32</v>
       </c>
-      <c r="V42" s="36"/>
-      <c r="W42" s="36"/>
-      <c r="X42" s="37">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Y42" s="36"/>
-      <c r="Z42" s="36"/>
+      <c r="V42" s="37"/>
+      <c r="W42" s="37"/>
+      <c r="X42" s="38">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y42" s="37"/>
+      <c r="Z42" s="37"/>
       <c r="AD42" s="7" t="s">
         <v>196</v>
       </c>
@@ -5606,8 +5693,8 @@
       <c r="D43" s="9">
         <v>0</v>
       </c>
-      <c r="E43" s="26">
-        <f>C43+D43</f>
+      <c r="E43" s="27">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F43" s="7">
@@ -5616,19 +5703,19 @@
       <c r="G43" s="7">
         <v>0</v>
       </c>
-      <c r="H43" s="25">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="25">
+      <c r="H43" s="26">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="26">
         <v>1</v>
       </c>
-      <c r="J43" s="25">
-        <f>(C43)/I43</f>
-        <v>0</v>
-      </c>
-      <c r="K43" s="25">
-        <f>(E43)/I43</f>
+      <c r="J43" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="26">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M43" s="7">
@@ -5637,33 +5724,33 @@
       <c r="N43" s="7">
         <v>5</v>
       </c>
-      <c r="O43" s="33">
-        <f>M43+N43</f>
+      <c r="O43" s="34">
+        <f t="shared" si="4"/>
         <v>18.3</v>
       </c>
-      <c r="Q43" s="34">
-        <f>M43*C43</f>
-        <v>0</v>
-      </c>
-      <c r="R43" s="34">
-        <f>M43*D43</f>
+      <c r="Q43" s="35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="35">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T43" s="7">
         <v>32</v>
       </c>
-      <c r="U43" s="37">
-        <f t="shared" si="12"/>
+      <c r="U43" s="38">
+        <f t="shared" si="14"/>
         <v>32</v>
       </c>
-      <c r="V43" s="36"/>
-      <c r="W43" s="36"/>
-      <c r="X43" s="37">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Y43" s="36"/>
-      <c r="Z43" s="36"/>
+      <c r="V43" s="37"/>
+      <c r="W43" s="37"/>
+      <c r="X43" s="38">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y43" s="37"/>
+      <c r="Z43" s="37"/>
       <c r="AD43" s="7" t="s">
         <v>200</v>
       </c>
@@ -5693,8 +5780,8 @@
       <c r="D44" s="9">
         <v>0</v>
       </c>
-      <c r="E44" s="26">
-        <f>C44+D44</f>
+      <c r="E44" s="27">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F44" s="7">
@@ -5703,19 +5790,19 @@
       <c r="G44" s="7">
         <v>0</v>
       </c>
-      <c r="H44" s="25">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="25">
+      <c r="H44" s="26">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="26">
         <v>1</v>
       </c>
-      <c r="J44" s="25">
-        <f>(C44)/I44</f>
-        <v>0</v>
-      </c>
-      <c r="K44" s="25">
-        <f>(E44)/I44</f>
+      <c r="J44" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="26">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M44" s="7">
@@ -5724,33 +5811,33 @@
       <c r="N44" s="7">
         <v>3</v>
       </c>
-      <c r="O44" s="33">
-        <f>M44+N44</f>
+      <c r="O44" s="34">
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="Q44" s="34">
-        <f>M44*C44</f>
-        <v>0</v>
-      </c>
-      <c r="R44" s="34">
-        <f>M44*D44</f>
+      <c r="Q44" s="35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="35">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T44" s="7">
-        <v>40</v>
-      </c>
-      <c r="U44" s="37">
-        <f t="shared" si="12"/>
-        <v>40</v>
-      </c>
-      <c r="V44" s="36"/>
-      <c r="W44" s="36"/>
-      <c r="X44" s="37">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Y44" s="36"/>
-      <c r="Z44" s="36"/>
+        <v>72</v>
+      </c>
+      <c r="U44" s="38">
+        <f t="shared" si="14"/>
+        <v>72</v>
+      </c>
+      <c r="V44" s="37"/>
+      <c r="W44" s="37"/>
+      <c r="X44" s="38">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y44" s="37"/>
+      <c r="Z44" s="37"/>
       <c r="AD44" s="7" t="s">
         <v>204</v>
       </c>
@@ -5758,7 +5845,7 @@
         <v>205</v>
       </c>
       <c r="AF44" s="7">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="AG44" s="7">
         <v>37</v>
@@ -5767,13 +5854,615 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" ht="25" customHeight="1"/>
-    <row r="46" ht="25" customHeight="1"/>
-    <row r="47" ht="25" customHeight="1"/>
-    <row r="48" ht="25" customHeight="1"/>
-    <row r="49" ht="25" customHeight="1"/>
-    <row r="50" ht="25" customHeight="1"/>
-    <row r="51" ht="25" customHeight="1"/>
+    <row r="45" ht="25" customHeight="1" spans="1:34">
+      <c r="A45" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="C45" s="9">
+        <v>0</v>
+      </c>
+      <c r="D45" s="9">
+        <v>0</v>
+      </c>
+      <c r="E45" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="7">
+        <v>0</v>
+      </c>
+      <c r="G45" s="7">
+        <v>0</v>
+      </c>
+      <c r="H45" s="26">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="26">
+        <v>1</v>
+      </c>
+      <c r="J45" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="24">
+        <v>39</v>
+      </c>
+      <c r="N45" s="24">
+        <v>12</v>
+      </c>
+      <c r="O45" s="34">
+        <f>M45+N45</f>
+        <v>51</v>
+      </c>
+      <c r="Q45" s="35">
+        <f t="shared" ref="Q45:Q51" si="17">M45*C45</f>
+        <v>0</v>
+      </c>
+      <c r="R45" s="35">
+        <f t="shared" ref="R45:R51" si="18">M45*D45</f>
+        <v>0</v>
+      </c>
+      <c r="T45" s="24">
+        <v>18</v>
+      </c>
+      <c r="U45" s="38">
+        <f t="shared" ref="U45:U51" si="19">CEILING(MAX(0,90-MAX(K45,60))*I45/T45,1)*T45</f>
+        <v>36</v>
+      </c>
+      <c r="V45" s="37"/>
+      <c r="W45" s="37"/>
+      <c r="X45" s="38">
+        <f t="shared" ref="X45:X51" si="20">MIN(CEILING(MAX(0,70-MAX(J45,30))*I45/T45,1)*T45,D45)</f>
+        <v>0</v>
+      </c>
+      <c r="Y45" s="37"/>
+      <c r="Z45" s="37"/>
+      <c r="AD45" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="AE45" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="AF45" s="7">
+        <v>50</v>
+      </c>
+      <c r="AG45" s="7">
+        <v>37</v>
+      </c>
+      <c r="AH45" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" ht="25" customHeight="1" spans="1:34">
+      <c r="A46" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="C46" s="9">
+        <v>0</v>
+      </c>
+      <c r="D46" s="9">
+        <v>0</v>
+      </c>
+      <c r="E46" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="7">
+        <v>0</v>
+      </c>
+      <c r="G46" s="7">
+        <v>0</v>
+      </c>
+      <c r="H46" s="26">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="26">
+        <v>1</v>
+      </c>
+      <c r="J46" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="24">
+        <v>19.5</v>
+      </c>
+      <c r="N46" s="17">
+        <v>6</v>
+      </c>
+      <c r="O46" s="34">
+        <f t="shared" ref="O46:O51" si="21">M46+N46</f>
+        <v>25.5</v>
+      </c>
+      <c r="Q46" s="35">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="35">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T46" s="7">
+        <v>36</v>
+      </c>
+      <c r="U46" s="38">
+        <f t="shared" si="19"/>
+        <v>36</v>
+      </c>
+      <c r="V46" s="37"/>
+      <c r="W46" s="37"/>
+      <c r="X46" s="38">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y46" s="37"/>
+      <c r="Z46" s="37"/>
+      <c r="AD46" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE46" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF46" s="7">
+        <v>50</v>
+      </c>
+      <c r="AG46" s="7">
+        <v>37</v>
+      </c>
+      <c r="AH46" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" ht="25" customHeight="1" spans="1:34">
+      <c r="A47" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="C47" s="9">
+        <v>0</v>
+      </c>
+      <c r="D47" s="9">
+        <v>0</v>
+      </c>
+      <c r="E47" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="7">
+        <v>0</v>
+      </c>
+      <c r="G47" s="7">
+        <v>0</v>
+      </c>
+      <c r="H47" s="26">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="26">
+        <v>1</v>
+      </c>
+      <c r="J47" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="24">
+        <v>19.5</v>
+      </c>
+      <c r="N47" s="17">
+        <v>6</v>
+      </c>
+      <c r="O47" s="34">
+        <f t="shared" si="21"/>
+        <v>25.5</v>
+      </c>
+      <c r="Q47" s="35">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="35">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T47" s="7">
+        <v>36</v>
+      </c>
+      <c r="U47" s="38">
+        <f t="shared" si="19"/>
+        <v>36</v>
+      </c>
+      <c r="V47" s="37"/>
+      <c r="W47" s="37"/>
+      <c r="X47" s="38">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y47" s="37"/>
+      <c r="Z47" s="37"/>
+      <c r="AD47" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE47" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="AF47" s="7">
+        <v>50</v>
+      </c>
+      <c r="AG47" s="7">
+        <v>37</v>
+      </c>
+      <c r="AH47" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" ht="25" customHeight="1" spans="1:34">
+      <c r="A48" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="C48" s="9">
+        <v>0</v>
+      </c>
+      <c r="D48" s="9">
+        <v>0</v>
+      </c>
+      <c r="E48" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="7">
+        <v>0</v>
+      </c>
+      <c r="G48" s="7">
+        <v>0</v>
+      </c>
+      <c r="H48" s="26">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="26">
+        <v>1</v>
+      </c>
+      <c r="J48" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="24">
+        <v>19.5</v>
+      </c>
+      <c r="N48" s="17">
+        <v>6</v>
+      </c>
+      <c r="O48" s="34">
+        <f t="shared" si="21"/>
+        <v>25.5</v>
+      </c>
+      <c r="Q48" s="35">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="R48" s="35">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T48" s="7">
+        <v>36</v>
+      </c>
+      <c r="U48" s="38">
+        <f t="shared" si="19"/>
+        <v>36</v>
+      </c>
+      <c r="V48" s="37"/>
+      <c r="W48" s="37"/>
+      <c r="X48" s="38">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y48" s="37"/>
+      <c r="Z48" s="37"/>
+      <c r="AD48" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="AE48" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="AF48" s="7">
+        <v>50</v>
+      </c>
+      <c r="AG48" s="7">
+        <v>37</v>
+      </c>
+      <c r="AH48" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" ht="25" customHeight="1" spans="1:34">
+      <c r="A49" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="C49" s="9">
+        <v>0</v>
+      </c>
+      <c r="D49" s="9">
+        <v>0</v>
+      </c>
+      <c r="E49" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="7">
+        <v>0</v>
+      </c>
+      <c r="G49" s="7">
+        <v>0</v>
+      </c>
+      <c r="H49" s="26">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="26">
+        <v>1</v>
+      </c>
+      <c r="J49" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="17">
+        <v>24.37</v>
+      </c>
+      <c r="N49" s="17">
+        <v>10</v>
+      </c>
+      <c r="O49" s="34">
+        <f t="shared" si="21"/>
+        <v>34.37</v>
+      </c>
+      <c r="Q49" s="35">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="R49" s="35">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T49" s="7">
+        <v>16</v>
+      </c>
+      <c r="U49" s="38">
+        <f t="shared" si="19"/>
+        <v>32</v>
+      </c>
+      <c r="V49" s="37"/>
+      <c r="W49" s="37"/>
+      <c r="X49" s="38">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y49" s="37"/>
+      <c r="Z49" s="37"/>
+      <c r="AD49" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="AE49" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF49" s="7">
+        <v>60</v>
+      </c>
+      <c r="AG49" s="7">
+        <v>40</v>
+      </c>
+      <c r="AH49" s="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" ht="25" customHeight="1" spans="1:34">
+      <c r="A50" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="C50" s="9">
+        <v>0</v>
+      </c>
+      <c r="D50" s="9">
+        <v>0</v>
+      </c>
+      <c r="E50" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F50" s="7">
+        <v>0</v>
+      </c>
+      <c r="G50" s="7">
+        <v>0</v>
+      </c>
+      <c r="H50" s="26">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="26">
+        <v>1</v>
+      </c>
+      <c r="J50" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="17">
+        <v>24.37</v>
+      </c>
+      <c r="N50" s="17">
+        <v>10</v>
+      </c>
+      <c r="O50" s="34">
+        <f t="shared" si="21"/>
+        <v>34.37</v>
+      </c>
+      <c r="Q50" s="35">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="R50" s="35">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T50" s="7">
+        <v>16</v>
+      </c>
+      <c r="U50" s="38">
+        <f t="shared" si="19"/>
+        <v>32</v>
+      </c>
+      <c r="V50" s="37"/>
+      <c r="W50" s="37"/>
+      <c r="X50" s="38">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y50" s="37"/>
+      <c r="Z50" s="37"/>
+      <c r="AD50" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="AE50" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AF50" s="7">
+        <v>60</v>
+      </c>
+      <c r="AG50" s="7">
+        <v>40</v>
+      </c>
+      <c r="AH50" s="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" ht="25" customHeight="1" spans="1:34">
+      <c r="A51" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="C51" s="9">
+        <v>0</v>
+      </c>
+      <c r="D51" s="9">
+        <v>0</v>
+      </c>
+      <c r="E51" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="7">
+        <v>0</v>
+      </c>
+      <c r="G51" s="7">
+        <v>0</v>
+      </c>
+      <c r="H51" s="26">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="26">
+        <v>1</v>
+      </c>
+      <c r="J51" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="7">
+        <v>13.3</v>
+      </c>
+      <c r="N51" s="7">
+        <v>5</v>
+      </c>
+      <c r="O51" s="34">
+        <f t="shared" si="21"/>
+        <v>18.3</v>
+      </c>
+      <c r="Q51" s="35">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="R51" s="35">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T51" s="24">
+        <v>32</v>
+      </c>
+      <c r="U51" s="38">
+        <f t="shared" si="19"/>
+        <v>32</v>
+      </c>
+      <c r="V51" s="37"/>
+      <c r="W51" s="37"/>
+      <c r="X51" s="38">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y51" s="37"/>
+      <c r="Z51" s="37"/>
+      <c r="AD51" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="AE51" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="AF51" s="7">
+        <v>30</v>
+      </c>
+      <c r="AG51" s="7">
+        <v>40</v>
+      </c>
+      <c r="AH51" s="7">
+        <v>45</v>
+      </c>
+    </row>
     <row r="52" ht="25" customHeight="1"/>
     <row r="53" ht="25" customHeight="1"/>
     <row r="54" ht="25" customHeight="1"/>
@@ -5798,47 +6487,201 @@
   <autoFilter ref="A1:AH44">
     <extLst/>
   </autoFilter>
-  <conditionalFormatting sqref="J2:J29">
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="J45">
+    <cfRule type="cellIs" dxfId="0" priority="42" operator="lessThanOrEqual">
+      <formula>70</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="41" operator="lessThanOrEqual">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="40" operator="greaterThanOrEqual">
       <formula>105</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="14" operator="lessThanOrEqual">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K45">
+    <cfRule type="cellIs" dxfId="0" priority="39" operator="lessThanOrEqual">
+      <formula>70</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="38" operator="lessThanOrEqual">
       <formula>60</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="15" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="37" operator="greaterThanOrEqual">
+      <formula>105</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J46">
+    <cfRule type="cellIs" dxfId="0" priority="36" operator="lessThanOrEqual">
+      <formula>70</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="35" operator="lessThanOrEqual">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="34" operator="greaterThanOrEqual">
+      <formula>105</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K46">
+    <cfRule type="cellIs" dxfId="0" priority="33" operator="lessThanOrEqual">
+      <formula>70</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="32" operator="lessThanOrEqual">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="31" operator="greaterThanOrEqual">
+      <formula>105</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47">
+    <cfRule type="cellIs" dxfId="0" priority="30" operator="lessThanOrEqual">
+      <formula>70</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="29" operator="lessThanOrEqual">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="28" operator="greaterThanOrEqual">
+      <formula>105</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47">
+    <cfRule type="cellIs" dxfId="0" priority="27" operator="lessThanOrEqual">
+      <formula>70</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="26" operator="lessThanOrEqual">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="25" operator="greaterThanOrEqual">
+      <formula>105</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J48">
+    <cfRule type="cellIs" dxfId="0" priority="24" operator="lessThanOrEqual">
+      <formula>70</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="20" operator="lessThanOrEqual">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="16" operator="greaterThanOrEqual">
+      <formula>105</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="lessThanOrEqual">
+      <formula>70</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="lessThanOrEqual">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThanOrEqual">
+      <formula>105</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J49">
+    <cfRule type="cellIs" dxfId="0" priority="23" operator="lessThanOrEqual">
+      <formula>70</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="19" operator="lessThanOrEqual">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="15" operator="greaterThanOrEqual">
+      <formula>105</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49">
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="lessThanOrEqual">
+      <formula>70</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="lessThanOrEqual">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
+      <formula>105</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J50">
+    <cfRule type="cellIs" dxfId="0" priority="22" operator="lessThanOrEqual">
+      <formula>70</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="18" operator="lessThanOrEqual">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="14" operator="greaterThanOrEqual">
+      <formula>105</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50">
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="lessThanOrEqual">
+      <formula>70</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThanOrEqual">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThanOrEqual">
+      <formula>105</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J51">
+    <cfRule type="cellIs" dxfId="0" priority="21" operator="lessThanOrEqual">
+      <formula>70</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="17" operator="lessThanOrEqual">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="13" operator="greaterThanOrEqual">
+      <formula>105</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K51">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="lessThanOrEqual">
+      <formula>70</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="lessThanOrEqual">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThanOrEqual">
+      <formula>105</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J29">
+    <cfRule type="cellIs" dxfId="2" priority="55" operator="greaterThanOrEqual">
+      <formula>105</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="56" operator="lessThanOrEqual">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="57" operator="lessThanOrEqual">
       <formula>70</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30:J44">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="49" operator="greaterThanOrEqual">
       <formula>105</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="50" operator="lessThanOrEqual">
       <formula>60</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="51" operator="lessThanOrEqual">
       <formula>70</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K29">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="46" operator="greaterThanOrEqual">
       <formula>105</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="47" operator="lessThanOrEqual">
       <formula>60</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="48" operator="lessThanOrEqual">
       <formula>70</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:K44">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="43" operator="greaterThanOrEqual">
       <formula>105</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="44" operator="lessThanOrEqual">
       <formula>60</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="45" operator="lessThanOrEqual">
       <formula>70</formula>
     </cfRule>
   </conditionalFormatting>

--- a/dist/产品库存及周转统计.xlsx
+++ b/dist/产品库存及周转统计.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="15800"/>
+    <workbookView windowHeight="20900"/>
   </bookViews>
   <sheets>
     <sheet name="产品库存" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">产品库存!$A$1:$AH$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">产品库存!$A$1:$AH$51</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -522,7 +522,7 @@
     <t>床边双大袋（灰）1p</t>
   </si>
   <si>
-    <t>B0DQGTP8MQ</t>
+    <t>BOFHHY887F</t>
   </si>
   <si>
     <t>14</t>
@@ -531,10 +531,10 @@
     <t>5</t>
   </si>
   <si>
-    <t>BedSideCaddy-2pockets-Grey1pcs</t>
-  </si>
-  <si>
-    <t>X004DUD277</t>
+    <t>BedSideCaddy-2pockets-Greyipcs-New</t>
+  </si>
+  <si>
+    <t>X004RETHGT</t>
   </si>
   <si>
     <t>【大】深卡其(2p)</t>
@@ -1460,7 +1460,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1532,9 +1532,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1937,11 +1934,11 @@
   <dimension ref="A1:AH71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T7" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA51" sqref="AA51"/>
+      <selection pane="bottomRight" activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1987,16 +1984,16 @@
       <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="32" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="8" t="s">
@@ -2012,34 +2009,34 @@
       <c r="N1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="O1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="35" t="s">
+      <c r="Q1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="35" t="s">
+      <c r="R1" s="34" t="s">
         <v>15</v>
       </c>
       <c r="T1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="36" t="s">
+      <c r="U1" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="36" t="s">
+      <c r="V1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="36" t="s">
+      <c r="W1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="36" t="s">
+      <c r="X1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="36" t="s">
+      <c r="Y1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="36" t="s">
+      <c r="Z1" s="35" t="s">
         <v>22</v>
       </c>
       <c r="AD1" s="7" t="s">
@@ -2071,28 +2068,28 @@
       <c r="D2" s="9">
         <v>0</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="26">
         <f t="shared" ref="E2:E51" si="0">C2+D2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="27">
         <v>16.4</v>
       </c>
-      <c r="G2" s="29">
+      <c r="G2" s="28">
         <v>13.8</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="25">
         <v>20.5</v>
       </c>
-      <c r="I2" s="26">
+      <c r="I2" s="25">
         <f t="shared" ref="I2:I19" si="1">MAX(F2,G2)*1.375</f>
         <v>22.55</v>
       </c>
-      <c r="J2" s="26">
+      <c r="J2" s="25">
         <f t="shared" ref="J2:J51" si="2">(C2)/I2</f>
         <v>0</v>
       </c>
-      <c r="K2" s="26">
+      <c r="K2" s="25">
         <f t="shared" ref="K2:K51" si="3">(E2)/I2</f>
         <v>0</v>
       </c>
@@ -2103,30 +2100,30 @@
       <c r="N2" s="17">
         <v>6</v>
       </c>
-      <c r="O2" s="34">
+      <c r="O2" s="33">
         <f t="shared" ref="O2:O45" si="4">M2+N2</f>
         <v>25.43</v>
       </c>
-      <c r="Q2" s="35">
+      <c r="Q2" s="34">
         <f t="shared" ref="Q2:Q45" si="5">M2*C2</f>
         <v>0</v>
       </c>
-      <c r="R2" s="35">
+      <c r="R2" s="34">
         <f t="shared" ref="R2:R45" si="6">M2*D2</f>
         <v>0</v>
       </c>
       <c r="T2" s="7">
         <v>36</v>
       </c>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="38">
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="37">
         <f>CEILING(MAX(0,135-MAX(K2,60))*I2/T2,1)*T2</f>
         <v>1692</v>
       </c>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="38">
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="37">
         <f>MIN(CEILING(MAX(0,115-MAX(J2,30))*I2/T2,1)*T2,D2)</f>
         <v>0</v>
       </c>
@@ -2159,28 +2156,28 @@
       <c r="D3" s="9">
         <v>0</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="27">
         <v>5.7</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="28">
         <v>5.3</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="25">
         <v>8</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="25">
         <f t="shared" si="1"/>
         <v>7.8375</v>
       </c>
-      <c r="J3" s="26">
+      <c r="J3" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K3" s="26">
+      <c r="K3" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2191,30 +2188,30 @@
       <c r="N3" s="17">
         <v>10</v>
       </c>
-      <c r="O3" s="34">
+      <c r="O3" s="33">
         <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q3" s="35">
+      <c r="Q3" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R3" s="35">
+      <c r="R3" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T3" s="7">
         <v>32</v>
       </c>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="38">
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="37">
         <f>CEILING(MAX(0,135-MAX(K3,60))*I3/T3,1)*T3</f>
         <v>608</v>
       </c>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="38">
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="37">
         <f>MIN(CEILING(MAX(0,115-MAX(J3,30))*I3/T3,1)*T3,D3)</f>
         <v>0</v>
       </c>
@@ -2247,28 +2244,28 @@
       <c r="D4" s="9">
         <v>0</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="27">
         <v>5.4</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="28">
         <v>6.1</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="25">
         <v>8</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="25">
         <f t="shared" si="1"/>
         <v>8.3875</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2279,30 +2276,30 @@
       <c r="N4" s="17">
         <v>6.98</v>
       </c>
-      <c r="O4" s="34">
+      <c r="O4" s="33">
         <f t="shared" si="4"/>
         <v>29.72</v>
       </c>
-      <c r="Q4" s="35">
+      <c r="Q4" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R4" s="35">
+      <c r="R4" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T4" s="7">
         <v>42</v>
       </c>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="38">
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="37">
         <f>CEILING(MAX(0,135-MAX(K4,60))*I4/T4,1)*T4</f>
         <v>630</v>
       </c>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="38">
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="37">
         <f>MIN(CEILING(MAX(0,115-MAX(J4,30))*I4/T4,1)*T4,D4)</f>
         <v>0</v>
       </c>
@@ -2335,28 +2332,28 @@
       <c r="D5" s="9">
         <v>0</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="27">
         <v>10</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="28">
         <v>11.5</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="25">
         <v>17</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="25">
         <f t="shared" si="1"/>
         <v>15.8125</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2367,30 +2364,30 @@
       <c r="N5" s="17">
         <v>10</v>
       </c>
-      <c r="O5" s="34">
+      <c r="O5" s="33">
         <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q5" s="35">
+      <c r="Q5" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R5" s="35">
+      <c r="R5" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T5" s="7">
         <v>32</v>
       </c>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="38">
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="37">
         <f>CEILING(MAX(0,135-MAX(K5,60))*I5/T5,1)*T5</f>
         <v>1216</v>
       </c>
-      <c r="X5" s="37"/>
-      <c r="Y5" s="37"/>
-      <c r="Z5" s="38">
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="37">
         <f>MIN(CEILING(MAX(0,115-MAX(J5,30))*I5/T5,1)*T5,D5)</f>
         <v>0</v>
       </c>
@@ -2423,28 +2420,28 @@
       <c r="D6" s="9">
         <v>0</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="27">
         <v>9.2</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="28">
         <v>9.4</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="25">
         <v>13.5</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="25">
         <f t="shared" si="1"/>
         <v>12.925</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2455,30 +2452,30 @@
       <c r="N6" s="17">
         <v>10</v>
       </c>
-      <c r="O6" s="34">
+      <c r="O6" s="33">
         <f t="shared" si="4"/>
         <v>36.57</v>
       </c>
-      <c r="Q6" s="35">
+      <c r="Q6" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R6" s="35">
+      <c r="R6" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T6" s="7">
         <v>32</v>
       </c>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="38">
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="37">
         <f>CEILING(MAX(0,135-MAX(K6,60))*I6/T6,1)*T6</f>
         <v>992</v>
       </c>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="38">
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="37">
         <f>MIN(CEILING(MAX(0,115-MAX(J6,30))*I6/T6,1)*T6,D6)</f>
         <v>0</v>
       </c>
@@ -2511,28 +2508,28 @@
       <c r="D7" s="9">
         <v>0</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="27">
         <v>1</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="28">
         <v>1.3</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="25">
         <v>2.5</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="25">
         <f t="shared" si="1"/>
         <v>1.7875</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2543,33 +2540,33 @@
       <c r="N7" s="17">
         <v>13.38</v>
       </c>
-      <c r="O7" s="34">
+      <c r="O7" s="33">
         <f t="shared" si="4"/>
         <v>49.49</v>
       </c>
-      <c r="Q7" s="35">
+      <c r="Q7" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R7" s="35">
+      <c r="R7" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T7" s="7">
         <v>12</v>
       </c>
-      <c r="U7" s="37"/>
-      <c r="V7" s="38">
+      <c r="U7" s="36"/>
+      <c r="V7" s="37">
         <f>CEILING(MAX(0,120-MAX(K7,60))*I7/T7,1)*T7</f>
         <v>108</v>
       </c>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="38">
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="37">
         <f>MIN(CEILING(MAX(0,100-MAX(J7,30))*I7/T7,1)*T7,D7)</f>
         <v>0</v>
       </c>
-      <c r="Z7" s="37"/>
+      <c r="Z7" s="36"/>
       <c r="AD7" s="7" t="s">
         <v>50</v>
       </c>
@@ -2599,29 +2596,29 @@
       <c r="D8" s="9">
         <v>0</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="27">
         <v>1.7</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="28">
         <v>1.6</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="25">
         <f t="shared" ref="H8:H14" si="7">MAX(E8,F8)*1.375</f>
         <v>2.3375</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="25">
         <f t="shared" si="1"/>
         <v>2.3375</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2632,33 +2629,33 @@
       <c r="N8" s="17">
         <v>10.47</v>
       </c>
-      <c r="O8" s="34">
+      <c r="O8" s="33">
         <f t="shared" si="4"/>
         <v>44.18</v>
       </c>
-      <c r="Q8" s="35">
+      <c r="Q8" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R8" s="35">
+      <c r="R8" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T8" s="7">
         <v>15</v>
       </c>
-      <c r="U8" s="37"/>
-      <c r="V8" s="38">
+      <c r="U8" s="36"/>
+      <c r="V8" s="37">
         <f t="shared" ref="V8:V15" si="8">CEILING(MAX(0,120-MAX(K8,60))*I8/T8,1)*T8</f>
         <v>150</v>
       </c>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="38">
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="37">
         <f t="shared" ref="Y8:Y15" si="9">MIN(CEILING(MAX(0,100-MAX(J8,30))*I8/T8,1)*T8,D8)</f>
         <v>0</v>
       </c>
-      <c r="Z8" s="37"/>
+      <c r="Z8" s="36"/>
       <c r="AD8" s="7" t="s">
         <v>54</v>
       </c>
@@ -2688,28 +2685,28 @@
       <c r="D9" s="9">
         <v>0</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="27">
         <v>1.7</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="28">
         <v>1.3</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="25">
         <v>5</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="25">
         <f t="shared" si="1"/>
         <v>2.3375</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2720,33 +2717,33 @@
       <c r="N9" s="17">
         <v>9</v>
       </c>
-      <c r="O9" s="34">
+      <c r="O9" s="33">
         <f t="shared" si="4"/>
         <v>37.52</v>
       </c>
-      <c r="Q9" s="35">
+      <c r="Q9" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R9" s="35">
+      <c r="R9" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T9" s="7">
         <v>28</v>
       </c>
-      <c r="U9" s="37"/>
-      <c r="V9" s="38">
+      <c r="U9" s="36"/>
+      <c r="V9" s="37">
         <f t="shared" si="8"/>
         <v>168</v>
       </c>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="38">
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="37">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z9" s="37"/>
+      <c r="Z9" s="36"/>
       <c r="AD9" s="7" t="s">
         <v>58</v>
       </c>
@@ -2776,28 +2773,28 @@
       <c r="D10" s="9">
         <v>0</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="27">
         <v>0.2</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="28">
         <v>0.8</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="25">
         <v>5</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="25">
         <f t="shared" si="1"/>
         <v>1.1</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="26">
+      <c r="K10" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2808,33 +2805,33 @@
       <c r="N10" s="17">
         <v>10</v>
       </c>
-      <c r="O10" s="34">
+      <c r="O10" s="33">
         <f t="shared" si="4"/>
         <v>36.57</v>
       </c>
-      <c r="Q10" s="35">
+      <c r="Q10" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R10" s="35">
+      <c r="R10" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T10" s="7">
         <v>32</v>
       </c>
-      <c r="U10" s="37"/>
-      <c r="V10" s="38">
+      <c r="U10" s="36"/>
+      <c r="V10" s="37">
         <f t="shared" si="8"/>
         <v>96</v>
       </c>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="38">
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="37">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z10" s="37"/>
+      <c r="Z10" s="36"/>
       <c r="AD10" s="7" t="s">
         <v>62</v>
       </c>
@@ -2864,28 +2861,28 @@
       <c r="D11" s="9">
         <v>0</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="27">
         <v>3.7</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="28">
         <v>4.2</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="25">
         <v>5.5</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="25">
         <f t="shared" si="1"/>
         <v>5.775</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2896,33 +2893,33 @@
       <c r="N11" s="17">
         <v>13.38</v>
       </c>
-      <c r="O11" s="34">
+      <c r="O11" s="33">
         <f t="shared" si="4"/>
         <v>49.49</v>
       </c>
-      <c r="Q11" s="35">
+      <c r="Q11" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R11" s="35">
+      <c r="R11" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T11" s="7">
         <v>24</v>
       </c>
-      <c r="U11" s="37"/>
-      <c r="V11" s="38">
+      <c r="U11" s="36"/>
+      <c r="V11" s="37">
         <f t="shared" si="8"/>
         <v>360</v>
       </c>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="38">
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="37">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z11" s="37"/>
+      <c r="Z11" s="36"/>
       <c r="AD11" s="7" t="s">
         <v>66</v>
       </c>
@@ -2952,29 +2949,29 @@
       <c r="D12" s="9">
         <v>0</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="27">
         <v>0.1</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="28">
         <v>0.2</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="25">
         <f t="shared" si="7"/>
         <v>0.1375</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="25">
         <f t="shared" si="1"/>
         <v>0.275</v>
       </c>
-      <c r="J12" s="26">
+      <c r="J12" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K12" s="26">
+      <c r="K12" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2985,33 +2982,33 @@
       <c r="N12" s="17">
         <v>13.38</v>
       </c>
-      <c r="O12" s="34">
+      <c r="O12" s="33">
         <f t="shared" si="4"/>
         <v>53.18</v>
       </c>
-      <c r="Q12" s="35">
+      <c r="Q12" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R12" s="35">
+      <c r="R12" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T12" s="7">
         <v>12</v>
       </c>
-      <c r="U12" s="37"/>
-      <c r="V12" s="38">
+      <c r="U12" s="36"/>
+      <c r="V12" s="37">
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="38">
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="37">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="37"/>
+      <c r="Z12" s="36"/>
       <c r="AD12" s="7" t="s">
         <v>70</v>
       </c>
@@ -3041,29 +3038,29 @@
       <c r="D13" s="9">
         <v>0</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="27">
         <v>0.8</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="28">
         <v>1.1</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="25">
         <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="25">
         <f t="shared" si="1"/>
         <v>1.5125</v>
       </c>
-      <c r="J13" s="26">
+      <c r="J13" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K13" s="26">
+      <c r="K13" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3074,33 +3071,33 @@
       <c r="N13" s="17">
         <v>10.47</v>
       </c>
-      <c r="O13" s="34">
+      <c r="O13" s="33">
         <f t="shared" si="4"/>
         <v>44.18</v>
       </c>
-      <c r="Q13" s="35">
+      <c r="Q13" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R13" s="35">
+      <c r="R13" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T13" s="7">
         <v>15</v>
       </c>
-      <c r="U13" s="37"/>
-      <c r="V13" s="38">
+      <c r="U13" s="36"/>
+      <c r="V13" s="37">
         <f t="shared" si="8"/>
         <v>105</v>
       </c>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="38">
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="37">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="37"/>
+      <c r="Z13" s="36"/>
       <c r="AD13" s="7" t="s">
         <v>74</v>
       </c>
@@ -3130,29 +3127,29 @@
       <c r="D14" s="9">
         <v>0</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="27">
         <v>2.5</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="28">
         <v>2</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="25">
         <f t="shared" si="7"/>
         <v>3.4375</v>
       </c>
-      <c r="I14" s="26">
+      <c r="I14" s="25">
         <f t="shared" si="1"/>
         <v>3.4375</v>
       </c>
-      <c r="J14" s="26">
+      <c r="J14" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3163,33 +3160,33 @@
       <c r="N14" s="17">
         <v>13.38</v>
       </c>
-      <c r="O14" s="34">
+      <c r="O14" s="33">
         <f t="shared" si="4"/>
         <v>53.18</v>
       </c>
-      <c r="Q14" s="35">
+      <c r="Q14" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R14" s="35">
+      <c r="R14" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T14" s="7">
         <v>12</v>
       </c>
-      <c r="U14" s="37"/>
-      <c r="V14" s="38">
+      <c r="U14" s="36"/>
+      <c r="V14" s="37">
         <f t="shared" si="8"/>
         <v>216</v>
       </c>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="38">
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="37">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="37"/>
+      <c r="Z14" s="36"/>
       <c r="AD14" s="7" t="s">
         <v>78</v>
       </c>
@@ -3219,7 +3216,7 @@
       <c r="D15" s="9">
         <v>0</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3229,18 +3226,18 @@
       <c r="G15" s="7">
         <v>0.1</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="25">
         <v>3</v>
       </c>
-      <c r="I15" s="26">
+      <c r="I15" s="25">
         <f t="shared" si="1"/>
         <v>0.55</v>
       </c>
-      <c r="J15" s="26">
+      <c r="J15" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K15" s="26">
+      <c r="K15" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3251,33 +3248,33 @@
       <c r="N15" s="17">
         <v>10</v>
       </c>
-      <c r="O15" s="34">
+      <c r="O15" s="33">
         <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q15" s="35">
+      <c r="Q15" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R15" s="35">
+      <c r="R15" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T15" s="7">
         <v>16</v>
       </c>
-      <c r="U15" s="37"/>
-      <c r="V15" s="38">
+      <c r="U15" s="36"/>
+      <c r="V15" s="37">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="38">
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="37">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z15" s="37"/>
+      <c r="Z15" s="36"/>
       <c r="AD15" s="7" t="s">
         <v>82</v>
       </c>
@@ -3307,28 +3304,28 @@
       <c r="D16" s="9">
         <v>0</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="27">
         <v>1.4</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="28">
         <v>1.4</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="25">
         <v>1.9</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I16" s="25">
         <f t="shared" si="1"/>
         <v>1.925</v>
       </c>
-      <c r="J16" s="26">
+      <c r="J16" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K16" s="26">
+      <c r="K16" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3339,33 +3336,33 @@
       <c r="N16" s="17">
         <v>10</v>
       </c>
-      <c r="O16" s="34">
+      <c r="O16" s="33">
         <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q16" s="35">
+      <c r="Q16" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R16" s="35">
+      <c r="R16" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T16" s="7">
         <v>16</v>
       </c>
-      <c r="U16" s="38">
+      <c r="U16" s="37">
         <f t="shared" ref="U16:U29" si="10">CEILING(MAX(0,90-MAX(K16,60))*I16/T16,1)*T16</f>
         <v>64</v>
       </c>
-      <c r="V16" s="37"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="38">
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="37">
         <f t="shared" ref="X16:X29" si="11">MIN(CEILING(MAX(0,70-MAX(J16,30))*I16/T16,1)*T16,D16)</f>
         <v>0</v>
       </c>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="37"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="36"/>
       <c r="AD16" s="7" t="s">
         <v>86</v>
       </c>
@@ -3395,28 +3392,28 @@
       <c r="D17" s="9">
         <v>0</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="27">
         <v>1</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="28">
         <v>0.4</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="25">
         <v>6</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="25">
         <f t="shared" si="1"/>
         <v>1.375</v>
       </c>
-      <c r="J17" s="26">
+      <c r="J17" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K17" s="26">
+      <c r="K17" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3427,33 +3424,33 @@
       <c r="N17" s="17">
         <v>6</v>
       </c>
-      <c r="O17" s="34">
+      <c r="O17" s="33">
         <f t="shared" si="4"/>
         <v>25.43</v>
       </c>
-      <c r="Q17" s="35">
+      <c r="Q17" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R17" s="35">
+      <c r="R17" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T17" s="7">
         <v>20</v>
       </c>
-      <c r="U17" s="38">
+      <c r="U17" s="37">
         <f t="shared" si="10"/>
         <v>60</v>
       </c>
-      <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="38">
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="37">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="37"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
       <c r="AD17" s="7" t="s">
         <v>90</v>
       </c>
@@ -3483,29 +3480,29 @@
       <c r="D18" s="9">
         <v>0</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="27">
         <v>1</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="28">
         <v>0.3</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="25">
         <f t="shared" ref="H18:H21" si="12">MAX(E18,F18)*1.375</f>
         <v>1.375</v>
       </c>
-      <c r="I18" s="26">
+      <c r="I18" s="25">
         <f t="shared" si="1"/>
         <v>1.375</v>
       </c>
-      <c r="J18" s="26">
+      <c r="J18" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K18" s="26">
+      <c r="K18" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3516,33 +3513,33 @@
       <c r="N18" s="17">
         <v>13.38</v>
       </c>
-      <c r="O18" s="34">
+      <c r="O18" s="33">
         <f t="shared" si="4"/>
         <v>49.49</v>
       </c>
-      <c r="Q18" s="35">
+      <c r="Q18" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R18" s="35">
+      <c r="R18" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T18" s="7">
         <v>12</v>
       </c>
-      <c r="U18" s="38">
+      <c r="U18" s="37">
         <f t="shared" si="10"/>
         <v>48</v>
       </c>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="38">
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="37">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="37"/>
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="36"/>
       <c r="AD18" s="7" t="s">
         <v>94</v>
       </c>
@@ -3572,28 +3569,28 @@
       <c r="D19" s="9">
         <v>0</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="27">
         <v>0.5</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="28">
         <v>0.9</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="25">
         <v>1.4</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I19" s="25">
         <f t="shared" ref="I19:I41" si="13">MAX(F19,G19)*1.375</f>
         <v>1.2375</v>
       </c>
-      <c r="J19" s="26">
+      <c r="J19" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K19" s="26">
+      <c r="K19" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3604,33 +3601,33 @@
       <c r="N19" s="17">
         <v>10</v>
       </c>
-      <c r="O19" s="34">
+      <c r="O19" s="33">
         <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q19" s="35">
+      <c r="Q19" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R19" s="35">
+      <c r="R19" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T19" s="7">
         <v>16</v>
       </c>
-      <c r="U19" s="38">
+      <c r="U19" s="37">
         <f t="shared" si="10"/>
         <v>48</v>
       </c>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="38">
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="37">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="37"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
       <c r="AD19" s="7" t="s">
         <v>98</v>
       </c>
@@ -3660,29 +3657,29 @@
       <c r="D20" s="9">
         <v>0</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="28">
-        <v>0</v>
-      </c>
-      <c r="G20" s="29">
+      <c r="F20" s="27">
+        <v>0</v>
+      </c>
+      <c r="G20" s="28">
         <v>0.4</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="25">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I20" s="26">
+      <c r="I20" s="25">
         <f t="shared" si="13"/>
         <v>0.55</v>
       </c>
-      <c r="J20" s="26">
+      <c r="J20" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K20" s="26">
+      <c r="K20" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3693,33 +3690,33 @@
       <c r="N20" s="17">
         <v>13.38</v>
       </c>
-      <c r="O20" s="34">
+      <c r="O20" s="33">
         <f t="shared" si="4"/>
         <v>49.49</v>
       </c>
-      <c r="Q20" s="35">
+      <c r="Q20" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R20" s="35">
+      <c r="R20" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T20" s="7">
         <v>12</v>
       </c>
-      <c r="U20" s="38">
+      <c r="U20" s="37">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="V20" s="37"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="38">
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="37">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="37"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
       <c r="AD20" s="7" t="s">
         <v>102</v>
       </c>
@@ -3749,29 +3746,29 @@
       <c r="D21" s="9">
         <v>0</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="28">
+      <c r="F21" s="27">
         <v>1.7</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="28">
         <v>1.8</v>
       </c>
-      <c r="H21" s="26">
+      <c r="H21" s="25">
         <f t="shared" si="12"/>
         <v>2.3375</v>
       </c>
-      <c r="I21" s="26">
+      <c r="I21" s="25">
         <f t="shared" si="13"/>
         <v>2.475</v>
       </c>
-      <c r="J21" s="26">
+      <c r="J21" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K21" s="26">
+      <c r="K21" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3782,33 +3779,33 @@
       <c r="N21" s="17">
         <v>6.98</v>
       </c>
-      <c r="O21" s="34">
+      <c r="O21" s="33">
         <f t="shared" si="4"/>
         <v>29.72</v>
       </c>
-      <c r="Q21" s="35">
+      <c r="Q21" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R21" s="35">
+      <c r="R21" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T21" s="7">
         <v>21</v>
       </c>
-      <c r="U21" s="38">
+      <c r="U21" s="37">
         <f t="shared" si="10"/>
         <v>84</v>
       </c>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="38">
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="37">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="37"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="36"/>
       <c r="AD21" s="7" t="s">
         <v>106</v>
       </c>
@@ -3838,28 +3835,28 @@
       <c r="D22" s="9">
         <v>0</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="28">
+      <c r="F22" s="27">
         <v>0.5</v>
       </c>
-      <c r="G22" s="29">
+      <c r="G22" s="28">
         <v>0.5</v>
       </c>
-      <c r="H22" s="26">
+      <c r="H22" s="25">
         <v>2</v>
       </c>
-      <c r="I22" s="26">
+      <c r="I22" s="25">
         <f t="shared" si="13"/>
         <v>0.6875</v>
       </c>
-      <c r="J22" s="26">
+      <c r="J22" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K22" s="26">
+      <c r="K22" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3870,33 +3867,33 @@
       <c r="N22" s="17">
         <v>9</v>
       </c>
-      <c r="O22" s="34">
+      <c r="O22" s="33">
         <f t="shared" si="4"/>
         <v>37.52</v>
       </c>
-      <c r="Q22" s="35">
+      <c r="Q22" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R22" s="35">
+      <c r="R22" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T22" s="7">
         <v>14</v>
       </c>
-      <c r="U22" s="38">
+      <c r="U22" s="37">
         <f t="shared" si="10"/>
         <v>28</v>
       </c>
-      <c r="V22" s="37"/>
-      <c r="W22" s="37"/>
-      <c r="X22" s="38">
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="37">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="37"/>
-      <c r="Z22" s="37"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
       <c r="AD22" s="7" t="s">
         <v>110</v>
       </c>
@@ -3926,29 +3923,29 @@
       <c r="D23" s="9">
         <v>0</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="27">
         <v>0.5</v>
       </c>
-      <c r="G23" s="29">
+      <c r="G23" s="28">
         <v>0.7</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="25">
         <f>MAX(E23,F23)*1.375</f>
         <v>0.6875</v>
       </c>
-      <c r="I23" s="26">
+      <c r="I23" s="25">
         <f t="shared" si="13"/>
         <v>0.9625</v>
       </c>
-      <c r="J23" s="26">
+      <c r="J23" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K23" s="26">
+      <c r="K23" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3959,33 +3956,33 @@
       <c r="N23" s="17">
         <v>10</v>
       </c>
-      <c r="O23" s="34">
+      <c r="O23" s="33">
         <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q23" s="35">
+      <c r="Q23" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R23" s="35">
+      <c r="R23" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T23" s="7">
         <v>16</v>
       </c>
-      <c r="U23" s="38">
+      <c r="U23" s="37">
         <f t="shared" si="10"/>
         <v>32</v>
       </c>
-      <c r="V23" s="37"/>
-      <c r="W23" s="37"/>
-      <c r="X23" s="38">
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="37">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y23" s="37"/>
-      <c r="Z23" s="37"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="36"/>
       <c r="AD23" s="7" t="s">
         <v>114</v>
       </c>
@@ -4015,29 +4012,29 @@
       <c r="D24" s="9">
         <v>0</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="28">
         <v>0.7</v>
       </c>
-      <c r="G24" s="29">
+      <c r="G24" s="28">
         <v>1</v>
       </c>
-      <c r="H24" s="26">
+      <c r="H24" s="25">
         <f>MAX(E24,F24)*1.375</f>
         <v>0.9625</v>
       </c>
-      <c r="I24" s="26">
+      <c r="I24" s="25">
         <f t="shared" si="13"/>
         <v>1.375</v>
       </c>
-      <c r="J24" s="26">
+      <c r="J24" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K24" s="26">
+      <c r="K24" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4048,33 +4045,33 @@
       <c r="N24" s="17">
         <v>10</v>
       </c>
-      <c r="O24" s="34">
+      <c r="O24" s="33">
         <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q24" s="35">
+      <c r="Q24" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R24" s="35">
+      <c r="R24" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T24" s="7">
         <v>16</v>
       </c>
-      <c r="U24" s="38">
+      <c r="U24" s="37">
         <f t="shared" si="10"/>
         <v>48</v>
       </c>
-      <c r="V24" s="37"/>
-      <c r="W24" s="37"/>
-      <c r="X24" s="38">
+      <c r="V24" s="36"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="37">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y24" s="37"/>
-      <c r="Z24" s="37"/>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="36"/>
       <c r="AD24" s="7" t="s">
         <v>118</v>
       </c>
@@ -4104,28 +4101,28 @@
       <c r="D25" s="9">
         <v>0</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F25" s="29">
+      <c r="F25" s="28">
         <v>1.2</v>
       </c>
-      <c r="G25" s="29">
+      <c r="G25" s="28">
         <v>1.4</v>
       </c>
-      <c r="H25" s="26">
+      <c r="H25" s="25">
         <v>2.5</v>
       </c>
-      <c r="I25" s="26">
+      <c r="I25" s="25">
         <f t="shared" si="13"/>
         <v>1.925</v>
       </c>
-      <c r="J25" s="26">
+      <c r="J25" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K25" s="26">
+      <c r="K25" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4136,33 +4133,33 @@
       <c r="N25" s="17">
         <v>6</v>
       </c>
-      <c r="O25" s="34">
+      <c r="O25" s="33">
         <f t="shared" si="4"/>
         <v>25.43</v>
       </c>
-      <c r="Q25" s="35">
+      <c r="Q25" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R25" s="35">
+      <c r="R25" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T25" s="7">
         <v>20</v>
       </c>
-      <c r="U25" s="38">
+      <c r="U25" s="37">
         <f t="shared" si="10"/>
         <v>60</v>
       </c>
-      <c r="V25" s="37"/>
-      <c r="W25" s="37"/>
-      <c r="X25" s="38">
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="37">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y25" s="37"/>
-      <c r="Z25" s="37"/>
+      <c r="Y25" s="36"/>
+      <c r="Z25" s="36"/>
       <c r="AD25" s="7" t="s">
         <v>122</v>
       </c>
@@ -4192,28 +4189,28 @@
       <c r="D26" s="9">
         <v>0</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E26" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F26" s="29">
+      <c r="F26" s="28">
         <v>0.7</v>
       </c>
-      <c r="G26" s="29">
+      <c r="G26" s="28">
         <v>0.7</v>
       </c>
-      <c r="H26" s="26">
+      <c r="H26" s="25">
         <v>4</v>
       </c>
-      <c r="I26" s="26">
+      <c r="I26" s="25">
         <f t="shared" si="13"/>
         <v>0.9625</v>
       </c>
-      <c r="J26" s="26">
+      <c r="J26" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K26" s="26">
+      <c r="K26" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4224,33 +4221,33 @@
       <c r="N26" s="17">
         <v>6.98</v>
       </c>
-      <c r="O26" s="34">
+      <c r="O26" s="33">
         <f t="shared" si="4"/>
         <v>29.72</v>
       </c>
-      <c r="Q26" s="35">
+      <c r="Q26" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R26" s="35">
+      <c r="R26" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T26" s="7">
         <v>21</v>
       </c>
-      <c r="U26" s="38">
+      <c r="U26" s="37">
         <f t="shared" si="10"/>
         <v>42</v>
       </c>
-      <c r="V26" s="37"/>
-      <c r="W26" s="37"/>
-      <c r="X26" s="38">
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="37">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y26" s="37"/>
-      <c r="Z26" s="37"/>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="36"/>
       <c r="AD26" s="7" t="s">
         <v>126</v>
       </c>
@@ -4280,29 +4277,29 @@
       <c r="D27" s="9">
         <v>0</v>
       </c>
-      <c r="E27" s="27">
+      <c r="E27" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F27" s="29">
+      <c r="F27" s="28">
         <v>1.5</v>
       </c>
-      <c r="G27" s="29">
+      <c r="G27" s="28">
         <v>1.2</v>
       </c>
-      <c r="H27" s="26">
+      <c r="H27" s="25">
         <f>MAX(E27,F27)*1.375</f>
         <v>2.0625</v>
       </c>
-      <c r="I27" s="26">
+      <c r="I27" s="25">
         <f t="shared" si="13"/>
         <v>2.0625</v>
       </c>
-      <c r="J27" s="26">
+      <c r="J27" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K27" s="26">
+      <c r="K27" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4313,33 +4310,33 @@
       <c r="N27" s="17">
         <v>10</v>
       </c>
-      <c r="O27" s="34">
+      <c r="O27" s="33">
         <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q27" s="35">
+      <c r="Q27" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R27" s="35">
+      <c r="R27" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T27" s="7">
         <v>16</v>
       </c>
-      <c r="U27" s="38">
+      <c r="U27" s="37">
         <f t="shared" si="10"/>
         <v>64</v>
       </c>
-      <c r="V27" s="37"/>
-      <c r="W27" s="37"/>
-      <c r="X27" s="38">
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="37">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y27" s="37"/>
-      <c r="Z27" s="37"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="36"/>
       <c r="AD27" s="7" t="s">
         <v>130</v>
       </c>
@@ -4369,29 +4366,29 @@
       <c r="D28" s="9">
         <v>0</v>
       </c>
-      <c r="E28" s="27">
+      <c r="E28" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F28" s="27">
         <v>1.1</v>
       </c>
-      <c r="G28" s="29">
+      <c r="G28" s="28">
         <v>0.5</v>
       </c>
-      <c r="H28" s="26">
+      <c r="H28" s="25">
         <f>MAX(E28,F28)*1.375</f>
         <v>1.5125</v>
       </c>
-      <c r="I28" s="26">
+      <c r="I28" s="25">
         <f t="shared" si="13"/>
         <v>1.5125</v>
       </c>
-      <c r="J28" s="26">
+      <c r="J28" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K28" s="26">
+      <c r="K28" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4402,33 +4399,33 @@
       <c r="N28" s="17">
         <v>13.38</v>
       </c>
-      <c r="O28" s="34">
+      <c r="O28" s="33">
         <f t="shared" si="4"/>
         <v>49.49</v>
       </c>
-      <c r="Q28" s="35">
+      <c r="Q28" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R28" s="35">
+      <c r="R28" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T28" s="7">
         <v>12</v>
       </c>
-      <c r="U28" s="38">
+      <c r="U28" s="37">
         <f t="shared" si="10"/>
         <v>48</v>
       </c>
-      <c r="V28" s="37"/>
-      <c r="W28" s="37"/>
-      <c r="X28" s="38">
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="37">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y28" s="37"/>
-      <c r="Z28" s="37"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="36"/>
       <c r="AD28" s="7" t="s">
         <v>134</v>
       </c>
@@ -4458,29 +4455,29 @@
       <c r="D29" s="9">
         <v>0</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E29" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F29" s="28">
+      <c r="F29" s="27">
         <v>0.8</v>
       </c>
-      <c r="G29" s="29">
+      <c r="G29" s="28">
         <v>1</v>
       </c>
-      <c r="H29" s="26">
+      <c r="H29" s="25">
         <f>MAX(E29,F29)*1.375</f>
         <v>1.1</v>
       </c>
-      <c r="I29" s="26">
+      <c r="I29" s="25">
         <f t="shared" si="13"/>
         <v>1.375</v>
       </c>
-      <c r="J29" s="26">
+      <c r="J29" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K29" s="26">
+      <c r="K29" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4491,33 +4488,33 @@
       <c r="N29" s="17">
         <v>10</v>
       </c>
-      <c r="O29" s="34">
+      <c r="O29" s="33">
         <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q29" s="35">
+      <c r="Q29" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R29" s="35">
+      <c r="R29" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T29" s="7">
         <v>16</v>
       </c>
-      <c r="U29" s="38">
+      <c r="U29" s="37">
         <f t="shared" si="10"/>
         <v>48</v>
       </c>
-      <c r="V29" s="37"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="38">
+      <c r="V29" s="36"/>
+      <c r="W29" s="36"/>
+      <c r="X29" s="37">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="37"/>
+      <c r="Y29" s="36"/>
+      <c r="Z29" s="36"/>
       <c r="AD29" s="7" t="s">
         <v>138</v>
       </c>
@@ -4547,29 +4544,29 @@
       <c r="D30" s="9">
         <v>0</v>
       </c>
-      <c r="E30" s="30">
+      <c r="E30" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F30" s="31">
+      <c r="F30" s="30">
         <v>0.1</v>
       </c>
-      <c r="G30" s="32">
-        <v>0</v>
-      </c>
-      <c r="H30" s="26">
+      <c r="G30" s="31">
+        <v>0</v>
+      </c>
+      <c r="H30" s="25">
         <f>MAX(E30,F30)*1.375</f>
         <v>0.1375</v>
       </c>
-      <c r="I30" s="26">
+      <c r="I30" s="25">
         <f t="shared" si="13"/>
         <v>0.1375</v>
       </c>
-      <c r="J30" s="26">
+      <c r="J30" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K30" s="26">
+      <c r="K30" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4580,33 +4577,33 @@
       <c r="N30" s="17">
         <v>10</v>
       </c>
-      <c r="O30" s="34">
+      <c r="O30" s="33">
         <f t="shared" si="4"/>
         <v>36.57</v>
       </c>
-      <c r="Q30" s="35">
+      <c r="Q30" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R30" s="35">
+      <c r="R30" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T30" s="7">
         <v>16</v>
       </c>
-      <c r="U30" s="38">
+      <c r="U30" s="37">
         <f t="shared" ref="U30:U44" si="14">CEILING(MAX(0,90-MAX(K30,60))*I30/T30,1)*T30</f>
         <v>16</v>
       </c>
-      <c r="V30" s="37"/>
-      <c r="W30" s="37"/>
-      <c r="X30" s="38">
+      <c r="V30" s="36"/>
+      <c r="W30" s="36"/>
+      <c r="X30" s="37">
         <f t="shared" ref="X30:X44" si="15">MIN(CEILING(MAX(0,70-MAX(J30,30))*I30/T30,1)*T30,D30)</f>
         <v>0</v>
       </c>
-      <c r="Y30" s="37"/>
-      <c r="Z30" s="37"/>
+      <c r="Y30" s="36"/>
+      <c r="Z30" s="36"/>
       <c r="AD30" s="7" t="s">
         <v>142</v>
       </c>
@@ -4636,29 +4633,29 @@
       <c r="D31" s="9">
         <v>0</v>
       </c>
-      <c r="E31" s="30">
+      <c r="E31" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F31" s="28">
+      <c r="F31" s="27">
         <v>0.1</v>
       </c>
-      <c r="G31" s="29">
+      <c r="G31" s="28">
         <v>0.1</v>
       </c>
-      <c r="H31" s="26">
+      <c r="H31" s="25">
         <f>MAX(E31,F31)*1.375</f>
         <v>0.1375</v>
       </c>
-      <c r="I31" s="26">
+      <c r="I31" s="25">
         <f t="shared" si="13"/>
         <v>0.1375</v>
       </c>
-      <c r="J31" s="26">
+      <c r="J31" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K31" s="26">
+      <c r="K31" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4669,33 +4666,33 @@
       <c r="N31" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="O31" s="34">
+      <c r="O31" s="33">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="Q31" s="35">
+      <c r="Q31" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R31" s="35">
+      <c r="R31" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T31" s="7">
         <v>30</v>
       </c>
-      <c r="U31" s="38">
+      <c r="U31" s="37">
         <f t="shared" si="14"/>
         <v>30</v>
       </c>
-      <c r="V31" s="37"/>
-      <c r="W31" s="37"/>
-      <c r="X31" s="38">
+      <c r="V31" s="36"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Y31" s="37"/>
-      <c r="Z31" s="37"/>
+      <c r="Y31" s="36"/>
+      <c r="Z31" s="36"/>
       <c r="AD31" s="7" t="s">
         <v>148</v>
       </c>
@@ -4725,7 +4722,7 @@
       <c r="D32" s="9">
         <v>0</v>
       </c>
-      <c r="E32" s="30">
+      <c r="E32" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4735,18 +4732,18 @@
       <c r="G32" s="7">
         <v>2.5</v>
       </c>
-      <c r="H32" s="26">
+      <c r="H32" s="25">
         <v>3.5</v>
       </c>
-      <c r="I32" s="26">
+      <c r="I32" s="25">
         <f t="shared" si="13"/>
         <v>3.85</v>
       </c>
-      <c r="J32" s="26">
+      <c r="J32" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K32" s="26">
+      <c r="K32" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4757,33 +4754,33 @@
       <c r="N32" s="17">
         <v>10</v>
       </c>
-      <c r="O32" s="34">
+      <c r="O32" s="33">
         <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q32" s="35">
+      <c r="Q32" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R32" s="35">
+      <c r="R32" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T32" s="7">
         <v>16</v>
       </c>
-      <c r="U32" s="38">
+      <c r="U32" s="37">
         <f t="shared" si="14"/>
         <v>128</v>
       </c>
-      <c r="V32" s="37"/>
-      <c r="W32" s="37"/>
-      <c r="X32" s="38">
+      <c r="V32" s="36"/>
+      <c r="W32" s="36"/>
+      <c r="X32" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Y32" s="37"/>
-      <c r="Z32" s="37"/>
+      <c r="Y32" s="36"/>
+      <c r="Z32" s="36"/>
       <c r="AD32" s="7" t="s">
         <v>152</v>
       </c>
@@ -4813,7 +4810,7 @@
       <c r="D33" s="9">
         <v>0</v>
       </c>
-      <c r="E33" s="30">
+      <c r="E33" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4823,18 +4820,18 @@
       <c r="G33" s="7">
         <v>0.4</v>
       </c>
-      <c r="H33" s="26">
+      <c r="H33" s="25">
         <v>2</v>
       </c>
-      <c r="I33" s="26">
+      <c r="I33" s="25">
         <f t="shared" si="13"/>
         <v>1.1</v>
       </c>
-      <c r="J33" s="26">
+      <c r="J33" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K33" s="26">
+      <c r="K33" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4845,33 +4842,33 @@
       <c r="N33" s="17">
         <v>10</v>
       </c>
-      <c r="O33" s="34">
+      <c r="O33" s="33">
         <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q33" s="35">
+      <c r="Q33" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R33" s="35">
+      <c r="R33" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T33" s="7">
         <v>16</v>
       </c>
-      <c r="U33" s="38">
+      <c r="U33" s="37">
         <f t="shared" si="14"/>
         <v>48</v>
       </c>
-      <c r="V33" s="37"/>
-      <c r="W33" s="37"/>
-      <c r="X33" s="38">
+      <c r="V33" s="36"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Y33" s="37"/>
-      <c r="Z33" s="37"/>
+      <c r="Y33" s="36"/>
+      <c r="Z33" s="36"/>
       <c r="AD33" s="8" t="s">
         <v>156</v>
       </c>
@@ -4901,7 +4898,7 @@
       <c r="D34" s="9">
         <v>0</v>
       </c>
-      <c r="E34" s="30">
+      <c r="E34" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4911,18 +4908,18 @@
       <c r="G34" s="7">
         <v>1.1</v>
       </c>
-      <c r="H34" s="26">
+      <c r="H34" s="25">
         <v>3</v>
       </c>
-      <c r="I34" s="26">
+      <c r="I34" s="25">
         <f t="shared" si="13"/>
         <v>1.5125</v>
       </c>
-      <c r="J34" s="26">
+      <c r="J34" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K34" s="26">
+      <c r="K34" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4933,33 +4930,33 @@
       <c r="N34" s="17">
         <v>10</v>
       </c>
-      <c r="O34" s="34">
+      <c r="O34" s="33">
         <f t="shared" si="4"/>
         <v>36.57</v>
       </c>
-      <c r="Q34" s="35">
+      <c r="Q34" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R34" s="35">
+      <c r="R34" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T34" s="7">
         <v>32</v>
       </c>
-      <c r="U34" s="38">
+      <c r="U34" s="37">
         <f t="shared" si="14"/>
         <v>64</v>
       </c>
-      <c r="V34" s="37"/>
-      <c r="W34" s="37"/>
-      <c r="X34" s="38">
+      <c r="V34" s="36"/>
+      <c r="W34" s="36"/>
+      <c r="X34" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Y34" s="37"/>
-      <c r="Z34" s="37"/>
+      <c r="Y34" s="36"/>
+      <c r="Z34" s="36"/>
       <c r="AD34" s="7" t="s">
         <v>160</v>
       </c>
@@ -4989,7 +4986,7 @@
       <c r="D35" s="9">
         <v>0</v>
       </c>
-      <c r="E35" s="30">
+      <c r="E35" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4999,18 +4996,18 @@
       <c r="G35" s="7">
         <v>2.2</v>
       </c>
-      <c r="H35" s="26">
+      <c r="H35" s="25">
         <v>4.5</v>
       </c>
-      <c r="I35" s="26">
+      <c r="I35" s="25">
         <f t="shared" si="13"/>
         <v>3.025</v>
       </c>
-      <c r="J35" s="26">
+      <c r="J35" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K35" s="26">
+      <c r="K35" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5021,33 +5018,33 @@
       <c r="N35" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="O35" s="34">
+      <c r="O35" s="33">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="Q35" s="35">
+      <c r="Q35" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R35" s="35">
+      <c r="R35" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T35" s="7">
         <v>32</v>
       </c>
-      <c r="U35" s="38">
+      <c r="U35" s="37">
         <f t="shared" si="14"/>
         <v>96</v>
       </c>
-      <c r="V35" s="37"/>
-      <c r="W35" s="37"/>
-      <c r="X35" s="38">
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Y35" s="37"/>
-      <c r="Z35" s="37"/>
+      <c r="Y35" s="36"/>
+      <c r="Z35" s="36"/>
       <c r="AD35" s="7" t="s">
         <v>166</v>
       </c>
@@ -5077,7 +5074,7 @@
       <c r="D36" s="9">
         <v>0</v>
       </c>
-      <c r="E36" s="30">
+      <c r="E36" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5087,18 +5084,18 @@
       <c r="G36" s="7">
         <v>0.6</v>
       </c>
-      <c r="H36" s="26">
+      <c r="H36" s="25">
         <v>1</v>
       </c>
-      <c r="I36" s="26">
+      <c r="I36" s="25">
         <f t="shared" si="13"/>
         <v>0.9625</v>
       </c>
-      <c r="J36" s="26">
+      <c r="J36" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K36" s="26">
+      <c r="K36" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5109,33 +5106,33 @@
       <c r="N36" s="17">
         <v>10</v>
       </c>
-      <c r="O36" s="34">
+      <c r="O36" s="33">
         <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q36" s="35">
+      <c r="Q36" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R36" s="35">
+      <c r="R36" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T36" s="7">
         <v>16</v>
       </c>
-      <c r="U36" s="38">
+      <c r="U36" s="37">
         <f t="shared" si="14"/>
         <v>32</v>
       </c>
-      <c r="V36" s="37"/>
-      <c r="W36" s="37"/>
-      <c r="X36" s="38">
+      <c r="V36" s="36"/>
+      <c r="W36" s="36"/>
+      <c r="X36" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Y36" s="37"/>
-      <c r="Z36" s="37"/>
+      <c r="Y36" s="36"/>
+      <c r="Z36" s="36"/>
       <c r="AD36" s="7" t="s">
         <v>170</v>
       </c>
@@ -5165,7 +5162,7 @@
       <c r="D37" s="9">
         <v>0</v>
       </c>
-      <c r="E37" s="30">
+      <c r="E37" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5175,18 +5172,18 @@
       <c r="G37" s="7">
         <v>0.5</v>
       </c>
-      <c r="H37" s="26">
+      <c r="H37" s="25">
         <v>1</v>
       </c>
-      <c r="I37" s="26">
+      <c r="I37" s="25">
         <f t="shared" si="13"/>
         <v>0.6875</v>
       </c>
-      <c r="J37" s="26">
+      <c r="J37" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K37" s="26">
+      <c r="K37" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5197,33 +5194,33 @@
       <c r="N37" s="17">
         <v>10</v>
       </c>
-      <c r="O37" s="34">
+      <c r="O37" s="33">
         <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q37" s="35">
+      <c r="Q37" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R37" s="35">
+      <c r="R37" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T37" s="7">
         <v>16</v>
       </c>
-      <c r="U37" s="38">
+      <c r="U37" s="37">
         <f t="shared" si="14"/>
         <v>32</v>
       </c>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="38">
+      <c r="V37" s="36"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Y37" s="37"/>
-      <c r="Z37" s="37"/>
+      <c r="Y37" s="36"/>
+      <c r="Z37" s="36"/>
       <c r="AD37" s="8" t="s">
         <v>174</v>
       </c>
@@ -5253,7 +5250,7 @@
       <c r="D38" s="9">
         <v>0</v>
       </c>
-      <c r="E38" s="27">
+      <c r="E38" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5263,18 +5260,18 @@
       <c r="G38" s="7">
         <v>1</v>
       </c>
-      <c r="H38" s="26">
+      <c r="H38" s="25">
         <v>3.5</v>
       </c>
-      <c r="I38" s="26">
+      <c r="I38" s="25">
         <f t="shared" si="13"/>
         <v>3.4375</v>
       </c>
-      <c r="J38" s="26">
+      <c r="J38" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K38" s="26">
+      <c r="K38" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5285,33 +5282,33 @@
       <c r="N38" s="17">
         <v>10</v>
       </c>
-      <c r="O38" s="34">
+      <c r="O38" s="33">
         <f t="shared" si="4"/>
         <v>34.37</v>
       </c>
-      <c r="Q38" s="35">
+      <c r="Q38" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R38" s="35">
+      <c r="R38" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T38" s="7">
         <v>16</v>
       </c>
-      <c r="U38" s="38">
+      <c r="U38" s="37">
         <f t="shared" si="14"/>
         <v>112</v>
       </c>
-      <c r="V38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="38">
+      <c r="V38" s="36"/>
+      <c r="W38" s="36"/>
+      <c r="X38" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Y38" s="37"/>
-      <c r="Z38" s="37"/>
+      <c r="Y38" s="36"/>
+      <c r="Z38" s="36"/>
       <c r="AD38" s="7" t="s">
         <v>178</v>
       </c>
@@ -5341,7 +5338,7 @@
       <c r="D39" s="9">
         <v>0</v>
       </c>
-      <c r="E39" s="27">
+      <c r="E39" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5351,19 +5348,19 @@
       <c r="G39" s="7">
         <v>0.3</v>
       </c>
-      <c r="H39" s="26">
+      <c r="H39" s="25">
         <f t="shared" ref="H39:H51" si="16">MAX(E39,F39)*1.375</f>
         <v>0.55</v>
       </c>
-      <c r="I39" s="26">
+      <c r="I39" s="25">
         <f t="shared" si="13"/>
         <v>0.55</v>
       </c>
-      <c r="J39" s="26">
+      <c r="J39" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K39" s="26">
+      <c r="K39" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5374,33 +5371,33 @@
       <c r="N39" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="O39" s="34">
+      <c r="O39" s="33">
         <f t="shared" si="4"/>
         <v>30.8</v>
       </c>
-      <c r="Q39" s="35">
+      <c r="Q39" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R39" s="35">
+      <c r="R39" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T39" s="7">
         <v>20</v>
       </c>
-      <c r="U39" s="38">
+      <c r="U39" s="37">
         <f t="shared" si="14"/>
         <v>20</v>
       </c>
-      <c r="V39" s="37"/>
-      <c r="W39" s="37"/>
-      <c r="X39" s="38">
+      <c r="V39" s="36"/>
+      <c r="W39" s="36"/>
+      <c r="X39" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Y39" s="37"/>
-      <c r="Z39" s="37"/>
+      <c r="Y39" s="36"/>
+      <c r="Z39" s="36"/>
       <c r="AD39" s="7" t="s">
         <v>184</v>
       </c>
@@ -5430,7 +5427,7 @@
       <c r="D40" s="9">
         <v>0</v>
       </c>
-      <c r="E40" s="27">
+      <c r="E40" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5440,19 +5437,19 @@
       <c r="G40" s="7">
         <v>0.1</v>
       </c>
-      <c r="H40" s="26">
+      <c r="H40" s="25">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I40" s="26">
+      <c r="I40" s="25">
         <f t="shared" si="13"/>
         <v>0.1375</v>
       </c>
-      <c r="J40" s="26">
+      <c r="J40" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K40" s="26">
+      <c r="K40" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5463,33 +5460,33 @@
       <c r="N40" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="O40" s="34">
+      <c r="O40" s="33">
         <f t="shared" si="4"/>
         <v>32.8</v>
       </c>
-      <c r="Q40" s="35">
+      <c r="Q40" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R40" s="35">
+      <c r="R40" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T40" s="7">
         <v>20</v>
       </c>
-      <c r="U40" s="38">
+      <c r="U40" s="37">
         <f t="shared" si="14"/>
         <v>20</v>
       </c>
-      <c r="V40" s="37"/>
-      <c r="W40" s="37"/>
-      <c r="X40" s="38">
+      <c r="V40" s="36"/>
+      <c r="W40" s="36"/>
+      <c r="X40" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Y40" s="37"/>
-      <c r="Z40" s="37"/>
+      <c r="Y40" s="36"/>
+      <c r="Z40" s="36"/>
       <c r="AD40" s="7" t="s">
         <v>188</v>
       </c>
@@ -5519,7 +5516,7 @@
       <c r="D41" s="9">
         <v>0</v>
       </c>
-      <c r="E41" s="27">
+      <c r="E41" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5529,18 +5526,18 @@
       <c r="G41" s="7">
         <v>0</v>
       </c>
-      <c r="H41" s="26">
+      <c r="H41" s="25">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I41" s="26">
+      <c r="I41" s="25">
         <v>1</v>
       </c>
-      <c r="J41" s="26">
+      <c r="J41" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K41" s="26">
+      <c r="K41" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5550,33 +5547,33 @@
       <c r="N41" s="17">
         <v>10</v>
       </c>
-      <c r="O41" s="34">
+      <c r="O41" s="33">
         <f t="shared" si="4"/>
         <v>36.57</v>
       </c>
-      <c r="Q41" s="35">
+      <c r="Q41" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R41" s="35">
+      <c r="R41" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T41" s="7">
         <v>16</v>
       </c>
-      <c r="U41" s="38">
+      <c r="U41" s="37">
         <f t="shared" si="14"/>
         <v>32</v>
       </c>
-      <c r="V41" s="37"/>
-      <c r="W41" s="37"/>
-      <c r="X41" s="38">
+      <c r="V41" s="36"/>
+      <c r="W41" s="36"/>
+      <c r="X41" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Y41" s="37"/>
-      <c r="Z41" s="37"/>
+      <c r="Y41" s="36"/>
+      <c r="Z41" s="36"/>
       <c r="AD41" s="7" t="s">
         <v>192</v>
       </c>
@@ -5606,7 +5603,7 @@
       <c r="D42" s="9">
         <v>0</v>
       </c>
-      <c r="E42" s="27">
+      <c r="E42" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5616,18 +5613,18 @@
       <c r="G42" s="7">
         <v>0</v>
       </c>
-      <c r="H42" s="26">
+      <c r="H42" s="25">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I42" s="26">
+      <c r="I42" s="25">
         <v>1</v>
       </c>
-      <c r="J42" s="26">
+      <c r="J42" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K42" s="26">
+      <c r="K42" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5637,33 +5634,33 @@
       <c r="N42" s="17">
         <v>10</v>
       </c>
-      <c r="O42" s="34">
+      <c r="O42" s="33">
         <f t="shared" si="4"/>
         <v>36.57</v>
       </c>
-      <c r="Q42" s="35">
+      <c r="Q42" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R42" s="35">
+      <c r="R42" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T42" s="7">
         <v>16</v>
       </c>
-      <c r="U42" s="38">
+      <c r="U42" s="37">
         <f t="shared" si="14"/>
         <v>32</v>
       </c>
-      <c r="V42" s="37"/>
-      <c r="W42" s="37"/>
-      <c r="X42" s="38">
+      <c r="V42" s="36"/>
+      <c r="W42" s="36"/>
+      <c r="X42" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Y42" s="37"/>
-      <c r="Z42" s="37"/>
+      <c r="Y42" s="36"/>
+      <c r="Z42" s="36"/>
       <c r="AD42" s="7" t="s">
         <v>196</v>
       </c>
@@ -5693,7 +5690,7 @@
       <c r="D43" s="9">
         <v>0</v>
       </c>
-      <c r="E43" s="27">
+      <c r="E43" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5703,18 +5700,18 @@
       <c r="G43" s="7">
         <v>0</v>
       </c>
-      <c r="H43" s="26">
+      <c r="H43" s="25">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I43" s="26">
+      <c r="I43" s="25">
         <v>1</v>
       </c>
-      <c r="J43" s="26">
+      <c r="J43" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K43" s="26">
+      <c r="K43" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5724,33 +5721,33 @@
       <c r="N43" s="7">
         <v>5</v>
       </c>
-      <c r="O43" s="34">
+      <c r="O43" s="33">
         <f t="shared" si="4"/>
         <v>18.3</v>
       </c>
-      <c r="Q43" s="35">
+      <c r="Q43" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R43" s="35">
+      <c r="R43" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T43" s="7">
         <v>32</v>
       </c>
-      <c r="U43" s="38">
+      <c r="U43" s="37">
         <f t="shared" si="14"/>
         <v>32</v>
       </c>
-      <c r="V43" s="37"/>
-      <c r="W43" s="37"/>
-      <c r="X43" s="38">
+      <c r="V43" s="36"/>
+      <c r="W43" s="36"/>
+      <c r="X43" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Y43" s="37"/>
-      <c r="Z43" s="37"/>
+      <c r="Y43" s="36"/>
+      <c r="Z43" s="36"/>
       <c r="AD43" s="7" t="s">
         <v>200</v>
       </c>
@@ -5780,7 +5777,7 @@
       <c r="D44" s="9">
         <v>0</v>
       </c>
-      <c r="E44" s="27">
+      <c r="E44" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5790,18 +5787,18 @@
       <c r="G44" s="7">
         <v>0</v>
       </c>
-      <c r="H44" s="26">
+      <c r="H44" s="25">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I44" s="26">
+      <c r="I44" s="25">
         <v>1</v>
       </c>
-      <c r="J44" s="26">
+      <c r="J44" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K44" s="26">
+      <c r="K44" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5811,33 +5808,33 @@
       <c r="N44" s="7">
         <v>3</v>
       </c>
-      <c r="O44" s="34">
+      <c r="O44" s="33">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="Q44" s="35">
+      <c r="Q44" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R44" s="35">
+      <c r="R44" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T44" s="7">
         <v>72</v>
       </c>
-      <c r="U44" s="38">
+      <c r="U44" s="37">
         <f t="shared" si="14"/>
         <v>72</v>
       </c>
-      <c r="V44" s="37"/>
-      <c r="W44" s="37"/>
-      <c r="X44" s="38">
+      <c r="V44" s="36"/>
+      <c r="W44" s="36"/>
+      <c r="X44" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Y44" s="37"/>
-      <c r="Z44" s="37"/>
+      <c r="Y44" s="36"/>
+      <c r="Z44" s="36"/>
       <c r="AD44" s="7" t="s">
         <v>204</v>
       </c>
@@ -5855,10 +5852,10 @@
       </c>
     </row>
     <row r="45" ht="25" customHeight="1" spans="1:34">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="7" t="s">
         <v>207</v>
       </c>
       <c r="C45" s="9">
@@ -5867,7 +5864,7 @@
       <c r="D45" s="9">
         <v>0</v>
       </c>
-      <c r="E45" s="27">
+      <c r="E45" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5877,62 +5874,62 @@
       <c r="G45" s="7">
         <v>0</v>
       </c>
-      <c r="H45" s="26">
+      <c r="H45" s="25">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I45" s="26">
+      <c r="I45" s="25">
         <v>1</v>
       </c>
-      <c r="J45" s="26">
+      <c r="J45" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K45" s="26">
+      <c r="K45" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M45" s="24">
+      <c r="M45" s="7">
         <v>39</v>
       </c>
-      <c r="N45" s="24">
+      <c r="N45" s="7">
         <v>12</v>
       </c>
-      <c r="O45" s="34">
-        <f>M45+N45</f>
+      <c r="O45" s="33">
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
-      <c r="Q45" s="35">
+      <c r="Q45" s="34">
         <f t="shared" ref="Q45:Q51" si="17">M45*C45</f>
         <v>0</v>
       </c>
-      <c r="R45" s="35">
+      <c r="R45" s="34">
         <f t="shared" ref="R45:R51" si="18">M45*D45</f>
         <v>0</v>
       </c>
-      <c r="T45" s="24">
+      <c r="T45" s="7">
         <v>18</v>
       </c>
-      <c r="U45" s="38">
+      <c r="U45" s="37">
         <f t="shared" ref="U45:U51" si="19">CEILING(MAX(0,90-MAX(K45,60))*I45/T45,1)*T45</f>
         <v>36</v>
       </c>
-      <c r="V45" s="37"/>
-      <c r="W45" s="37"/>
-      <c r="X45" s="38">
+      <c r="V45" s="36"/>
+      <c r="W45" s="36"/>
+      <c r="X45" s="37">
         <f t="shared" ref="X45:X51" si="20">MIN(CEILING(MAX(0,70-MAX(J45,30))*I45/T45,1)*T45,D45)</f>
         <v>0</v>
       </c>
-      <c r="Y45" s="37"/>
-      <c r="Z45" s="37"/>
-      <c r="AD45" s="24" t="s">
+      <c r="Y45" s="36"/>
+      <c r="Z45" s="36"/>
+      <c r="AD45" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="AE45" s="24" t="s">
+      <c r="AE45" s="7" t="s">
         <v>209</v>
       </c>
       <c r="AF45" s="7">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="AG45" s="7">
         <v>37</v>
@@ -5942,10 +5939,10 @@
       </c>
     </row>
     <row r="46" ht="25" customHeight="1" spans="1:34">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="7" t="s">
         <v>211</v>
       </c>
       <c r="C46" s="9">
@@ -5954,7 +5951,7 @@
       <c r="D46" s="9">
         <v>0</v>
       </c>
-      <c r="E46" s="27">
+      <c r="E46" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5964,62 +5961,62 @@
       <c r="G46" s="7">
         <v>0</v>
       </c>
-      <c r="H46" s="26">
+      <c r="H46" s="25">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I46" s="26">
+      <c r="I46" s="25">
         <v>1</v>
       </c>
-      <c r="J46" s="26">
+      <c r="J46" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K46" s="26">
+      <c r="K46" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M46" s="24">
+      <c r="M46" s="7">
         <v>19.5</v>
       </c>
       <c r="N46" s="17">
         <v>6</v>
       </c>
-      <c r="O46" s="34">
+      <c r="O46" s="33">
         <f t="shared" ref="O46:O51" si="21">M46+N46</f>
         <v>25.5</v>
       </c>
-      <c r="Q46" s="35">
+      <c r="Q46" s="34">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="R46" s="35">
+      <c r="R46" s="34">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T46" s="7">
-        <v>36</v>
-      </c>
-      <c r="U46" s="38">
+        <v>20</v>
+      </c>
+      <c r="U46" s="37">
         <f t="shared" si="19"/>
-        <v>36</v>
-      </c>
-      <c r="V46" s="37"/>
-      <c r="W46" s="37"/>
-      <c r="X46" s="38">
+        <v>40</v>
+      </c>
+      <c r="V46" s="36"/>
+      <c r="W46" s="36"/>
+      <c r="X46" s="37">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="Y46" s="37"/>
-      <c r="Z46" s="37"/>
-      <c r="AD46" s="24" t="s">
+      <c r="Y46" s="36"/>
+      <c r="Z46" s="36"/>
+      <c r="AD46" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="AE46" s="24" t="s">
+      <c r="AE46" s="7" t="s">
         <v>213</v>
       </c>
       <c r="AF46" s="7">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="AG46" s="7">
         <v>37</v>
@@ -6029,10 +6026,10 @@
       </c>
     </row>
     <row r="47" ht="25" customHeight="1" spans="1:34">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="7" t="s">
         <v>215</v>
       </c>
       <c r="C47" s="9">
@@ -6041,7 +6038,7 @@
       <c r="D47" s="9">
         <v>0</v>
       </c>
-      <c r="E47" s="27">
+      <c r="E47" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6051,62 +6048,62 @@
       <c r="G47" s="7">
         <v>0</v>
       </c>
-      <c r="H47" s="26">
+      <c r="H47" s="25">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I47" s="26">
+      <c r="I47" s="25">
         <v>1</v>
       </c>
-      <c r="J47" s="26">
+      <c r="J47" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K47" s="26">
+      <c r="K47" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M47" s="24">
+      <c r="M47" s="7">
         <v>19.5</v>
       </c>
       <c r="N47" s="17">
         <v>6</v>
       </c>
-      <c r="O47" s="34">
+      <c r="O47" s="33">
         <f t="shared" si="21"/>
         <v>25.5</v>
       </c>
-      <c r="Q47" s="35">
+      <c r="Q47" s="34">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="R47" s="35">
+      <c r="R47" s="34">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T47" s="7">
-        <v>36</v>
-      </c>
-      <c r="U47" s="38">
+        <v>20</v>
+      </c>
+      <c r="U47" s="37">
         <f t="shared" si="19"/>
-        <v>36</v>
-      </c>
-      <c r="V47" s="37"/>
-      <c r="W47" s="37"/>
-      <c r="X47" s="38">
+        <v>40</v>
+      </c>
+      <c r="V47" s="36"/>
+      <c r="W47" s="36"/>
+      <c r="X47" s="37">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="Y47" s="37"/>
-      <c r="Z47" s="37"/>
-      <c r="AD47" s="24" t="s">
+      <c r="Y47" s="36"/>
+      <c r="Z47" s="36"/>
+      <c r="AD47" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="AE47" s="24" t="s">
+      <c r="AE47" s="7" t="s">
         <v>217</v>
       </c>
       <c r="AF47" s="7">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="AG47" s="7">
         <v>37</v>
@@ -6116,10 +6113,10 @@
       </c>
     </row>
     <row r="48" ht="25" customHeight="1" spans="1:34">
-      <c r="A48" s="24" t="s">
+      <c r="A48" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="7" t="s">
         <v>219</v>
       </c>
       <c r="C48" s="9">
@@ -6128,7 +6125,7 @@
       <c r="D48" s="9">
         <v>0</v>
       </c>
-      <c r="E48" s="27">
+      <c r="E48" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6138,58 +6135,58 @@
       <c r="G48" s="7">
         <v>0</v>
       </c>
-      <c r="H48" s="26">
+      <c r="H48" s="25">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I48" s="26">
+      <c r="I48" s="25">
         <v>1</v>
       </c>
-      <c r="J48" s="26">
+      <c r="J48" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K48" s="26">
+      <c r="K48" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M48" s="24">
+      <c r="M48" s="7">
         <v>19.5</v>
       </c>
       <c r="N48" s="17">
         <v>6</v>
       </c>
-      <c r="O48" s="34">
+      <c r="O48" s="33">
         <f t="shared" si="21"/>
         <v>25.5</v>
       </c>
-      <c r="Q48" s="35">
+      <c r="Q48" s="34">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="R48" s="35">
+      <c r="R48" s="34">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T48" s="7">
-        <v>36</v>
-      </c>
-      <c r="U48" s="38">
+        <v>20</v>
+      </c>
+      <c r="U48" s="37">
         <f t="shared" si="19"/>
-        <v>36</v>
-      </c>
-      <c r="V48" s="37"/>
-      <c r="W48" s="37"/>
-      <c r="X48" s="38">
+        <v>40</v>
+      </c>
+      <c r="V48" s="36"/>
+      <c r="W48" s="36"/>
+      <c r="X48" s="37">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="Y48" s="37"/>
-      <c r="Z48" s="37"/>
-      <c r="AD48" s="24" t="s">
+      <c r="Y48" s="36"/>
+      <c r="Z48" s="36"/>
+      <c r="AD48" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="AE48" s="24" t="s">
+      <c r="AE48" s="7" t="s">
         <v>221</v>
       </c>
       <c r="AF48" s="7">
@@ -6203,10 +6200,10 @@
       </c>
     </row>
     <row r="49" ht="25" customHeight="1" spans="1:34">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="7" t="s">
         <v>223</v>
       </c>
       <c r="C49" s="9">
@@ -6215,7 +6212,7 @@
       <c r="D49" s="9">
         <v>0</v>
       </c>
-      <c r="E49" s="27">
+      <c r="E49" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6225,18 +6222,18 @@
       <c r="G49" s="7">
         <v>0</v>
       </c>
-      <c r="H49" s="26">
+      <c r="H49" s="25">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I49" s="26">
+      <c r="I49" s="25">
         <v>1</v>
       </c>
-      <c r="J49" s="26">
+      <c r="J49" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K49" s="26">
+      <c r="K49" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6246,37 +6243,37 @@
       <c r="N49" s="17">
         <v>10</v>
       </c>
-      <c r="O49" s="34">
+      <c r="O49" s="33">
         <f t="shared" si="21"/>
         <v>34.37</v>
       </c>
-      <c r="Q49" s="35">
+      <c r="Q49" s="34">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="R49" s="35">
+      <c r="R49" s="34">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T49" s="7">
         <v>16</v>
       </c>
-      <c r="U49" s="38">
+      <c r="U49" s="37">
         <f t="shared" si="19"/>
         <v>32</v>
       </c>
-      <c r="V49" s="37"/>
-      <c r="W49" s="37"/>
-      <c r="X49" s="38">
+      <c r="V49" s="36"/>
+      <c r="W49" s="36"/>
+      <c r="X49" s="37">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="Y49" s="37"/>
-      <c r="Z49" s="37"/>
-      <c r="AD49" s="24" t="s">
+      <c r="Y49" s="36"/>
+      <c r="Z49" s="36"/>
+      <c r="AD49" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="AE49" s="24" t="s">
+      <c r="AE49" s="7" t="s">
         <v>225</v>
       </c>
       <c r="AF49" s="7">
@@ -6290,10 +6287,10 @@
       </c>
     </row>
     <row r="50" ht="25" customHeight="1" spans="1:34">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="7" t="s">
         <v>227</v>
       </c>
       <c r="C50" s="9">
@@ -6302,7 +6299,7 @@
       <c r="D50" s="9">
         <v>0</v>
       </c>
-      <c r="E50" s="27">
+      <c r="E50" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6312,18 +6309,18 @@
       <c r="G50" s="7">
         <v>0</v>
       </c>
-      <c r="H50" s="26">
+      <c r="H50" s="25">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I50" s="26">
+      <c r="I50" s="25">
         <v>1</v>
       </c>
-      <c r="J50" s="26">
+      <c r="J50" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K50" s="26">
+      <c r="K50" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6333,37 +6330,37 @@
       <c r="N50" s="17">
         <v>10</v>
       </c>
-      <c r="O50" s="34">
+      <c r="O50" s="33">
         <f t="shared" si="21"/>
         <v>34.37</v>
       </c>
-      <c r="Q50" s="35">
+      <c r="Q50" s="34">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="R50" s="35">
+      <c r="R50" s="34">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T50" s="7">
         <v>16</v>
       </c>
-      <c r="U50" s="38">
+      <c r="U50" s="37">
         <f t="shared" si="19"/>
         <v>32</v>
       </c>
-      <c r="V50" s="37"/>
-      <c r="W50" s="37"/>
-      <c r="X50" s="38">
+      <c r="V50" s="36"/>
+      <c r="W50" s="36"/>
+      <c r="X50" s="37">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="Y50" s="37"/>
-      <c r="Z50" s="37"/>
-      <c r="AD50" s="24" t="s">
+      <c r="Y50" s="36"/>
+      <c r="Z50" s="36"/>
+      <c r="AD50" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="AE50" s="24" t="s">
+      <c r="AE50" s="7" t="s">
         <v>229</v>
       </c>
       <c r="AF50" s="7">
@@ -6377,10 +6374,10 @@
       </c>
     </row>
     <row r="51" ht="25" customHeight="1" spans="1:34">
-      <c r="A51" s="24" t="s">
+      <c r="A51" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="B51" s="24" t="s">
+      <c r="B51" s="7" t="s">
         <v>231</v>
       </c>
       <c r="C51" s="9">
@@ -6389,7 +6386,7 @@
       <c r="D51" s="9">
         <v>0</v>
       </c>
-      <c r="E51" s="27">
+      <c r="E51" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6399,18 +6396,18 @@
       <c r="G51" s="7">
         <v>0</v>
       </c>
-      <c r="H51" s="26">
+      <c r="H51" s="25">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I51" s="26">
+      <c r="I51" s="25">
         <v>1</v>
       </c>
-      <c r="J51" s="26">
+      <c r="J51" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K51" s="26">
+      <c r="K51" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6420,37 +6417,37 @@
       <c r="N51" s="7">
         <v>5</v>
       </c>
-      <c r="O51" s="34">
+      <c r="O51" s="33">
         <f t="shared" si="21"/>
         <v>18.3</v>
       </c>
-      <c r="Q51" s="35">
+      <c r="Q51" s="34">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="R51" s="35">
+      <c r="R51" s="34">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T51" s="24">
+      <c r="T51" s="7">
         <v>32</v>
       </c>
-      <c r="U51" s="38">
+      <c r="U51" s="37">
         <f t="shared" si="19"/>
         <v>32</v>
       </c>
-      <c r="V51" s="37"/>
-      <c r="W51" s="37"/>
-      <c r="X51" s="38">
+      <c r="V51" s="36"/>
+      <c r="W51" s="36"/>
+      <c r="X51" s="37">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="Y51" s="37"/>
-      <c r="Z51" s="37"/>
-      <c r="AD51" s="24" t="s">
+      <c r="Y51" s="36"/>
+      <c r="Z51" s="36"/>
+      <c r="AD51" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="AE51" s="24" t="s">
+      <c r="AE51" s="7" t="s">
         <v>233</v>
       </c>
       <c r="AF51" s="7">
@@ -6484,7 +6481,7 @@
     <row r="70" ht="25" customHeight="1"/>
     <row r="71" ht="25" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:AH44">
+  <autoFilter ref="A1:AH51">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="J45">

--- a/dist/产品库存及周转统计.xlsx
+++ b/dist/产品库存及周转统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="20900"/>
+    <workbookView windowWidth="28000" windowHeight="15860"/>
   </bookViews>
   <sheets>
     <sheet name="产品库存" sheetId="1" r:id="rId1"/>
@@ -531,7 +531,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>BedSideCaddy-2pockets-Greyipcs-New</t>
+    <t>BedSideCaddy-2pockets-Grey1pcs-New</t>
   </si>
   <si>
     <t>X004RETHGT</t>
@@ -1934,11 +1934,11 @@
   <dimension ref="A1:AH71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S22" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE13" sqref="AE13"/>
+      <selection pane="bottomRight" activeCell="AI34" sqref="AI34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>

--- a/dist/产品库存及周转统计.xlsx
+++ b/dist/产品库存及周转统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="15860"/>
+    <workbookView windowWidth="32320" windowHeight="16160"/>
   </bookViews>
   <sheets>
     <sheet name="产品库存" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="244">
   <si>
     <t>名称</t>
   </si>
@@ -733,6 +733,36 @@
   </si>
   <si>
     <t>X004RF6SC9</t>
+  </si>
+  <si>
+    <t>【大】三袋白色(2p)</t>
+  </si>
+  <si>
+    <t>hangingbag_new_3pocket_white_2pcs</t>
+  </si>
+  <si>
+    <t>X004U0KWVT</t>
+  </si>
+  <si>
+    <t>【大】三袋浅灰(2p)</t>
+  </si>
+  <si>
+    <t>B0FQKG9KLP</t>
+  </si>
+  <si>
+    <t>hangingbag_new_3pocket_lightgray2pcs</t>
+  </si>
+  <si>
+    <t>X004U0QH59</t>
+  </si>
+  <si>
+    <t>【大】黑格子(2p)</t>
+  </si>
+  <si>
+    <t>F6-FGWG-6SC8</t>
+  </si>
+  <si>
+    <t>X00334LMMB</t>
   </si>
 </sst>
 </file>
@@ -1934,11 +1964,11 @@
   <dimension ref="A1:AH71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="R36" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AI34" sqref="AI34"/>
+      <selection pane="bottomRight" activeCell="AL50" sqref="AL50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2069,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="26">
-        <f t="shared" ref="E2:E51" si="0">C2+D2</f>
+        <f t="shared" ref="E2:E53" si="0">C2+D2</f>
         <v>0</v>
       </c>
       <c r="F2" s="27">
@@ -2086,11 +2116,11 @@
         <v>22.55</v>
       </c>
       <c r="J2" s="25">
-        <f t="shared" ref="J2:J51" si="2">(C2)/I2</f>
+        <f t="shared" ref="J2:J53" si="2">(C2)/I2</f>
         <v>0</v>
       </c>
       <c r="K2" s="25">
-        <f t="shared" ref="K2:K51" si="3">(E2)/I2</f>
+        <f t="shared" ref="K2:K53" si="3">(E2)/I2</f>
         <v>0</v>
       </c>
       <c r="L2" s="17"/>
@@ -5900,24 +5930,24 @@
         <v>51</v>
       </c>
       <c r="Q45" s="34">
-        <f t="shared" ref="Q45:Q51" si="17">M45*C45</f>
+        <f t="shared" ref="Q45:Q53" si="17">M45*C45</f>
         <v>0</v>
       </c>
       <c r="R45" s="34">
-        <f t="shared" ref="R45:R51" si="18">M45*D45</f>
+        <f t="shared" ref="R45:R53" si="18">M45*D45</f>
         <v>0</v>
       </c>
       <c r="T45" s="7">
         <v>18</v>
       </c>
       <c r="U45" s="37">
-        <f t="shared" ref="U45:U51" si="19">CEILING(MAX(0,90-MAX(K45,60))*I45/T45,1)*T45</f>
+        <f t="shared" ref="U45:U53" si="19">CEILING(MAX(0,90-MAX(K45,60))*I45/T45,1)*T45</f>
         <v>36</v>
       </c>
       <c r="V45" s="36"/>
       <c r="W45" s="36"/>
       <c r="X45" s="37">
-        <f t="shared" ref="X45:X51" si="20">MIN(CEILING(MAX(0,70-MAX(J45,30))*I45/T45,1)*T45,D45)</f>
+        <f t="shared" ref="X45:X53" si="20">MIN(CEILING(MAX(0,70-MAX(J45,30))*I45/T45,1)*T45,D45)</f>
         <v>0</v>
       </c>
       <c r="Y45" s="36"/>
@@ -5983,7 +6013,7 @@
         <v>6</v>
       </c>
       <c r="O46" s="33">
-        <f t="shared" ref="O46:O51" si="21">M46+N46</f>
+        <f t="shared" ref="O46:O53" si="21">M46+N46</f>
         <v>25.5</v>
       </c>
       <c r="Q46" s="34">
@@ -6460,9 +6490,269 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" ht="25" customHeight="1"/>
-    <row r="53" ht="25" customHeight="1"/>
-    <row r="54" ht="25" customHeight="1"/>
+    <row r="52" ht="25" customHeight="1" spans="1:34">
+      <c r="A52" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C52" s="9">
+        <v>0</v>
+      </c>
+      <c r="D52" s="9">
+        <v>0</v>
+      </c>
+      <c r="E52" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F52" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G52" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H52" s="25">
+        <v>1</v>
+      </c>
+      <c r="I52" s="25">
+        <f>MAX(F52,G52)*1.375</f>
+        <v>0.6875</v>
+      </c>
+      <c r="J52" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17">
+        <v>24.37</v>
+      </c>
+      <c r="N52" s="17">
+        <v>10</v>
+      </c>
+      <c r="O52" s="33">
+        <f t="shared" si="21"/>
+        <v>34.37</v>
+      </c>
+      <c r="Q52" s="34">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="R52" s="34">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T52" s="7">
+        <v>16</v>
+      </c>
+      <c r="U52" s="37">
+        <f t="shared" si="19"/>
+        <v>32</v>
+      </c>
+      <c r="V52" s="36"/>
+      <c r="W52" s="36"/>
+      <c r="X52" s="37">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y52" s="36"/>
+      <c r="Z52" s="36"/>
+      <c r="AD52" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AE52" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF52" s="7">
+        <v>30</v>
+      </c>
+      <c r="AG52" s="7">
+        <v>40</v>
+      </c>
+      <c r="AH52" s="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" ht="25" customHeight="1" spans="1:34">
+      <c r="A53" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C53" s="9">
+        <v>0</v>
+      </c>
+      <c r="D53" s="9">
+        <v>0</v>
+      </c>
+      <c r="E53" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F53" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G53" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H53" s="25">
+        <v>1</v>
+      </c>
+      <c r="I53" s="25">
+        <f>MAX(F53,G53)*1.375</f>
+        <v>0.6875</v>
+      </c>
+      <c r="J53" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17">
+        <v>24.37</v>
+      </c>
+      <c r="N53" s="17">
+        <v>10</v>
+      </c>
+      <c r="O53" s="33">
+        <f t="shared" si="21"/>
+        <v>34.37</v>
+      </c>
+      <c r="Q53" s="34">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="R53" s="34">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T53" s="7">
+        <v>16</v>
+      </c>
+      <c r="U53" s="37">
+        <f t="shared" si="19"/>
+        <v>32</v>
+      </c>
+      <c r="V53" s="36"/>
+      <c r="W53" s="36"/>
+      <c r="X53" s="37">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y53" s="36"/>
+      <c r="Z53" s="36"/>
+      <c r="AD53" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AE53" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF53" s="7">
+        <v>30</v>
+      </c>
+      <c r="AG53" s="7">
+        <v>40</v>
+      </c>
+      <c r="AH53" s="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" ht="25" customHeight="1" spans="1:34">
+      <c r="A54" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="C54" s="9">
+        <v>0</v>
+      </c>
+      <c r="D54" s="9">
+        <v>0</v>
+      </c>
+      <c r="E54" s="26">
+        <f>C54+D54</f>
+        <v>0</v>
+      </c>
+      <c r="F54" s="27">
+        <v>0</v>
+      </c>
+      <c r="G54" s="28">
+        <v>0</v>
+      </c>
+      <c r="H54" s="25">
+        <v>0</v>
+      </c>
+      <c r="I54" s="25">
+        <v>1</v>
+      </c>
+      <c r="J54" s="25">
+        <f>(C54)/I54</f>
+        <v>0</v>
+      </c>
+      <c r="K54" s="25">
+        <f>(E54)/I54</f>
+        <v>0</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17">
+        <v>24.37</v>
+      </c>
+      <c r="N54" s="17">
+        <v>10</v>
+      </c>
+      <c r="O54" s="33">
+        <f>M54+N54</f>
+        <v>34.37</v>
+      </c>
+      <c r="Q54" s="34">
+        <f>M54*C54</f>
+        <v>0</v>
+      </c>
+      <c r="R54" s="34">
+        <f>M54*D54</f>
+        <v>0</v>
+      </c>
+      <c r="T54" s="7">
+        <v>16</v>
+      </c>
+      <c r="U54" s="37">
+        <f>CEILING(MAX(0,90-MAX(K54,60))*I54/T54,1)*T54</f>
+        <v>32</v>
+      </c>
+      <c r="V54" s="36"/>
+      <c r="W54" s="36"/>
+      <c r="X54" s="37">
+        <f>MIN(CEILING(MAX(0,70-MAX(J54,30))*I54/T54,1)*T54,D54)</f>
+        <v>0</v>
+      </c>
+      <c r="Y54" s="36"/>
+      <c r="Z54" s="36"/>
+      <c r="AD54" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AE54" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF54" s="7">
+        <v>30</v>
+      </c>
+      <c r="AG54" s="7">
+        <v>40</v>
+      </c>
+      <c r="AH54" s="7">
+        <v>45</v>
+      </c>
+    </row>
     <row r="55" ht="25" customHeight="1"/>
     <row r="56" ht="25" customHeight="1"/>
     <row r="57" ht="25" customHeight="1"/>
@@ -6485,200 +6775,266 @@
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="J45">
+    <cfRule type="cellIs" dxfId="0" priority="60" operator="lessThanOrEqual">
+      <formula>70</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="59" operator="lessThanOrEqual">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="58" operator="greaterThanOrEqual">
+      <formula>105</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K45">
+    <cfRule type="cellIs" dxfId="0" priority="57" operator="lessThanOrEqual">
+      <formula>70</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="56" operator="lessThanOrEqual">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="55" operator="greaterThanOrEqual">
+      <formula>105</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J46">
+    <cfRule type="cellIs" dxfId="0" priority="54" operator="lessThanOrEqual">
+      <formula>70</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="53" operator="lessThanOrEqual">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="52" operator="greaterThanOrEqual">
+      <formula>105</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K46">
+    <cfRule type="cellIs" dxfId="0" priority="51" operator="lessThanOrEqual">
+      <formula>70</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="50" operator="lessThanOrEqual">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="49" operator="greaterThanOrEqual">
+      <formula>105</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47">
+    <cfRule type="cellIs" dxfId="0" priority="48" operator="lessThanOrEqual">
+      <formula>70</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="47" operator="lessThanOrEqual">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="46" operator="greaterThanOrEqual">
+      <formula>105</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47">
+    <cfRule type="cellIs" dxfId="0" priority="45" operator="lessThanOrEqual">
+      <formula>70</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="44" operator="lessThanOrEqual">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="43" operator="greaterThanOrEqual">
+      <formula>105</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J48">
     <cfRule type="cellIs" dxfId="0" priority="42" operator="lessThanOrEqual">
       <formula>70</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="41" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="38" operator="lessThanOrEqual">
       <formula>60</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="40" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="34" operator="greaterThanOrEqual">
       <formula>105</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45">
+  <conditionalFormatting sqref="K48">
+    <cfRule type="cellIs" dxfId="0" priority="30" operator="lessThanOrEqual">
+      <formula>70</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="26" operator="lessThanOrEqual">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="22" operator="greaterThanOrEqual">
+      <formula>105</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J49">
+    <cfRule type="cellIs" dxfId="0" priority="41" operator="lessThanOrEqual">
+      <formula>70</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="37" operator="lessThanOrEqual">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="33" operator="greaterThanOrEqual">
+      <formula>105</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49">
+    <cfRule type="cellIs" dxfId="0" priority="29" operator="lessThanOrEqual">
+      <formula>70</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="25" operator="lessThanOrEqual">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="21" operator="greaterThanOrEqual">
+      <formula>105</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J50">
+    <cfRule type="cellIs" dxfId="0" priority="40" operator="lessThanOrEqual">
+      <formula>70</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="36" operator="lessThanOrEqual">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="32" operator="greaterThanOrEqual">
+      <formula>105</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50">
+    <cfRule type="cellIs" dxfId="0" priority="28" operator="lessThanOrEqual">
+      <formula>70</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="24" operator="lessThanOrEqual">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="20" operator="greaterThanOrEqual">
+      <formula>105</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J51">
     <cfRule type="cellIs" dxfId="0" priority="39" operator="lessThanOrEqual">
       <formula>70</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="38" operator="lessThanOrEqual">
-      <formula>60</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="37" operator="greaterThanOrEqual">
-      <formula>105</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J46">
-    <cfRule type="cellIs" dxfId="0" priority="36" operator="lessThanOrEqual">
-      <formula>70</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="35" operator="lessThanOrEqual">
       <formula>60</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="34" operator="greaterThanOrEqual">
-      <formula>105</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K46">
-    <cfRule type="cellIs" dxfId="0" priority="33" operator="lessThanOrEqual">
-      <formula>70</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="32" operator="lessThanOrEqual">
-      <formula>60</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="31" operator="greaterThanOrEqual">
       <formula>105</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
-    <cfRule type="cellIs" dxfId="0" priority="30" operator="lessThanOrEqual">
-      <formula>70</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="29" operator="lessThanOrEqual">
-      <formula>60</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="28" operator="greaterThanOrEqual">
-      <formula>105</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K47">
+  <conditionalFormatting sqref="K51">
     <cfRule type="cellIs" dxfId="0" priority="27" operator="lessThanOrEqual">
       <formula>70</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="26" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="23" operator="lessThanOrEqual">
       <formula>60</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="25" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="19" operator="greaterThanOrEqual">
       <formula>105</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J48">
-    <cfRule type="cellIs" dxfId="0" priority="24" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="J52">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="lessThanOrEqual">
       <formula>70</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="20" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="lessThanOrEqual">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="greaterThanOrEqual">
+      <formula>105</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="lessThanOrEqual">
+      <formula>70</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="lessThanOrEqual">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="greaterThanOrEqual">
+      <formula>105</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J53">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThanOrEqual">
+      <formula>70</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="lessThanOrEqual">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThanOrEqual">
+      <formula>105</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K53">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThanOrEqual">
+      <formula>70</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThanOrEqual">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThanOrEqual">
+      <formula>105</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J54">
+    <cfRule type="cellIs" dxfId="0" priority="18" operator="lessThanOrEqual">
+      <formula>70</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="17" operator="lessThanOrEqual">
       <formula>60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="16" operator="greaterThanOrEqual">
       <formula>105</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48">
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="K54">
+    <cfRule type="cellIs" dxfId="0" priority="15" operator="lessThanOrEqual">
       <formula>70</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="lessThanOrEqual">
-      <formula>60</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThanOrEqual">
-      <formula>105</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J49">
-    <cfRule type="cellIs" dxfId="0" priority="23" operator="lessThanOrEqual">
-      <formula>70</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="19" operator="lessThanOrEqual">
-      <formula>60</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="15" operator="greaterThanOrEqual">
-      <formula>105</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K49">
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="lessThanOrEqual">
-      <formula>70</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="lessThanOrEqual">
-      <formula>60</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
-      <formula>105</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J50">
-    <cfRule type="cellIs" dxfId="0" priority="22" operator="lessThanOrEqual">
-      <formula>70</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="18" operator="lessThanOrEqual">
-      <formula>60</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="14" operator="greaterThanOrEqual">
-      <formula>105</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K50">
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="lessThanOrEqual">
-      <formula>70</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThanOrEqual">
-      <formula>60</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThanOrEqual">
-      <formula>105</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J51">
-    <cfRule type="cellIs" dxfId="0" priority="21" operator="lessThanOrEqual">
-      <formula>70</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="17" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="lessThanOrEqual">
       <formula>60</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="13" operator="greaterThanOrEqual">
       <formula>105</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51">
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="lessThanOrEqual">
-      <formula>70</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="J2:J29">
+    <cfRule type="cellIs" dxfId="2" priority="73" operator="greaterThanOrEqual">
+      <formula>105</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="74" operator="lessThanOrEqual">
       <formula>60</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThanOrEqual">
-      <formula>105</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J29">
-    <cfRule type="cellIs" dxfId="2" priority="55" operator="greaterThanOrEqual">
-      <formula>105</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="56" operator="lessThanOrEqual">
-      <formula>60</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="57" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="75" operator="lessThanOrEqual">
       <formula>70</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30:J44">
-    <cfRule type="cellIs" dxfId="2" priority="49" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="67" operator="greaterThanOrEqual">
       <formula>105</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="50" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="68" operator="lessThanOrEqual">
       <formula>60</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="51" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="69" operator="lessThanOrEqual">
       <formula>70</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K29">
-    <cfRule type="cellIs" dxfId="2" priority="46" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="64" operator="greaterThanOrEqual">
       <formula>105</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="47" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="65" operator="lessThanOrEqual">
       <formula>60</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="48" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="66" operator="lessThanOrEqual">
       <formula>70</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:K44">
-    <cfRule type="cellIs" dxfId="2" priority="43" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="61" operator="greaterThanOrEqual">
       <formula>105</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="44" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="62" operator="lessThanOrEqual">
       <formula>60</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="45" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="63" operator="lessThanOrEqual">
       <formula>70</formula>
     </cfRule>
   </conditionalFormatting>
